--- a/datos/productos.xlsx
+++ b/datos/productos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lpz_p\Desktop\Mi Proyecto Gib\Catalogo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lpz_p\Desktop\Mi Proyecto Gib\Catalogo\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$230</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="796">
   <si>
     <t>Sin Especificaciones</t>
   </si>
@@ -193,15 +193,6 @@
     <t>https://articulo.mercadolibre.com.mx/MLM-2194767291-adaptador-usb-c-hub-tipo-c-8-en-1-multipuerto-usb-30-sd-_JM?quantity=1&amp;variation_id=186205792759</t>
   </si>
   <si>
-    <t>Alberca Para Bebe Chapoteadero Inflable Con Rociador170 Cms</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_2X_606768-MLM82899974599_032025-F-alberca-para-bebe-chapoteadero-inflable-con-rociador170-cms.webp</t>
-  </si>
-  <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-2240121321-alberca-para-bebe-chapoteadero-inflable-con-rociador170-cms-_JM?quantity=1&amp;variation_id=186968279041</t>
-  </si>
-  <si>
     <t>Alta Calidad Un Par Tipo Flexible Plumas Limpiaparabrisas</t>
   </si>
   <si>
@@ -442,15 +433,6 @@
     <t>https://articulo.mercadolibre.com.mx/MLM-2500218665-camiseta-for-hombre-de-aliexpress-gran-oferta-escape-del-_JM?attributes=COLOR_SECONDARY_COLOR%3AVDkxNg%3D%3D&amp;quantity=1&amp;picker=true&amp;variation_id=191730036739</t>
   </si>
   <si>
-    <t>Carpeta De Tarjetas Pokemon 900 Bolsillos Album Tarjetas</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_805500-MLM75015725841_032024-N.jpg</t>
-  </si>
-  <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-1998430747-carpeta-de-tarjetas-pokemon-900-bolsillos-album-tarjetas-_JM?quantity=1&amp;variation_id=181206837097</t>
-  </si>
-  <si>
     <t>Cartera De Cuero Con Monedero Cierre Para Hombre</t>
   </si>
   <si>
@@ -536,15 +518,6 @@
   </si>
   <si>
     <t>https://articulo.mercadolibre.com.mx/MLM-2057713449-6pcs-cinta-kinesiologicas-vendaje-neuromuscular-tape-5mx5cm-_JM?searchVariation=182612467605#polycard_client=search-nordic&amp;searchVariation=182612467605&amp;backend_model=search-backend&amp;position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=9e0c4eb0-0968-474e-85a3-98ac3981370d</t>
-  </si>
-  <si>
-    <t>Cinturón Hernia Hombre Compresión Ingle Soporte Ajustable</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_729704-MLM54932998918_042023-O-cinturon-hernia-hombre-compresion-ingle-soporte-ajustable.webp</t>
-  </si>
-  <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-1908555724-cinturon-hernia-hombre-compresion-ingle-soporte-ajustable-_JM?quantity=1&amp;variation_id=177063522674</t>
   </si>
   <si>
     <t>Control Inalámbrico Compatible Switch Wireless Transparencia Para Nintendo Switch Gamepad</t>
@@ -1373,15 +1346,6 @@
     <t>https://http2.mlstatic.com/D_822092-MLM49894453646_052022-N.jpg</t>
   </si>
   <si>
-    <t>Plumones Mágicos 40 Marcadores Cambian Color Y Borran</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_2X_601875-CBT85562044421_062025-F-plumones-magicos-iforu-40-marcadores-cambian-color-y-borran.webp</t>
-  </si>
-  <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-3610660808-plumones-magicos-iforu-40-marcadores-cambian-color-y-borran-_JM?quantity=1#&amp;gid=1&amp;pid=1</t>
-  </si>
-  <si>
     <t>Portátil Ventiladorhumidificador Ventilador De Escritorio</t>
   </si>
   <si>
@@ -1430,15 +1394,6 @@
     <t>https://www.mercadolibre.com.mx/proyector-de-estrella-y-galaxialuna-luz-de-noche-para-ninos/up/MLMU900908293</t>
   </si>
   <si>
-    <t>Proyector Mini Portátil Android Hy300 Led Wifi Profesional</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_639244-MLM85756967164_062025-O-proyector-4k-mini-portatil-android-tv-hy300-wifi-profesional.webp</t>
-  </si>
-  <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-3585176758-proyector-4k-mini-portatil-android-tv-hy300-wifi-profesional-_JM?quantity=1</t>
-  </si>
-  <si>
     <t>Proyector Portátil 1080p 4k Full Hd Wifi Android Bluetooth</t>
   </si>
   <si>
@@ -1832,15 +1787,6 @@
     <t>https://articulo.mercadolibre.com.mx/MLM-2799531022-zapatos-casuales</t>
   </si>
   <si>
-    <t>Zapatos De Tenis Hombre Casuales Transpirable Moda Deportivo</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_2X_668388-CBT73853981640_012024-F-zapatos-de-tenis-hombre-casuales-transpirable-moda-deportivo.webp</t>
-  </si>
-  <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-1503534365-zapatos-de-tenis-hombre-casuales-transpirable-moda-deportivo-_JM?attributes=COLOR_SECONDARY_COLOR%3AR3Jpcw%3D%3D&amp;quantity=1&amp;picker=true&amp;variation_id=181702778853</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -1895,18 +1841,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_710086-MLM72863205659_112023-F-extractor-de-jugos-portatil-licuadora-frutas-y-verduras-15l.webp</t>
   </si>
   <si>
-    <t>Potencia: 2000 W</t>
-  </si>
-  <si>
-    <t>Pistola Hidrolavadora Electrica Portatil 4500 Psi 127v</t>
-  </si>
-  <si>
-    <t>https://www.mercadolibre.com.mx/pistola-hidrolavadora-electrica-portatil-4500-psi-2000w-127v/up/MLMU3190564172</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_2X_726028-MLM87754139664_072025-F.webp</t>
-  </si>
-  <si>
     <t>https://articulo.mercadolibre.com.mx/MLM-2539990229-20-pares-de-pestanas-postizas-3d-mixtas-de-vison-natural-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-1485888194-20-pares-de-pestanas-postizas-3d-mixtas-de-vison-natural-_JM</t>
   </si>
   <si>
@@ -2043,6 +1977,447 @@
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_978937-MLB85051143906_052025-F.webp</t>
+  </si>
+  <si>
+    <t>Secadora De Cabello Alta Velocidad Profesional 6 En 1 y Rizadora Alaciadora</t>
+  </si>
+  <si>
+    <t>Potencia: 1300 W</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/kaxws-secadora-de-cabello-alta-velocidad-profesional-6-en-1-profesional-cepillo-secador-plancha-rizadora-alaciadora-4-temperaturas-y-3-velocidades-del-viento-y-caliente/p/MLM63711565?pdp_filters=item_id:MLM4724304668</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_885715-MLA103257094455_122025-F.webp; https://http2.mlstatic.com/D_NQ_NP_2X_612358-MLA102745474728_122025-F.webp</t>
+  </si>
+  <si>
+    <t>NUEVO</t>
+  </si>
+  <si>
+    <t>Tenis Hombre Casual Comodos Antideslizante Al Aire Libre</t>
+  </si>
+  <si>
+    <t>Color: Gris, Talla: 24.5</t>
+  </si>
+  <si>
+    <t>Botas Seguridad Casquillo Industrial Negras Trabajo Medium</t>
+  </si>
+  <si>
+    <t>Color: Negro, Talla: 23.5</t>
+  </si>
+  <si>
+    <t>Funda Llave Para 2010-2014 Chevy Camaro Cruze Malibu Equinox</t>
+  </si>
+  <si>
+    <t>Color: Negro/Verde, Talla: 27.5</t>
+  </si>
+  <si>
+    <t>Tenis Para Correr Hombre Training Air Casual Aumentar Altura</t>
+  </si>
+  <si>
+    <t>Zapatos Hombre Casual Cómodo Plataforma Tenis Air Correr</t>
+  </si>
+  <si>
+    <t>Color: Blanco/Negro, Talla: 27.5</t>
+  </si>
+  <si>
+    <t>Tenis Negros Mujer Para Hombres Deportivos Correr Plataforma</t>
+  </si>
+  <si>
+    <t>Color: Negro y blanco, Talla: 27</t>
+  </si>
+  <si>
+    <t>Tenis Para Correr Hombre Training Casual Escalar Air</t>
+  </si>
+  <si>
+    <t>Color: Naranja, Talla: 29.5</t>
+  </si>
+  <si>
+    <t>ZAPATOS</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2259636894-tenis-hombre-casual-comodos-antideslizante-al-aire-libre-_JM?quantity=1&amp;variation_id=177973578498</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_968164-CBT69934142593_062023-F-tenis-hombre-casual-comodos-antideslizante-al-aire-libre.webp; https://http2.mlstatic.com/D_NQ_NP_2X_893575-CBT69934142599_062023-F-tenis-hombre-casual-comodos-antideslizante-al-aire-libre.webp; https://http2.mlstatic.com/D_NQ_NP_2X_623481-CBT69934142623_062023-F-tenis-hombre-casual-comodos-antideslizante-al-aire-libre.webp; https://http2.mlstatic.com/D_NQ_NP_2X_942687-CBT69934142591_062023-F-tenis-hombre-casual-comodos-antideslizante-al-aire-libre.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3655792816-botas-seguridad-casquillo-industrial-negras-trabajo-medium-_JM?quantity=1&amp;variation_id=187645152665</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_883086-CBT87076193000_072025-F-botas-seguridad-casquillo-industrial-negras-trabajo-medium.webp;https://http2.mlstatic.com/D_NQ_NP_2X_836252-CBT87402609291_072025-F-botas-seguridad-casquillo-industrial-negras-trabajo-medium.webp;https://http2.mlstatic.com/D_NQ_NP_2X_955355-CBT87403386107_072025-F-botas-seguridad-casquillo-industrial-negras-trabajo-medium.webp</t>
+  </si>
+  <si>
+    <t>Para Chevrolet</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-4444874122-funda-llave-para-2010-2014-chevy-camaro-cruze-malibu-equinox-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_962131-CBT102332838159_122025-F-funda-llave-para-2010-2014-chevy-camaro-cruze-malibu-equinox.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3355939456-tenis-para-correr-hombre-training-air-casual-aumentar-altura-_JM?quantity=1&amp;variation_id=181605600580</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_997322-CBT103660890148_012026-F-tenis-para-correr-hombre-training-air-casual-aumentar-altura.webp;https://http2.mlstatic.com/D_NQ_NP_2X_975868-CBT103663935786_012026-F-tenis-para-correr-hombre-training-air-casual-aumentar-altura.webp;https://http2.mlstatic.com/D_NQ_NP_2X_627073-CBT103663935788_012026-F-tenis-para-correr-hombre-training-air-casual-aumentar-altura.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3444035994-zapatos-hombre-casual-comodo-plataforma-tenis-air-correr-_JM?quantity=1&amp;variation_id=185892431333</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_820205-CBT81607194888_012025-F-zapatos-hombre-casual-comodo-plataforma-tenis-air-correr.webp;https://http2.mlstatic.com/D_NQ_NP_2X_647640-CBT81606851762_012025-F-zapatos-hombre-casual-comodo-plataforma-tenis-air-correr.webp;https://http2.mlstatic.com/D_NQ_NP_2X_857083-CBT81878588719_012025-F-zapatos-hombre-casual-comodo-plataforma-tenis-air-correr.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3494078078-tenis-negros-mujer-para-hombres-deportivos-correr-plataforma-_JM?quantity=1&amp;variation_id=182474222256</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_657600-CBT82994845559_032025-F-tenis-negros-mujer-para-hombres-deportivos-correr-plataforma.webp;https://http2.mlstatic.com/D_NQ_NP_2X_922980-CBT82707636514_032025-F-tenis-negros-mujer-para-hombres-deportivos-correr-plataforma.webp;https://http2.mlstatic.com/D_NQ_NP_2X_608906-CBT82994845551_032025-F-tenis-negros-mujer-para-hombres-deportivos-correr-plataforma.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2086007917-tenis-para-correr-hombre-training-casual-escalar-air-lnkfuu-_JM?attributes=COLOR_SECONDARY_COLOR%3ATmFyYW5qYQ%3D%3D&amp;quantity=1&amp;picker=true&amp;variation_id=180794499448</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_864722-CBT77179998267_062024-F-tenis-para-correr-hombre-training-casual-escalar-air-lnkfuu.webp;https://http2.mlstatic.com/D_NQ_NP_2X_746994-CBT77179998255_062024-F-tenis-para-correr-hombre-training-casual-escalar-air-lnkfuu.webp;https://http2.mlstatic.com/D_NQ_NP_2X_765695-CBT77179998277_062024-F-tenis-para-correr-hombre-training-casual-escalar-air-lnkfuu.webp</t>
+  </si>
+  <si>
+    <t>Extractor De Saca Leche Eléctrico Portátil Manos Libres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2pcs </t>
+  </si>
+  <si>
+    <t>Bolso Mariconera Hombre Maletin Bandoleras Y Billetera</t>
+  </si>
+  <si>
+    <t>Color: Marron, Material: Cuero, Unidad: 5 pcs</t>
+  </si>
+  <si>
+    <t>Encendedor Eléctrico Recargable Usb De Cocina Multiusos</t>
+  </si>
+  <si>
+    <t>Línea De Datos Carga Rápida Para iPhone 11 12 13 14, 2m</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/2pcs-extractor-de-saca-leche-electrico-portatil-manos-libres/up/MLMU3557729433?pdp_filters=item_id:MLM4368669934</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_904457-MLM105306474973_012026-F.webp</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/bolso-mariconera-hombre-maletin-bandoleras-y-billetera-kit/up/MLMU3521903832?pdp_filters=item_id:MLM2528757225</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_871061-MLM104186775551_012026-F.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_728038-MLM103047820893_122025-F.webp</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/2pcs-encendedor-electrico-recargable-usb-de-cocina-multiusos/up/MLMU3516416728?pdp_filters=item_id:MLM4258586086</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_793333-MLM104626432750_012026-F.webp</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/2pzs-linea-de-datos-carga-rapida-para-iphone-11-12-13-14-2m/up/MLMU3718355944?pdp_filters=item_id:MLM4637149216</t>
+  </si>
+  <si>
+    <t>2 Metros</t>
+  </si>
+  <si>
+    <t>45w Cargador Super Cargar Tipo C</t>
+  </si>
+  <si>
+    <t>Adaptador Wifi 5g/2.4g +bluetooth Doble Banda Para Pc 600mb</t>
+  </si>
+  <si>
+    <t>Kit Barba Cuidado Para Hombres Herramientas De Aseo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14pcs</t>
+  </si>
+  <si>
+    <t>Color: Negro</t>
+  </si>
+  <si>
+    <t>Kit Decoración De Pasteles  Utensilios Para Pasteleria</t>
+  </si>
+  <si>
+    <t>385 pcs</t>
+  </si>
+  <si>
+    <t>Kit Cuidado Barba Con Champú, Aceite, Peine Y Tijeras</t>
+  </si>
+  <si>
+    <t>13 Piezas</t>
+  </si>
+  <si>
+    <t>Kit Cuidado Barba 14 En 1 Aceite Champú Maquinilla Y Más</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2439825243-kit-barba-cuidado-para-hombres-herramientas-de-aseo-14pcs-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_683983-MLM102112967307_122025-F-kit-barba-cuidado-para-hombres-herramientas-de-aseo-14pcs.webp</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/lwmaster-45w-cargador-super-cargar-tipo-c-con-cable-de-2-metros-5a-para-samsung-s25-ultras24-ultras23-ultras22-ultras21-ulltraa56a55a36a26a16a06note20-ultra-para-iphone-151617-pro-max/p/MLM63980357?pdp_filters=item_id:MLM2674843151</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_784107-MLM83072334515_032025-F.webp</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/adaptador-wifi-5g24g-bluetooth-doble-banda-para-pc-600mb/up/MLMU3056314557?pdp_filters=item_id:MLM2254896969</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_867108-MLA104116539703_012026-F.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_880392-MLM103657635906_012026-F.webp</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/kit-decoracion-de-pasteles-385pcs-utensilios-para-pasteleria/up/MLMU3448446417?pdp_filters=item_id:MLM4136247428</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_876355-MLA81200813701_122024-F.webp</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/kit-cuidado-barba-13-piezas-jrff-gwky-con-champu-aceite-peine-y-tijeras/p/MLM44469262?pdp_filters=item_id:MLM2200182507</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/kit-cuidado-barba-14-en-1-aceite-champu-maquinilla-y-mas/up/MLMU3409961594</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_898088-MLM91822334165_092025-F.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-4527011582-anillos-ajustables-s925-que-brillan-en-la-oscuridad-pareja-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>Pulcera  Ajustables S925 Que Brillan En La Oscuridad, Pareja</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_847341-CBT105804434151_012026-F-anillos-ajustables-s925-que-brillan-en-la-oscuridad-pareja.webp</t>
+  </si>
+  <si>
+    <t>Materia: Plata 925</t>
+  </si>
+  <si>
+    <t>Celular Tiger Lite Dual Sim Celulares 24gb Ram -256gb Rom 6.6inch 120hz Hdr 64mp Ai Camera Smartphone</t>
+  </si>
+  <si>
+    <t>24gb Ram -256gb Rom</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-4136444186-oscal-celular-tiger-lite-dual-sim-celulares-24gb-ram-256gb-rom-66inch-120hz-hdr-64mp-ai-camera-smartphone-_JM?quantity=1&amp;variation_id=185843110732</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_768137-CBT102099344875_122025-F-oscal-celular-tiger-lite-dual-sim-celulares-24gb-ram-256gb-rom-66inch-120hz-hdr-64mp-ai-camera-smartphone.webp</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/audifonos-inalambricos-doogee-bonebeat-swimlite-ip68-32gb-bluetooth-54-deportivos/p/MLM62323141?pdp_filters=item_id:MLM4433156988</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_693938-MLA98398272966_112025-F.webp</t>
+  </si>
+  <si>
+    <t>Audífonos Inalámbricos Doogee BoneBeat SwimLite IP68 32GB Deportivos</t>
+  </si>
+  <si>
+    <t>Bluetooth 5.4</t>
+  </si>
+  <si>
+    <t>Rosa Eterna Encapsulada Led Regalo San Valentín</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2542129535-rosa-eterna-encapsulada-led-regalo-san-valentin-mama-_JM?quantity=1&amp;variation_id=186782785904</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_827252-MLM97170556183_112025-F-rosa-eterna-encapsulada-led-regalo-san-valentin-mama.webp;https://http2.mlstatic.com/D_NQ_NP_2X_749552-MLM97169988883_112025-F-rosa-eterna-encapsulada-led-regalo-san-valentin-mama.webp</t>
+  </si>
+  <si>
+    <t>Con baterias incluidas</t>
+  </si>
+  <si>
+    <t>Aspersora Fumigadora Electrica 22 Litros Alta Presión</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/aspersora-fumigadora-electrica-22-litros-alta-presion-recargable-mochila-profesional-fumigador-manual-color-verde-con-8-boquillasbateria-de-litiovarilla-telescopicabandolera-pulverizador-para-jard/p/MLM63881261?pdp_filters=item_id:MLM4623237008</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_708006-MLA103810092223_012026-F.webp</t>
+  </si>
+  <si>
+    <t>Lampara De Abeja Minecraft Led Usb Recargable Decorativa Amarillo</t>
+  </si>
+  <si>
+    <t>Minecraft</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/lampara-de-abeja-minecraft-led-usb-recargable-decorativa-amarillo-pxchg/p/MLM63652819</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_694238-MLA102999786653_122025-F.webp;https://http2.mlstatic.com/D_NQ_NP_2X_827889-MLA103058643677_122025-F.webp</t>
+  </si>
+  <si>
+    <t>Cuero Sexy Cadera Felpa Con Máscara Ojos Collar</t>
+  </si>
+  <si>
+    <t>10 Pcs Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depiladora De Bikini Para Mujer Electrica Doble Cabeza 2in1 </t>
+  </si>
+  <si>
+    <t>50 pcs</t>
+  </si>
+  <si>
+    <t>Conector Terminal Conexion Rapida Empalme Electrico Gris Y Naranja Conexión Rápida</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/hutiirich-50pzs-conector-terminal-conexion-rapida-empalme-electrico-gris-y-naranja-conexion-rapida-cobre-estanado-acero-inoxidable-acero-inoxidable-32-a-02-25-4-mmawg-28-14-12/p/MLM62756075?pdp_filters=item_id:MLM2630212931</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_968938-MLA101383642594_122025-F.webp</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/wiknices-depiladora-de-bikini-para-mujer-electrica-doble-cabeza-2in1-ipx7-400-mah-tiempo-de-carga2-horas-tiempo-de-uso120minutos-uso-en-seco-y-humedo-extraible-y-lavable-suave-y-agradable-para-la-piel/p/MLM59139849</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_853396-MLA100943925528_122025-F.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2375121127-cuero-sexy-cadera-felpa-con-mascara-ojos-collar-10-pcs-set-_JM?quantity=1&amp;variation_id=189047870425</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_896479-MLM101269124632_122025-F-cuero-sexy-cadera-felpa-con-mascara-ojos-collar-10-pcs-set.webp</t>
+  </si>
+  <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
+    <t>Llavero Rompeampolleta Enfermera Jeringa Doctora Hospital</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-4380969726-2-llavero-rompeampolleta-enfermera-jeringa-doctora-hospital-_JM?quantity=1&amp;variation_id=187163350172</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_762073-MLM102119640101_122025-F-2-llavero-rompeampolleta-enfermera-jeringa-doctora-hospital.webp</t>
+  </si>
+  <si>
+    <t>10 Pcs</t>
+  </si>
+  <si>
+    <t>Figuras Para Demon Slayer Anime Juguetes Colección</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/10pzs-figuras-para-demon-slayer-anime-juguetes-coleccion/up/MLMU3497929458?pdp_filters=item_id:MLM4215759176</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_747981-MLM85822445889_062025-F.webp</t>
+  </si>
+  <si>
+    <t>12 Pcs</t>
+  </si>
+  <si>
+    <t>Globos De Coches De Carreras Para Fiesta De Cumpleaños</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3987863562-12-globos-de-coches-de-carreras-para-fiesta-de-cumpleanos-_JM?quantity=1&amp;variation_id=190027002025</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_911400-MLM99958492030_122025-F-12-globos-de-coches-de-carreras-para-fiesta-de-cumpleanos.webp</t>
+  </si>
+  <si>
+    <t>Funda Para iPad 11 Gen (a16)2025 /iPad 10a (10.9, 2022)a2696</t>
+  </si>
+  <si>
+    <t>Color: Azul</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3935022308-funda-para-ipad-11-gen-a162025-ipad-10a-109-2022a2696-_JM?quantity=1&amp;variation_id=189758990983#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_858330-MLM104699949281_012026-F-funda-para-ipad-11-gen-a162025-ipad-10a-109-2022a2696.webp</t>
+  </si>
+  <si>
+    <t>Peluche Stitch Kawaii Juguete Regalo De Navidad Para Niños</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3987885140-peluche-stitch-kawaii-juguete-regalo-de-navidad-para-ninos-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_915805-MLM99747989230_122025-F-peluche-stitch-kawaii-juguete-regalo-de-navidad-para-ninos.webp</t>
+  </si>
+  <si>
+    <t>Tamaño: 36cm x 25cm</t>
+  </si>
+  <si>
+    <t>Talla: L</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/playera-slim-fit-hombre-caballero-cuello-tortuga-camisa/up/MLMU3380835647?pdp_filters=item_id:MLM2422596155</t>
+  </si>
+  <si>
+    <t>Playera Slim Fit Hombre Caballero Cuello Tortuga Camisa</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_789813-MLM98974801608_112025-F.webp</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/plumoteca-pintura-acrilica-brillante-para-tela-lienzo-madera/up/MLMU3408661921?pdp_filters=item_id:MLM4054843184</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_716244-MLM91648851622_092025-F.webp</t>
+  </si>
+  <si>
+    <t>6 Pcs, 500Ml</t>
+  </si>
+  <si>
+    <t>Plumoteca Pintura Acrílica Brillante Para Tela Lienzo Madera</t>
+  </si>
+  <si>
+    <t>30 Metros</t>
+  </si>
+  <si>
+    <t>Guirnalda De Luces 30+2 Focos De Exterior Vintage</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/30-metors-guirnalda-de-luces-302-focos-de-exterior-vintage/up/MLMU3323190557#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_935441-MLM98932973976_112025-F.webp</t>
+  </si>
+  <si>
+    <t>Cargador De Batería Inteligentes Automático 12/24v Auto</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/cargador-de-bateria-inteligentes-automatico-1224v-auto/up/MLMU3409460575</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_718956-MLM99438622141_112025-F.webp</t>
+  </si>
+  <si>
+    <t>Filtro De Agua Regadera Para Purifica Agua En Baños Lian 80</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3852862790-filtro-de-agua-regadera-para-purifica-agua-en-banos-lian-80-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_617520-CBT102208583539_122025-F-filtro-de-agua-regadera-para-purifica-agua-en-banos-lian-80.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3845705810-libreta-college-sovereign-cuadernos-cosida-10-hojas-8-pagi-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>Libreta College Sovereign Cuadernos Cosida, 10 Hojas</t>
+  </si>
+  <si>
+    <t>8 Pcs</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_856289-CBT101020261203_122025-F-libreta-college-sovereign-cuadernos-cosida-10-hojas-8-pagi.webp</t>
   </si>
 </sst>
 </file>
@@ -2124,8 +2499,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:G199" totalsRowShown="0">
-  <autoFilter ref="A1:G199"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:G230" totalsRowShown="0">
+  <autoFilter ref="A1:G230"/>
   <sortState ref="A2:G247">
     <sortCondition ref="G1:G247"/>
   </sortState>
@@ -2405,10 +2780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:G230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="E230" sqref="E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,33 +2799,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="B1" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="C1" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="D1" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="E1" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="F1" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C2" s="1">
         <v>180</v>
@@ -2459,10 +2834,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G2" s="2">
         <v>2</v>
@@ -2470,10 +2845,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C3">
         <v>298</v>
@@ -2482,10 +2857,10 @@
         <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F3" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G3" s="2">
         <v>2</v>
@@ -2493,7 +2868,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -2502,10 +2877,10 @@
         <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G4" s="2">
         <v>8.1</v>
@@ -2513,10 +2888,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C5">
         <v>439</v>
@@ -2525,10 +2900,10 @@
         <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F5" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -2559,10 +2934,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>250</v>
@@ -2571,10 +2946,10 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
@@ -2582,10 +2957,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <v>379.5</v>
@@ -2594,10 +2969,10 @@
         <v>300</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
@@ -2605,10 +2980,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C9">
         <v>525</v>
@@ -2617,10 +2992,10 @@
         <v>450</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
@@ -2628,10 +3003,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C10">
         <v>160</v>
@@ -2640,7 +3015,7 @@
         <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -2651,7 +3026,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -2663,7 +3038,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -2674,7 +3049,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B12">
         <v>9006</v>
@@ -2686,10 +3061,10 @@
         <v>790</v>
       </c>
       <c r="E12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F12" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
@@ -2697,10 +3072,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C13">
         <v>259</v>
@@ -2709,10 +3084,10 @@
         <v>200</v>
       </c>
       <c r="E13" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F13" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G13" s="2">
         <v>3</v>
@@ -2720,10 +3095,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B14" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C14">
         <v>442.66</v>
@@ -2732,10 +3107,10 @@
         <v>250</v>
       </c>
       <c r="E14" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F14" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="G14" s="2">
         <v>3</v>
@@ -2743,19 +3118,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B15" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C15">
         <v>400</v>
       </c>
       <c r="E15" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F15" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G15" s="2">
         <v>3</v>
@@ -2763,10 +3138,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C16">
         <v>166.88</v>
@@ -2775,7 +3150,7 @@
         <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -2786,10 +3161,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B17" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C17">
         <v>149.99</v>
@@ -2798,7 +3173,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
@@ -2809,10 +3184,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B18" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C18">
         <v>670.68</v>
@@ -2821,10 +3196,10 @@
         <v>455</v>
       </c>
       <c r="E18" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F18" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G18" s="2">
         <v>3</v>
@@ -2832,7 +3207,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -2844,10 +3219,10 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F19" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G19" s="2">
         <v>3</v>
@@ -2855,7 +3230,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -2864,10 +3239,10 @@
         <v>350</v>
       </c>
       <c r="E20" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F20" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G20" s="2">
         <v>3</v>
@@ -2875,10 +3250,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B21" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C21">
         <v>599</v>
@@ -2887,10 +3262,10 @@
         <v>390</v>
       </c>
       <c r="E21" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F21" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G21" s="2">
         <v>3</v>
@@ -2898,7 +3273,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -2910,10 +3285,10 @@
         <v>500</v>
       </c>
       <c r="E22" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F22" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G22" s="2">
         <v>3</v>
@@ -2921,7 +3296,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -2933,10 +3308,10 @@
         <v>180</v>
       </c>
       <c r="E23" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="F23" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="G23" s="2">
         <v>3</v>
@@ -2944,10 +3319,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C24">
         <v>652</v>
@@ -2956,10 +3331,10 @@
         <v>620</v>
       </c>
       <c r="E24" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F24" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G24" s="2">
         <v>3.1</v>
@@ -2967,19 +3342,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="B25" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="C25">
         <v>700</v>
       </c>
       <c r="E25" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="F25" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="G25" s="2">
         <v>3.1</v>
@@ -2987,10 +3362,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C26">
         <v>250</v>
@@ -2999,10 +3374,10 @@
         <v>200</v>
       </c>
       <c r="E26" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F26" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G26" s="2">
         <v>3.1</v>
@@ -3010,10 +3385,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C27">
         <v>699</v>
@@ -3022,10 +3397,10 @@
         <v>500</v>
       </c>
       <c r="E27" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F27" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G27" s="2">
         <v>3.1</v>
@@ -3033,10 +3408,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C28">
         <v>388</v>
@@ -3045,10 +3420,10 @@
         <v>250</v>
       </c>
       <c r="E28" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G28" s="2">
         <v>3.1</v>
@@ -3056,10 +3431,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B29" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C29">
         <v>750</v>
@@ -3068,10 +3443,10 @@
         <v>650</v>
       </c>
       <c r="E29" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="F29" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="G29" s="2">
         <v>3.1</v>
@@ -3079,10 +3454,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="B30" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C30">
         <v>893</v>
@@ -3091,10 +3466,10 @@
         <v>500</v>
       </c>
       <c r="E30" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="F30" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="G30" s="2">
         <v>3.1</v>
@@ -3102,7 +3477,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -3111,10 +3486,10 @@
         <v>250</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G31" s="2">
         <v>4</v>
@@ -3122,7 +3497,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -3131,7 +3506,7 @@
         <v>150</v>
       </c>
       <c r="E32" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -3142,7 +3517,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -3151,10 +3526,10 @@
         <v>250</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G33" s="2">
         <v>4</v>
@@ -3162,22 +3537,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="D34">
         <v>150</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>647</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>646</v>
       </c>
       <c r="G34" s="2">
         <v>4</v>
@@ -3185,7 +3560,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
@@ -3193,14 +3568,11 @@
       <c r="C35">
         <v>250</v>
       </c>
-      <c r="D35">
-        <v>150</v>
-      </c>
       <c r="E35" t="s">
-        <v>669</v>
+        <v>251</v>
       </c>
       <c r="F35" t="s">
-        <v>668</v>
+        <v>252</v>
       </c>
       <c r="G35" s="2">
         <v>4</v>
@@ -3208,7 +3580,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
@@ -3217,10 +3589,10 @@
         <v>250</v>
       </c>
       <c r="E36" t="s">
-        <v>260</v>
+        <v>645</v>
       </c>
       <c r="F36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G36" s="2">
         <v>4</v>
@@ -3228,19 +3600,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="F37" t="s">
-        <v>271</v>
+        <v>644</v>
       </c>
       <c r="G37" s="2">
         <v>4</v>
@@ -3248,19 +3620,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E38" t="s">
-        <v>665</v>
+        <v>275</v>
       </c>
       <c r="F38" t="s">
-        <v>666</v>
+        <v>276</v>
       </c>
       <c r="G38" s="2">
         <v>4</v>
@@ -3268,7 +3640,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -3277,10 +3649,10 @@
         <v>250</v>
       </c>
       <c r="E39" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F39" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G39" s="2">
         <v>4</v>
@@ -3288,7 +3660,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -3297,10 +3669,10 @@
         <v>250</v>
       </c>
       <c r="E40" t="s">
-        <v>287</v>
+        <v>642</v>
       </c>
       <c r="F40" t="s">
-        <v>288</v>
+        <v>641</v>
       </c>
       <c r="G40" s="2">
         <v>4</v>
@@ -3308,7 +3680,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>293</v>
+        <v>441</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -3317,10 +3689,10 @@
         <v>250</v>
       </c>
       <c r="E41" t="s">
-        <v>664</v>
+        <v>442</v>
       </c>
       <c r="F41" t="s">
-        <v>663</v>
+        <v>443</v>
       </c>
       <c r="G41" s="2">
         <v>4</v>
@@ -3328,62 +3700,65 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>453</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E42" t="s">
-        <v>454</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>455</v>
-      </c>
-      <c r="G42" s="2">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C43">
-        <v>150</v>
+        <v>450</v>
+      </c>
+      <c r="D43">
+        <v>350</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
-      </c>
-      <c r="G43" s="3">
+        <v>24</v>
+      </c>
+      <c r="G43" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C44">
-        <v>450</v>
+        <v>298</v>
       </c>
       <c r="D44">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G44" s="2">
         <v>5</v>
@@ -3391,22 +3766,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C45">
         <v>298</v>
       </c>
       <c r="D45">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G45" s="2">
         <v>5</v>
@@ -3414,22 +3789,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>298</v>
+        <v>689.2</v>
       </c>
       <c r="D46">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G46" s="2">
         <v>5</v>
@@ -3437,22 +3812,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>689.2</v>
-      </c>
-      <c r="D47">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G47" s="2">
         <v>5</v>
@@ -3460,19 +3832,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>200</v>
+        <v>299</v>
+      </c>
+      <c r="D48">
+        <v>180</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G48" s="2">
         <v>5</v>
@@ -3480,22 +3855,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="D49">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F49" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G49" s="2">
         <v>5</v>
@@ -3509,10 +3884,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>352</v>
-      </c>
-      <c r="D50">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="E50" t="s">
         <v>66</v>
@@ -3532,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>230</v>
+        <v>365</v>
       </c>
       <c r="E51" t="s">
         <v>69</v>
@@ -3552,7 +3924,10 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>365</v>
+        <v>169</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
       </c>
       <c r="E52" t="s">
         <v>72</v>
@@ -3566,22 +3941,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="D53">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G53" s="2">
         <v>5</v>
@@ -3595,9 +3970,6 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>200</v>
-      </c>
-      <c r="D54">
         <v>150</v>
       </c>
       <c r="E54" t="s">
@@ -3612,19 +3984,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="C55">
-        <v>150</v>
+        <v>6758</v>
+      </c>
+      <c r="D55">
+        <v>5500</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="F55" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="G55" s="2">
         <v>5</v>
@@ -3632,22 +4007,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56">
+        <v>5999</v>
+      </c>
+      <c r="D56">
+        <v>5200</v>
+      </c>
+      <c r="E56" t="s">
         <v>146</v>
       </c>
-      <c r="B56" t="s">
+      <c r="F56" t="s">
         <v>147</v>
-      </c>
-      <c r="C56">
-        <v>9024</v>
-      </c>
-      <c r="D56">
-        <v>4861</v>
-      </c>
-      <c r="E56" t="s">
-        <v>148</v>
-      </c>
-      <c r="F56" t="s">
-        <v>149</v>
       </c>
       <c r="G56" s="2">
         <v>5</v>
@@ -3655,22 +4030,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>9525</v>
-      </c>
-      <c r="D57">
-        <v>5860.07</v>
+        <v>250</v>
       </c>
       <c r="E57" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="F57" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="G57" s="2">
         <v>5</v>
@@ -3678,19 +4050,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>194</v>
+        <v>324</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>250</v>
+        <v>420</v>
+      </c>
+      <c r="D58">
+        <v>350</v>
       </c>
       <c r="E58" t="s">
-        <v>195</v>
-      </c>
-      <c r="F58" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
       <c r="G58" s="2">
         <v>5</v>
@@ -3701,16 +4073,19 @@
         <v>333</v>
       </c>
       <c r="B59" t="s">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="C59">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="D59">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="E59" t="s">
-        <v>334</v>
+        <v>335</v>
+      </c>
+      <c r="F59" t="s">
+        <v>336</v>
       </c>
       <c r="G59" s="2">
         <v>5</v>
@@ -3718,22 +4093,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>342</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>350</v>
-      </c>
-      <c r="D60">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E60" t="s">
-        <v>344</v>
+        <v>431</v>
       </c>
       <c r="F60" t="s">
-        <v>345</v>
+        <v>432</v>
       </c>
       <c r="G60" s="2">
         <v>5</v>
@@ -3741,19 +4113,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E61" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F61" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G61" s="2">
         <v>5</v>
@@ -3761,19 +4133,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E62" t="s">
-        <v>443</v>
-      </c>
-      <c r="F62" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G62" s="2">
         <v>5</v>
@@ -3781,16 +4150,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>150</v>
+        <v>365</v>
       </c>
       <c r="E63" t="s">
-        <v>446</v>
+        <v>474</v>
+      </c>
+      <c r="F63" t="s">
+        <v>475</v>
       </c>
       <c r="G63" s="2">
         <v>5</v>
@@ -3798,19 +4170,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>365</v>
+        <v>350</v>
+      </c>
+      <c r="D64">
+        <v>250</v>
       </c>
       <c r="E64" t="s">
-        <v>489</v>
-      </c>
-      <c r="F64" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="G64" s="2">
         <v>5</v>
@@ -3818,19 +4190,22 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="D65">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E65" t="s">
-        <v>492</v>
+        <v>481</v>
+      </c>
+      <c r="F65" t="s">
+        <v>482</v>
       </c>
       <c r="G65" s="2">
         <v>5</v>
@@ -3838,22 +4213,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>1500</v>
+        <v>1552</v>
       </c>
       <c r="D66">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E66" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="F66" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="G66" s="2">
         <v>5</v>
@@ -3861,22 +4236,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>1552</v>
+        <v>999</v>
       </c>
       <c r="D67">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E67" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F67" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G67" s="2">
         <v>5</v>
@@ -3884,22 +4259,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>501</v>
+        <v>539</v>
       </c>
       <c r="B68" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C68">
-        <v>999</v>
+        <v>445</v>
       </c>
       <c r="D68">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E68" t="s">
-        <v>502</v>
-      </c>
-      <c r="F68" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="G68" s="2">
         <v>5</v>
@@ -3907,19 +4279,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>542</v>
       </c>
       <c r="C69">
-        <v>445</v>
+        <v>325</v>
       </c>
       <c r="D69">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E69" t="s">
-        <v>555</v>
+        <v>543</v>
+      </c>
+      <c r="F69" t="s">
+        <v>544</v>
       </c>
       <c r="G69" s="2">
         <v>5</v>
@@ -3927,22 +4302,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="B70" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C70">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="D70">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E70" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F70" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="G70" s="2">
         <v>5</v>
@@ -3950,22 +4325,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="B71" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="C71">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D71">
         <v>150</v>
       </c>
       <c r="E71" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="F71" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="G71" s="2">
         <v>5</v>
@@ -3973,22 +4348,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="B72" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C72">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="D72">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E72" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F72" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="G72" s="2">
         <v>5</v>
@@ -3996,45 +4371,45 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>567</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>568</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="D73">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E73" t="s">
-        <v>569</v>
+        <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>570</v>
+        <v>11</v>
       </c>
       <c r="G73" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="C74">
-        <v>189</v>
+        <v>480</v>
       </c>
       <c r="D74">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="G74" s="2">
         <v>6</v>
@@ -4042,22 +4417,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C75">
-        <v>480</v>
+        <v>368</v>
       </c>
       <c r="D75">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="E75" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F75" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G75" s="2">
         <v>6</v>
@@ -4065,22 +4440,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>368</v>
+        <v>230</v>
       </c>
       <c r="D76">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E76" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c r="F76" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="G76" s="2">
         <v>6</v>
@@ -4088,22 +4463,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>227</v>
+        <v>295</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D77">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E77" t="s">
-        <v>228</v>
+        <v>296</v>
       </c>
       <c r="F77" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="G77" s="2">
         <v>6</v>
@@ -4111,22 +4486,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="D78">
         <v>150</v>
       </c>
       <c r="E78" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F78" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G78" s="2">
         <v>6</v>
@@ -4134,22 +4509,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D79">
         <v>150</v>
       </c>
       <c r="E79" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F79" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G79" s="2">
         <v>6</v>
@@ -4157,22 +4532,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>245</v>
+        <v>665</v>
       </c>
       <c r="D80">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="E80" t="s">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="F80" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="G80" s="2">
         <v>6</v>
@@ -4180,45 +4555,45 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>367</v>
+        <v>194</v>
       </c>
       <c r="B81" t="s">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="C81">
-        <v>665</v>
+        <v>420</v>
       </c>
       <c r="D81">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="E81" t="s">
-        <v>368</v>
+        <v>196</v>
       </c>
       <c r="F81" t="s">
-        <v>369</v>
+        <v>197</v>
       </c>
       <c r="G81" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B82" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C82">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="D82">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E82" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F82" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G82" s="2">
         <v>7</v>
@@ -4226,22 +4601,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="B83" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C83">
-        <v>300</v>
+        <v>439</v>
       </c>
       <c r="D83">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="E83" t="s">
-        <v>209</v>
+        <v>331</v>
       </c>
       <c r="F83" t="s">
-        <v>210</v>
+        <v>332</v>
       </c>
       <c r="G83" s="2">
         <v>7</v>
@@ -4249,22 +4624,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="B84" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C84">
+        <v>200</v>
+      </c>
+      <c r="D84">
+        <v>150</v>
+      </c>
+      <c r="E84" t="s">
         <v>439</v>
       </c>
-      <c r="D84">
-        <v>350</v>
-      </c>
-      <c r="E84" t="s">
-        <v>340</v>
-      </c>
       <c r="F84" t="s">
-        <v>341</v>
+        <v>440</v>
       </c>
       <c r="G84" s="2">
         <v>7</v>
@@ -4272,22 +4647,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>450</v>
+        <v>570</v>
       </c>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="C85">
-        <v>200</v>
+        <v>575</v>
       </c>
       <c r="D85">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E85" t="s">
-        <v>451</v>
+        <v>571</v>
       </c>
       <c r="F85" t="s">
-        <v>452</v>
+        <v>572</v>
       </c>
       <c r="G85" s="2">
         <v>7</v>
@@ -4295,22 +4670,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B86" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="C86">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="D86">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="E86" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="F86" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="G86" s="2">
         <v>7</v>
@@ -4318,36 +4693,36 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>592</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C87">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="D87">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="E87" t="s">
-        <v>593</v>
+        <v>100</v>
       </c>
       <c r="F87" t="s">
-        <v>594</v>
+        <v>101</v>
       </c>
       <c r="G87" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="C88">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D88">
         <v>100</v>
@@ -4356,7 +4731,7 @@
         <v>103</v>
       </c>
       <c r="F88" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="G88" s="2">
         <v>8</v>
@@ -4364,19 +4739,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B89" t="s">
         <v>13</v>
       </c>
       <c r="C89">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D89">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E89" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F89" t="s">
         <v>7</v>
@@ -4387,22 +4762,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>369</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>150</v>
+        <v>519</v>
       </c>
       <c r="D90">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E90" t="s">
-        <v>118</v>
+        <v>370</v>
       </c>
       <c r="F90" t="s">
-        <v>7</v>
+        <v>371</v>
       </c>
       <c r="G90" s="2">
         <v>8</v>
@@ -4410,22 +4785,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B91" t="s">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>519</v>
+        <v>347</v>
       </c>
       <c r="D91">
         <v>200</v>
       </c>
       <c r="E91" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F91" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G91" s="2">
         <v>8</v>
@@ -4433,22 +4808,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B92" t="s">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>347</v>
+        <v>498</v>
       </c>
       <c r="D92">
         <v>200</v>
       </c>
       <c r="E92" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F92" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G92" s="2">
         <v>8</v>
@@ -4456,22 +4831,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B93" t="s">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>498</v>
+        <v>347</v>
       </c>
       <c r="D93">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E93" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F93" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G93" s="2">
         <v>8</v>
@@ -4479,22 +4854,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="B94" t="s">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="C94">
-        <v>347</v>
+        <v>280</v>
       </c>
       <c r="D94">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E94" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="F94" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="G94" s="2">
         <v>8</v>
@@ -4502,16 +4877,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B95" t="s">
-        <v>408</v>
+        <v>13</v>
       </c>
       <c r="C95">
-        <v>280</v>
+        <v>179</v>
       </c>
       <c r="D95">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E95" t="s">
         <v>409</v>
@@ -4525,45 +4900,45 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>417</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="D96">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E96" t="s">
-        <v>418</v>
+        <v>109</v>
       </c>
       <c r="F96" t="s">
-        <v>419</v>
+        <v>110</v>
       </c>
       <c r="G96" s="2">
-        <v>8</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="B97" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C97">
-        <v>250</v>
+        <v>138</v>
       </c>
       <c r="D97">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="F97" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="G97" s="2">
         <v>8.1</v>
@@ -4571,22 +4946,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C98">
+        <v>389</v>
+      </c>
+      <c r="D98">
+        <v>300</v>
+      </c>
+      <c r="E98" t="s">
         <v>138</v>
       </c>
-      <c r="D98">
-        <v>100</v>
-      </c>
-      <c r="E98" t="s">
-        <v>141</v>
-      </c>
       <c r="F98" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G98" s="2">
         <v>8.1</v>
@@ -4594,45 +4969,45 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="B99" t="s">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>389</v>
+        <v>219.5</v>
       </c>
       <c r="D99">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="F99" t="s">
-        <v>145</v>
-      </c>
-      <c r="G99" s="2">
-        <v>8.1</v>
+        <v>603</v>
+      </c>
+      <c r="G99" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="B100" t="s">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>219.5</v>
+        <v>499</v>
       </c>
       <c r="D100">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>625</v>
+        <v>190</v>
       </c>
       <c r="G100" s="3">
         <v>9</v>
@@ -4640,22 +5015,22 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B101" t="s">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>499</v>
+        <v>220</v>
       </c>
       <c r="D101">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F101" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G101" s="3">
         <v>9</v>
@@ -4663,22 +5038,22 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>211</v>
+        <v>389</v>
       </c>
       <c r="B102" t="s">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>220</v>
+        <v>699</v>
       </c>
       <c r="D102">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="E102" t="s">
-        <v>212</v>
+        <v>390</v>
       </c>
       <c r="F102" t="s">
-        <v>213</v>
+        <v>391</v>
       </c>
       <c r="G102" s="3">
         <v>9</v>
@@ -4686,22 +5061,22 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>398</v>
+        <v>567</v>
       </c>
       <c r="B103" t="s">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>699</v>
+        <v>399</v>
       </c>
       <c r="D103">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="E103" t="s">
-        <v>399</v>
+        <v>568</v>
       </c>
       <c r="F103" t="s">
-        <v>400</v>
+        <v>569</v>
       </c>
       <c r="G103" s="3">
         <v>9</v>
@@ -4709,45 +5084,45 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>582</v>
+        <v>522</v>
       </c>
       <c r="B104" t="s">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="C104">
-        <v>399</v>
+        <v>419.19</v>
       </c>
       <c r="D104">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E104" t="s">
-        <v>583</v>
+        <v>524</v>
       </c>
       <c r="F104" t="s">
-        <v>584</v>
+        <v>525</v>
       </c>
       <c r="G104" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>537</v>
+        <v>582</v>
       </c>
       <c r="B105" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="C105">
-        <v>419.19</v>
+        <v>170</v>
       </c>
       <c r="D105">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E105" t="s">
-        <v>539</v>
+        <v>583</v>
       </c>
       <c r="F105" t="s">
-        <v>540</v>
+        <v>584</v>
       </c>
       <c r="G105" s="3">
         <v>10</v>
@@ -4755,22 +5130,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>597</v>
+        <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>538</v>
+        <v>116</v>
       </c>
       <c r="C106">
-        <v>170</v>
+        <v>685</v>
       </c>
       <c r="D106">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="E106" t="s">
-        <v>598</v>
+        <v>119</v>
       </c>
       <c r="F106" t="s">
-        <v>599</v>
+        <v>120</v>
       </c>
       <c r="G106" s="3">
         <v>10</v>
@@ -4778,22 +5153,22 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>526</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C107">
-        <v>685</v>
+        <v>600</v>
       </c>
       <c r="D107">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="E107" t="s">
-        <v>122</v>
+        <v>527</v>
       </c>
       <c r="F107" t="s">
-        <v>123</v>
+        <v>528</v>
       </c>
       <c r="G107" s="3">
         <v>10</v>
@@ -4801,137 +5176,131 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>541</v>
+        <v>384</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>385</v>
       </c>
       <c r="C108">
-        <v>600</v>
+        <v>2154</v>
       </c>
       <c r="D108">
-        <v>350</v>
+        <v>1550</v>
       </c>
       <c r="E108" t="s">
-        <v>542</v>
+        <v>386</v>
       </c>
       <c r="F108" t="s">
-        <v>543</v>
-      </c>
-      <c r="G108" s="3">
-        <v>10</v>
+        <v>387</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>600</v>
+        <v>179</v>
       </c>
       <c r="B109" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>698</v>
+        <v>150</v>
       </c>
       <c r="D109">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="E109" t="s">
-        <v>601</v>
+        <v>180</v>
       </c>
       <c r="F109" t="s">
-        <v>602</v>
-      </c>
-      <c r="G109" s="3">
-        <v>10</v>
+        <v>604</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>393</v>
+        <v>466</v>
       </c>
       <c r="B110" t="s">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>2154</v>
+        <v>1899</v>
       </c>
       <c r="D110">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="E110" t="s">
-        <v>395</v>
+        <v>467</v>
       </c>
       <c r="F110" t="s">
-        <v>396</v>
+        <v>468</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>397</v>
+        <v>469</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="B111" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C111">
+        <v>230</v>
+      </c>
+      <c r="D111">
         <v>150</v>
       </c>
-      <c r="D111">
-        <v>100</v>
-      </c>
       <c r="E111" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>626</v>
+        <v>40</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>627</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>481</v>
-      </c>
-      <c r="B112" t="s">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="C112">
-        <v>1899</v>
+        <v>564</v>
       </c>
       <c r="D112">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="E112" t="s">
-        <v>482</v>
+        <v>192</v>
       </c>
       <c r="F112" t="s">
-        <v>483</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>484</v>
+        <v>193</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>230</v>
-      </c>
-      <c r="D113">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>41</v>
@@ -4939,19 +5308,22 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>200</v>
+        <v>238</v>
+      </c>
+      <c r="B114" t="s">
+        <v>38</v>
       </c>
       <c r="C114">
-        <v>564</v>
+        <v>399</v>
       </c>
       <c r="D114">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E114" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="F114" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>41</v>
@@ -4959,19 +5331,22 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B115" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C115">
-        <v>200</v>
+        <v>399</v>
+      </c>
+      <c r="D115">
+        <v>300</v>
       </c>
       <c r="E115" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F115" t="s">
-        <v>246</v>
+        <v>596</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>41</v>
@@ -4979,22 +5354,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="C116">
-        <v>399</v>
+        <v>1100</v>
       </c>
       <c r="D116">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E116" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="F116" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>41</v>
@@ -5002,22 +5377,19 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>250</v>
+        <v>478</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>399</v>
-      </c>
-      <c r="D117">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E117" t="s">
-        <v>251</v>
+        <v>479</v>
       </c>
       <c r="F117" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>41</v>
@@ -5025,65 +5397,65 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>289</v>
+        <v>595</v>
       </c>
       <c r="B118" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>1100</v>
+        <v>299</v>
       </c>
       <c r="D118">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="E118" t="s">
-        <v>291</v>
+        <v>503</v>
       </c>
       <c r="F118" t="s">
-        <v>292</v>
+        <v>504</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="B119" t="s">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="E119" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="F119" t="s">
-        <v>615</v>
+        <v>513</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>613</v>
+        <v>392</v>
       </c>
       <c r="B120" t="s">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D120">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E120" t="s">
-        <v>518</v>
+        <v>393</v>
       </c>
       <c r="F120" t="s">
-        <v>519</v>
+        <v>394</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>2</v>
@@ -5091,19 +5463,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>526</v>
+        <v>594</v>
       </c>
       <c r="B121" t="s">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="C121">
-        <v>370</v>
+        <v>599</v>
+      </c>
+      <c r="D121">
+        <v>350</v>
       </c>
       <c r="E121" t="s">
-        <v>527</v>
+        <v>471</v>
       </c>
       <c r="F121" t="s">
-        <v>528</v>
+        <v>472</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>2</v>
@@ -5111,22 +5486,22 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>401</v>
+        <v>492</v>
       </c>
       <c r="B122" t="s">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>298</v>
+        <v>599</v>
       </c>
       <c r="D122">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E122" t="s">
-        <v>402</v>
+        <v>493</v>
       </c>
       <c r="F122" t="s">
-        <v>403</v>
+        <v>494</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>2</v>
@@ -5134,22 +5509,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>612</v>
+        <v>505</v>
       </c>
       <c r="B123" t="s">
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>599</v>
+        <v>479</v>
       </c>
       <c r="D123">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="E123" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="F123" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>2</v>
@@ -5157,22 +5532,22 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B124" t="s">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>599</v>
+        <v>350</v>
       </c>
       <c r="D124">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E124" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="F124" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>2</v>
@@ -5180,519 +5555,510 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>519</v>
+      </c>
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>519</v>
+      </c>
+      <c r="D125">
+        <v>330</v>
+      </c>
+      <c r="E125" t="s">
         <v>520</v>
       </c>
-      <c r="B125" t="s">
-        <v>0</v>
-      </c>
-      <c r="C125">
-        <v>479</v>
-      </c>
-      <c r="D125">
-        <v>250</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>521</v>
-      </c>
-      <c r="F125" t="s">
-        <v>522</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>531</v>
-      </c>
-      <c r="B126" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <v>350</v>
-      </c>
-      <c r="D126">
-        <v>200</v>
-      </c>
-      <c r="E126" t="s">
-        <v>532</v>
-      </c>
-      <c r="F126" t="s">
-        <v>533</v>
+      <c r="A126" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C126" s="1">
+        <v>450</v>
+      </c>
+      <c r="D126" s="1">
+        <v>370</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>534</v>
-      </c>
-      <c r="B127" t="s">
-        <v>0</v>
-      </c>
-      <c r="C127">
-        <v>519</v>
-      </c>
-      <c r="D127">
-        <v>330</v>
-      </c>
-      <c r="E127" t="s">
-        <v>535</v>
-      </c>
-      <c r="F127" t="s">
-        <v>536</v>
+      <c r="A127" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1">
+        <v>250</v>
+      </c>
+      <c r="D127" s="1">
+        <v>150</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>2</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C128" s="1">
+      <c r="A128" t="s">
+        <v>315</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>899</v>
+      </c>
+      <c r="D128">
+        <v>600</v>
+      </c>
+      <c r="E128" t="s">
+        <v>316</v>
+      </c>
+      <c r="F128" t="s">
+        <v>317</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>421</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>553</v>
+      </c>
+      <c r="D129">
         <v>450</v>
       </c>
-      <c r="D128" s="1">
-        <v>370</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C129" s="1">
-        <v>250</v>
-      </c>
-      <c r="D129" s="1">
-        <v>150</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>611</v>
+      <c r="E129" t="s">
+        <v>422</v>
+      </c>
+      <c r="F129" t="s">
+        <v>423</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B130" t="s">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>250</v>
+        <v>429</v>
+      </c>
+      <c r="D130">
+        <v>350</v>
       </c>
       <c r="E130" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F130" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>324</v>
+        <v>606</v>
       </c>
       <c r="B131" t="s">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="C131">
-        <v>899</v>
-      </c>
-      <c r="D131">
+        <v>1050</v>
+      </c>
+      <c r="D131" s="4">
         <v>600</v>
       </c>
       <c r="E131" t="s">
-        <v>325</v>
+        <v>627</v>
       </c>
       <c r="F131" t="s">
-        <v>326</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>94</v>
+        <v>7</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>430</v>
+        <v>318</v>
       </c>
       <c r="B132" t="s">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="C132">
-        <v>553</v>
+        <v>699</v>
       </c>
       <c r="D132">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="E132" t="s">
-        <v>431</v>
+        <v>320</v>
       </c>
       <c r="F132" t="s">
-        <v>432</v>
+        <v>321</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>463</v>
+        <v>181</v>
       </c>
       <c r="B133" t="s">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>429</v>
+        <v>785</v>
       </c>
       <c r="D133">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="E133" t="s">
-        <v>464</v>
+        <v>182</v>
       </c>
       <c r="F133" t="s">
-        <v>465</v>
+        <v>183</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>628</v>
+        <v>454</v>
       </c>
       <c r="B134" t="s">
-        <v>629</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>1050</v>
-      </c>
-      <c r="D134" s="4">
-        <v>600</v>
+        <v>1500</v>
+      </c>
+      <c r="D134">
+        <v>900</v>
       </c>
       <c r="E134" t="s">
-        <v>649</v>
+        <v>455</v>
       </c>
       <c r="F134" t="s">
-        <v>7</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>193</v>
+        <v>456</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>327</v>
+        <v>163</v>
       </c>
       <c r="B135" t="s">
-        <v>328</v>
+        <v>164</v>
       </c>
       <c r="C135">
-        <v>699</v>
+        <v>411.67</v>
       </c>
       <c r="D135">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="E135" t="s">
-        <v>329</v>
+        <v>165</v>
       </c>
       <c r="F135" t="s">
-        <v>330</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>193</v>
+        <v>166</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>190</v>
+        <v>326</v>
       </c>
       <c r="B136" t="s">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="C136">
-        <v>785</v>
+        <v>731.5</v>
       </c>
       <c r="D136">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E136" t="s">
-        <v>191</v>
+        <v>328</v>
       </c>
       <c r="F136" t="s">
-        <v>192</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>193</v>
+        <v>329</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>466</v>
+        <v>337</v>
       </c>
       <c r="B137" t="s">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>920</v>
+        <v>850</v>
       </c>
       <c r="D137">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E137" t="s">
-        <v>467</v>
+        <v>338</v>
       </c>
       <c r="F137" t="s">
-        <v>468</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>193</v>
+        <v>339</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B138" t="s">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="D138">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E138" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F138" t="s">
-        <v>471</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>193</v>
+        <v>462</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>172</v>
+        <v>573</v>
       </c>
       <c r="B139" t="s">
-        <v>173</v>
+        <v>574</v>
       </c>
       <c r="C139">
-        <v>411.67</v>
+        <v>1439</v>
       </c>
       <c r="D139">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="E139" t="s">
-        <v>174</v>
+        <v>575</v>
       </c>
       <c r="F139" t="s">
-        <v>175</v>
+        <v>576</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>176</v>
+        <v>601</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>335</v>
+        <v>598</v>
       </c>
       <c r="B140" t="s">
-        <v>336</v>
+        <v>599</v>
       </c>
       <c r="C140">
-        <v>731.5</v>
+        <v>1499</v>
       </c>
       <c r="D140">
-        <v>490</v>
+        <v>850</v>
       </c>
       <c r="E140" t="s">
-        <v>337</v>
+        <v>602</v>
       </c>
       <c r="F140" t="s">
-        <v>338</v>
+        <v>600</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>176</v>
+        <v>601</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>346</v>
+        <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C141">
-        <v>850</v>
+        <v>693</v>
       </c>
       <c r="D141">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="E141" t="s">
-        <v>347</v>
+        <v>5</v>
       </c>
       <c r="F141" t="s">
-        <v>348</v>
+        <v>6</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>176</v>
+        <v>601</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>475</v>
+        <v>75</v>
       </c>
       <c r="B142" t="s">
         <v>0</v>
       </c>
       <c r="C142">
-        <v>1600</v>
-      </c>
-      <c r="D142">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="E142" t="s">
-        <v>476</v>
+        <v>74</v>
       </c>
       <c r="F142" t="s">
-        <v>477</v>
+        <v>76</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>588</v>
+        <v>111</v>
       </c>
       <c r="B143" t="s">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="C143">
-        <v>1439</v>
-      </c>
-      <c r="D143">
-        <v>700</v>
+        <v>170</v>
       </c>
       <c r="E143" t="s">
-        <v>590</v>
+        <v>112</v>
       </c>
       <c r="F143" t="s">
-        <v>591</v>
+        <v>113</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>622</v>
+        <v>130</v>
       </c>
       <c r="B144" t="s">
-        <v>621</v>
+        <v>131</v>
       </c>
       <c r="C144">
-        <v>1750</v>
+        <v>200</v>
       </c>
       <c r="E144" t="s">
-        <v>624</v>
+        <v>132</v>
       </c>
       <c r="F144" t="s">
-        <v>623</v>
+        <v>133</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>616</v>
+        <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>1499</v>
-      </c>
-      <c r="D145">
-        <v>850</v>
+        <v>40</v>
       </c>
       <c r="E145" t="s">
-        <v>620</v>
+        <v>149</v>
       </c>
       <c r="F145" t="s">
-        <v>618</v>
+        <v>150</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C146">
-        <v>693</v>
-      </c>
-      <c r="D146">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="E146" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="F146" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="B147" t="s">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="C147">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="E147" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="F147" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>1</v>
@@ -5700,19 +6066,19 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>114</v>
-      </c>
-      <c r="B148" t="s">
-        <v>0</v>
+        <v>308</v>
+      </c>
+      <c r="B148">
+        <v>9005</v>
       </c>
       <c r="C148">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="E148" t="s">
-        <v>115</v>
+        <v>309</v>
       </c>
       <c r="F148" t="s">
-        <v>116</v>
+        <v>310</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>1</v>
@@ -5720,19 +6086,19 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>133</v>
+        <v>361</v>
       </c>
       <c r="B149" t="s">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="C149">
         <v>200</v>
       </c>
       <c r="E149" t="s">
-        <v>135</v>
+        <v>362</v>
       </c>
       <c r="F149" t="s">
-        <v>136</v>
+        <v>363</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>1</v>
@@ -5740,19 +6106,19 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>154</v>
+        <v>381</v>
       </c>
       <c r="B150" t="s">
         <v>0</v>
       </c>
       <c r="C150">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="E150" t="s">
-        <v>155</v>
+        <v>382</v>
       </c>
       <c r="F150" t="s">
-        <v>156</v>
+        <v>383</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>1</v>
@@ -5760,19 +6126,19 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>181</v>
+        <v>418</v>
       </c>
       <c r="B151" t="s">
         <v>0</v>
       </c>
       <c r="C151">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="E151" t="s">
-        <v>182</v>
+        <v>419</v>
       </c>
       <c r="F151" t="s">
-        <v>183</v>
+        <v>420</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>1</v>
@@ -5780,19 +6146,19 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>214</v>
+        <v>463</v>
       </c>
       <c r="B152" t="s">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="C152">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E152" t="s">
-        <v>216</v>
+        <v>464</v>
       </c>
       <c r="F152" t="s">
-        <v>217</v>
+        <v>465</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>1</v>
@@ -5800,19 +6166,19 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>317</v>
-      </c>
-      <c r="B153">
-        <v>9005</v>
+        <v>508</v>
+      </c>
+      <c r="B153" t="s">
+        <v>206</v>
       </c>
       <c r="C153">
         <v>350</v>
       </c>
       <c r="E153" t="s">
-        <v>318</v>
+        <v>509</v>
       </c>
       <c r="F153" t="s">
-        <v>319</v>
+        <v>510</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>1</v>
@@ -5820,19 +6186,19 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>370</v>
+        <v>529</v>
       </c>
       <c r="B154" t="s">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="C154">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E154" t="s">
-        <v>371</v>
+        <v>531</v>
       </c>
       <c r="F154" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>1</v>
@@ -5840,19 +6206,19 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>390</v>
+        <v>533</v>
       </c>
       <c r="B155" t="s">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="C155">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E155" t="s">
-        <v>391</v>
+        <v>535</v>
       </c>
       <c r="F155" t="s">
-        <v>392</v>
+        <v>536</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>1</v>
@@ -5860,19 +6226,19 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>427</v>
+        <v>564</v>
       </c>
       <c r="B156" t="s">
         <v>0</v>
       </c>
       <c r="C156">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="E156" t="s">
-        <v>428</v>
+        <v>565</v>
       </c>
       <c r="F156" t="s">
-        <v>429</v>
+        <v>566</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>1</v>
@@ -5880,265 +6246,274 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>478</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C157">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E157" t="s">
-        <v>479</v>
+        <v>157</v>
       </c>
       <c r="F157" t="s">
-        <v>480</v>
+        <v>158</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>523</v>
+        <v>125</v>
       </c>
       <c r="B158" t="s">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="C158">
-        <v>350</v>
+        <v>239</v>
+      </c>
+      <c r="D158">
+        <v>150</v>
       </c>
       <c r="E158" t="s">
-        <v>524</v>
+        <v>127</v>
       </c>
       <c r="F158" t="s">
-        <v>525</v>
+        <v>128</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>544</v>
+        <v>153</v>
       </c>
       <c r="B159" t="s">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="C159">
-        <v>300</v>
+        <v>106</v>
+      </c>
+      <c r="D159">
+        <v>80</v>
       </c>
       <c r="E159" t="s">
-        <v>546</v>
-      </c>
-      <c r="F159" t="s">
-        <v>547</v>
+        <v>154</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>548</v>
+        <v>168</v>
       </c>
       <c r="B160" t="s">
-        <v>549</v>
+        <v>169</v>
       </c>
       <c r="C160">
-        <v>300</v>
+        <v>178.03</v>
+      </c>
+      <c r="D160">
+        <v>80</v>
       </c>
       <c r="E160" t="s">
-        <v>550</v>
+        <v>170</v>
       </c>
       <c r="F160" t="s">
-        <v>551</v>
+        <v>171</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>579</v>
+        <v>231</v>
       </c>
       <c r="B161" t="s">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="C161">
-        <v>200</v>
+        <v>190</v>
+      </c>
+      <c r="D161">
+        <v>100</v>
       </c>
       <c r="E161" t="s">
-        <v>580</v>
+        <v>233</v>
       </c>
       <c r="F161" t="s">
-        <v>581</v>
+        <v>234</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="C162">
-        <v>400</v>
+        <v>150</v>
+      </c>
+      <c r="D162">
+        <v>100</v>
       </c>
       <c r="E162" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="F162" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="B163" t="s">
+        <v>244</v>
+      </c>
+      <c r="C163">
+        <v>150</v>
+      </c>
+      <c r="D163">
+        <v>100</v>
+      </c>
+      <c r="E163" t="s">
+        <v>248</v>
+      </c>
+      <c r="F163" t="s">
+        <v>249</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C163">
-        <v>239</v>
-      </c>
-      <c r="D163">
-        <v>150</v>
-      </c>
-      <c r="E163" t="s">
-        <v>130</v>
-      </c>
-      <c r="F163" t="s">
-        <v>131</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c r="B164" t="s">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="C164">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="D164">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E164" t="s">
-        <v>160</v>
+        <v>306</v>
+      </c>
+      <c r="F164" t="s">
+        <v>307</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>395</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C165">
-        <v>99</v>
-      </c>
-      <c r="D165">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="E165" t="s">
-        <v>170</v>
+        <v>396</v>
       </c>
       <c r="F165" t="s">
-        <v>171</v>
+        <v>397</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>177</v>
+        <v>447</v>
       </c>
       <c r="B166" t="s">
-        <v>178</v>
+        <v>448</v>
       </c>
       <c r="C166">
-        <v>178.03</v>
-      </c>
-      <c r="D166">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E166" t="s">
-        <v>179</v>
+        <v>449</v>
       </c>
       <c r="F166" t="s">
-        <v>180</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>132</v>
+        <v>450</v>
+      </c>
+      <c r="G166" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>240</v>
+        <v>489</v>
       </c>
       <c r="B167" t="s">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="C167">
-        <v>190</v>
+        <v>248.02</v>
       </c>
       <c r="D167">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E167" t="s">
-        <v>242</v>
+        <v>490</v>
       </c>
       <c r="F167" t="s">
-        <v>243</v>
+        <v>491</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>252</v>
+        <v>495</v>
       </c>
       <c r="B168" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="C168">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="D168">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E168" t="s">
-        <v>254</v>
+        <v>496</v>
       </c>
       <c r="F168" t="s">
-        <v>255</v>
+        <v>497</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>256</v>
+        <v>500</v>
       </c>
       <c r="B169" t="s">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="C169">
         <v>150</v>
@@ -6147,130 +6522,133 @@
         <v>100</v>
       </c>
       <c r="E169" t="s">
-        <v>257</v>
+        <v>501</v>
       </c>
       <c r="F169" t="s">
-        <v>258</v>
+        <v>502</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>313</v>
+        <v>559</v>
       </c>
       <c r="B170" t="s">
-        <v>314</v>
+        <v>169</v>
       </c>
       <c r="C170">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="D170">
         <v>100</v>
       </c>
       <c r="E170" t="s">
-        <v>315</v>
+        <v>560</v>
       </c>
       <c r="F170" t="s">
-        <v>316</v>
+        <v>561</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>404</v>
+        <v>562</v>
       </c>
       <c r="B171" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="C171">
-        <v>300</v>
+        <v>149</v>
+      </c>
+      <c r="D171">
+        <v>100</v>
       </c>
       <c r="E171" t="s">
-        <v>405</v>
-      </c>
-      <c r="F171" t="s">
-        <v>406</v>
+        <v>563</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>459</v>
+        <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>460</v>
+        <v>13</v>
       </c>
       <c r="C172">
+        <v>170</v>
+      </c>
+      <c r="D172">
         <v>100</v>
       </c>
       <c r="E172" t="s">
-        <v>461</v>
+        <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>462</v>
-      </c>
-      <c r="G172" s="2">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>504</v>
+        <v>17</v>
       </c>
       <c r="B173" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="C173">
-        <v>248.02</v>
+        <v>150</v>
       </c>
       <c r="D173">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E173" t="s">
-        <v>505</v>
+        <v>18</v>
       </c>
       <c r="F173" t="s">
-        <v>506</v>
+        <v>7</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>510</v>
+        <v>77</v>
       </c>
       <c r="B174" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="C174">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D174">
         <v>200</v>
       </c>
       <c r="E174" t="s">
-        <v>511</v>
+        <v>78</v>
       </c>
       <c r="F174" t="s">
-        <v>512</v>
+        <v>79</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>515</v>
+        <v>80</v>
       </c>
       <c r="B175" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C175">
         <v>150</v>
@@ -6279,76 +6657,79 @@
         <v>100</v>
       </c>
       <c r="E175" t="s">
-        <v>516</v>
+        <v>81</v>
       </c>
       <c r="F175" t="s">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>574</v>
+        <v>151</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="C176">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D176">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E176" t="s">
-        <v>575</v>
+        <v>639</v>
       </c>
       <c r="F176" t="s">
-        <v>576</v>
+        <v>152</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>577</v>
+        <v>159</v>
       </c>
       <c r="B177" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C177">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D177">
         <v>100</v>
       </c>
       <c r="E177" t="s">
-        <v>578</v>
+        <v>161</v>
+      </c>
+      <c r="F177" t="s">
+        <v>162</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="C178">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="D178">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E178" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="F178" t="s">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>16</v>
@@ -6356,22 +6737,22 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="B179" t="s">
         <v>13</v>
       </c>
       <c r="C179">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="D179">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E179" t="s">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="F179" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>16</v>
@@ -6379,22 +6760,22 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="B180" t="s">
         <v>13</v>
       </c>
       <c r="C180">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="D180">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E180" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="F180" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>16</v>
@@ -6402,22 +6783,22 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="B181" t="s">
         <v>13</v>
       </c>
       <c r="C181">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D181">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E181" t="s">
-        <v>81</v>
+        <v>638</v>
       </c>
       <c r="F181" t="s">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>16</v>
@@ -6425,22 +6806,22 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>83</v>
+        <v>364</v>
       </c>
       <c r="B182" t="s">
         <v>13</v>
       </c>
       <c r="C182">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D182">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E182" t="s">
-        <v>84</v>
+        <v>637</v>
       </c>
       <c r="F182" t="s">
-        <v>85</v>
+        <v>365</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>16</v>
@@ -6448,22 +6829,22 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>157</v>
+        <v>402</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>635</v>
       </c>
       <c r="C183">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D183">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E183" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="F183" t="s">
-        <v>158</v>
+        <v>403</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>16</v>
@@ -6471,22 +6852,19 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>165</v>
+        <v>424</v>
       </c>
       <c r="B184" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="C184">
-        <v>150</v>
-      </c>
-      <c r="D184">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="E184" t="s">
-        <v>167</v>
+        <v>634</v>
       </c>
       <c r="F184" t="s">
-        <v>168</v>
+        <v>425</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>16</v>
@@ -6494,22 +6872,22 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="B185" t="s">
-        <v>224</v>
+        <v>640</v>
       </c>
       <c r="C185">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D185">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E185" t="s">
-        <v>225</v>
+        <v>632</v>
       </c>
       <c r="F185" t="s">
-        <v>226</v>
+        <v>499</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>16</v>
@@ -6517,45 +6895,45 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>230</v>
+        <v>514</v>
       </c>
       <c r="B186" t="s">
         <v>13</v>
       </c>
       <c r="C186">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D186">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E186" t="s">
-        <v>231</v>
+        <v>629</v>
       </c>
       <c r="F186" t="s">
-        <v>232</v>
+        <v>515</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>16</v>
+        <v>628</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>233</v>
+        <v>537</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>631</v>
       </c>
       <c r="C187">
-        <v>300</v>
+        <v>169</v>
       </c>
       <c r="D187">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="E187" t="s">
-        <v>234</v>
+        <v>630</v>
       </c>
       <c r="F187" t="s">
-        <v>235</v>
+        <v>538</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>16</v>
@@ -6563,22 +6941,22 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>352</v>
+        <v>580</v>
       </c>
       <c r="B188" t="s">
         <v>13</v>
       </c>
       <c r="C188">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="D188">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="E188" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
       <c r="F188" t="s">
-        <v>353</v>
+        <v>581</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>16</v>
@@ -6586,249 +6964,890 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>373</v>
+        <v>608</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>609</v>
       </c>
       <c r="C189">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="D189">
-        <v>70</v>
+        <v>550</v>
       </c>
       <c r="E189" t="s">
-        <v>659</v>
+        <v>611</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>610</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>16</v>
+        <v>612</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>411</v>
+        <v>615</v>
       </c>
       <c r="B190" t="s">
-        <v>657</v>
+        <v>59</v>
       </c>
       <c r="C190">
-        <v>200</v>
+        <v>336</v>
       </c>
       <c r="D190">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E190" t="s">
-        <v>658</v>
+        <v>614</v>
       </c>
       <c r="F190" t="s">
-        <v>412</v>
+        <v>613</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>16</v>
+        <v>612</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>433</v>
+        <v>618</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>619</v>
       </c>
       <c r="C191">
-        <v>220</v>
+        <v>260</v>
+      </c>
+      <c r="D191">
+        <v>150</v>
       </c>
       <c r="E191" t="s">
-        <v>656</v>
+        <v>617</v>
       </c>
       <c r="F191" t="s">
-        <v>434</v>
+        <v>616</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>16</v>
+        <v>612</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>513</v>
+        <v>622</v>
       </c>
       <c r="B192" t="s">
-        <v>662</v>
+        <v>59</v>
       </c>
       <c r="C192">
-        <v>180</v>
-      </c>
-      <c r="D192">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E192" t="s">
-        <v>654</v>
+        <v>620</v>
       </c>
       <c r="F192" t="s">
-        <v>514</v>
+        <v>621</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>16</v>
+        <v>612</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>529</v>
+        <v>649</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>650</v>
       </c>
       <c r="C193">
-        <v>200</v>
+        <v>2299</v>
       </c>
       <c r="D193">
-        <v>150</v>
+        <v>1450</v>
       </c>
       <c r="E193" t="s">
+        <v>652</v>
+      </c>
+      <c r="F193" t="s">
         <v>651</v>
       </c>
-      <c r="F193" t="s">
-        <v>530</v>
-      </c>
       <c r="G193" s="2" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>552</v>
+        <v>654</v>
       </c>
       <c r="B194" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C194">
-        <v>169</v>
+        <v>820</v>
       </c>
       <c r="D194">
-        <v>100</v>
+        <v>655</v>
       </c>
       <c r="E194" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="F194" t="s">
-        <v>553</v>
+        <v>668</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>16</v>
+        <v>667</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>595</v>
+        <v>656</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>657</v>
       </c>
       <c r="C195">
-        <v>275</v>
+        <v>885</v>
       </c>
       <c r="D195">
-        <v>190</v>
+        <v>710</v>
       </c>
       <c r="E195" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="F195" t="s">
-        <v>596</v>
+        <v>670</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>16</v>
+        <v>667</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="B196" t="s">
-        <v>631</v>
+        <v>672</v>
       </c>
       <c r="C196">
-        <v>1200</v>
-      </c>
-      <c r="D196">
-        <v>550</v>
+        <v>165</v>
       </c>
       <c r="E196" t="s">
-        <v>633</v>
+        <v>674</v>
       </c>
       <c r="F196" t="s">
-        <v>632</v>
+        <v>673</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="B197" t="s">
-        <v>62</v>
+        <v>659</v>
       </c>
       <c r="C197">
-        <v>336</v>
+        <v>780</v>
       </c>
       <c r="D197">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="E197" t="s">
-        <v>636</v>
+        <v>676</v>
       </c>
       <c r="F197" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>634</v>
+        <v>667</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>640</v>
+        <v>661</v>
       </c>
       <c r="B198" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
       <c r="C198">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="D198">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E198" t="s">
-        <v>639</v>
+        <v>678</v>
       </c>
       <c r="F198" t="s">
-        <v>638</v>
+        <v>677</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>634</v>
+        <v>667</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="B199" t="s">
-        <v>62</v>
+        <v>664</v>
       </c>
       <c r="C199">
-        <v>150</v>
+        <v>350</v>
+      </c>
+      <c r="D199">
+        <v>300</v>
       </c>
       <c r="E199" t="s">
-        <v>642</v>
+        <v>680</v>
       </c>
       <c r="F199" t="s">
-        <v>643</v>
+        <v>679</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>634</v>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>665</v>
+      </c>
+      <c r="B200" t="s">
+        <v>666</v>
+      </c>
+      <c r="C200">
+        <v>800</v>
+      </c>
+      <c r="D200">
+        <v>500</v>
+      </c>
+      <c r="E200" t="s">
+        <v>682</v>
+      </c>
+      <c r="F200" t="s">
+        <v>681</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>683</v>
+      </c>
+      <c r="B201" t="s">
+        <v>684</v>
+      </c>
+      <c r="C201">
+        <v>700</v>
+      </c>
+      <c r="E201" t="s">
+        <v>690</v>
+      </c>
+      <c r="F201" t="s">
+        <v>689</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>685</v>
+      </c>
+      <c r="B202" t="s">
+        <v>686</v>
+      </c>
+      <c r="C202">
+        <v>399</v>
+      </c>
+      <c r="D202">
+        <v>350</v>
+      </c>
+      <c r="E202" t="s">
+        <v>692</v>
+      </c>
+      <c r="F202" t="s">
+        <v>691</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>687</v>
+      </c>
+      <c r="B203" t="s">
+        <v>59</v>
+      </c>
+      <c r="C203">
+        <v>70</v>
+      </c>
+      <c r="E203" t="s">
+        <v>693</v>
+      </c>
+      <c r="F203" t="s">
+        <v>694</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>688</v>
+      </c>
+      <c r="B204" t="s">
+        <v>684</v>
+      </c>
+      <c r="C204">
+        <v>159</v>
+      </c>
+      <c r="D204">
+        <v>120</v>
+      </c>
+      <c r="E204" t="s">
+        <v>695</v>
+      </c>
+      <c r="F204" t="s">
+        <v>696</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>700</v>
+      </c>
+      <c r="B205" t="s">
+        <v>701</v>
+      </c>
+      <c r="C205">
+        <v>670</v>
+      </c>
+      <c r="E205" t="s">
+        <v>709</v>
+      </c>
+      <c r="F205" t="s">
+        <v>708</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>698</v>
+      </c>
+      <c r="B206" t="s">
+        <v>697</v>
+      </c>
+      <c r="C206">
+        <v>200</v>
+      </c>
+      <c r="E206" t="s">
+        <v>713</v>
+      </c>
+      <c r="F206" t="s">
+        <v>710</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>699</v>
+      </c>
+      <c r="B207" t="s">
+        <v>702</v>
+      </c>
+      <c r="C207">
+        <v>159</v>
+      </c>
+      <c r="D207">
+        <v>120</v>
+      </c>
+      <c r="E207" t="s">
+        <v>711</v>
+      </c>
+      <c r="F207" t="s">
+        <v>712</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>703</v>
+      </c>
+      <c r="B208" t="s">
+        <v>704</v>
+      </c>
+      <c r="C208">
+        <v>350</v>
+      </c>
+      <c r="E208" t="s">
+        <v>714</v>
+      </c>
+      <c r="F208" t="s">
+        <v>715</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>705</v>
+      </c>
+      <c r="B209" t="s">
+        <v>706</v>
+      </c>
+      <c r="C209">
+        <v>400</v>
+      </c>
+      <c r="E209" t="s">
+        <v>716</v>
+      </c>
+      <c r="F209" t="s">
+        <v>717</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>707</v>
+      </c>
+      <c r="B210" t="s">
+        <v>701</v>
+      </c>
+      <c r="C210">
+        <v>600</v>
+      </c>
+      <c r="E210" t="s">
+        <v>719</v>
+      </c>
+      <c r="F210" t="s">
+        <v>718</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>721</v>
+      </c>
+      <c r="B211" t="s">
+        <v>723</v>
+      </c>
+      <c r="C211">
+        <v>435</v>
+      </c>
+      <c r="E211" t="s">
+        <v>722</v>
+      </c>
+      <c r="F211" t="s">
+        <v>720</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>724</v>
+      </c>
+      <c r="B212" t="s">
+        <v>725</v>
+      </c>
+      <c r="C212">
+        <v>5150</v>
+      </c>
+      <c r="D212">
+        <v>3500</v>
+      </c>
+      <c r="E212" t="s">
+        <v>727</v>
+      </c>
+      <c r="F212" t="s">
+        <v>726</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>730</v>
+      </c>
+      <c r="B213" t="s">
+        <v>731</v>
+      </c>
+      <c r="C213">
+        <v>1700</v>
+      </c>
+      <c r="D213">
+        <v>1000</v>
+      </c>
+      <c r="E213" t="s">
+        <v>729</v>
+      </c>
+      <c r="F213" t="s">
+        <v>728</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>732</v>
+      </c>
+      <c r="B214" t="s">
+        <v>735</v>
+      </c>
+      <c r="C214">
+        <v>200</v>
+      </c>
+      <c r="E214" t="s">
+        <v>734</v>
+      </c>
+      <c r="F214" t="s">
+        <v>733</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>736</v>
+      </c>
+      <c r="B215" t="s">
+        <v>59</v>
+      </c>
+      <c r="C215">
+        <v>1830</v>
+      </c>
+      <c r="D215">
+        <v>1050</v>
+      </c>
+      <c r="E215" t="s">
+        <v>738</v>
+      </c>
+      <c r="F215" t="s">
+        <v>737</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>739</v>
+      </c>
+      <c r="B216" t="s">
+        <v>740</v>
+      </c>
+      <c r="C216">
+        <v>200</v>
+      </c>
+      <c r="E216" t="s">
+        <v>742</v>
+      </c>
+      <c r="F216" t="s">
+        <v>741</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>747</v>
+      </c>
+      <c r="B217" t="s">
+        <v>746</v>
+      </c>
+      <c r="C217">
+        <v>200</v>
+      </c>
+      <c r="E217" t="s">
+        <v>749</v>
+      </c>
+      <c r="F217" t="s">
+        <v>748</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>745</v>
+      </c>
+      <c r="B218" t="s">
+        <v>59</v>
+      </c>
+      <c r="C218">
+        <v>300</v>
+      </c>
+      <c r="E218" t="s">
+        <v>751</v>
+      </c>
+      <c r="F218" t="s">
+        <v>750</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>743</v>
+      </c>
+      <c r="B219" t="s">
+        <v>744</v>
+      </c>
+      <c r="C219">
+        <v>200</v>
+      </c>
+      <c r="E219" t="s">
+        <v>753</v>
+      </c>
+      <c r="F219" t="s">
+        <v>752</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>755</v>
+      </c>
+      <c r="B220" t="s">
+        <v>754</v>
+      </c>
+      <c r="C220">
+        <v>100</v>
+      </c>
+      <c r="E220" t="s">
+        <v>757</v>
+      </c>
+      <c r="F220" t="s">
+        <v>756</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>759</v>
+      </c>
+      <c r="B221" t="s">
+        <v>758</v>
+      </c>
+      <c r="C221">
+        <v>300</v>
+      </c>
+      <c r="E221" t="s">
+        <v>761</v>
+      </c>
+      <c r="F221" t="s">
+        <v>760</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>763</v>
+      </c>
+      <c r="B222" t="s">
+        <v>762</v>
+      </c>
+      <c r="C222">
+        <v>100</v>
+      </c>
+      <c r="E222" t="s">
+        <v>765</v>
+      </c>
+      <c r="F222" t="s">
+        <v>764</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>766</v>
+      </c>
+      <c r="B223" t="s">
+        <v>767</v>
+      </c>
+      <c r="C223">
+        <v>300</v>
+      </c>
+      <c r="E223" t="s">
+        <v>769</v>
+      </c>
+      <c r="F223" t="s">
+        <v>768</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>770</v>
+      </c>
+      <c r="B224" t="s">
+        <v>773</v>
+      </c>
+      <c r="C224">
+        <v>300</v>
+      </c>
+      <c r="E224" t="s">
+        <v>772</v>
+      </c>
+      <c r="F224" t="s">
+        <v>771</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>776</v>
+      </c>
+      <c r="B225" t="s">
+        <v>774</v>
+      </c>
+      <c r="C225">
+        <v>298</v>
+      </c>
+      <c r="D225">
+        <v>200</v>
+      </c>
+      <c r="E225" t="s">
+        <v>777</v>
+      </c>
+      <c r="F225" t="s">
+        <v>775</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>781</v>
+      </c>
+      <c r="B226" t="s">
+        <v>780</v>
+      </c>
+      <c r="C226">
+        <v>859</v>
+      </c>
+      <c r="D226">
+        <v>650</v>
+      </c>
+      <c r="E226" t="s">
+        <v>779</v>
+      </c>
+      <c r="F226" t="s">
+        <v>778</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>783</v>
+      </c>
+      <c r="B227" t="s">
+        <v>782</v>
+      </c>
+      <c r="C227">
+        <v>500</v>
+      </c>
+      <c r="E227" t="s">
+        <v>785</v>
+      </c>
+      <c r="F227" t="s">
+        <v>784</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>786</v>
+      </c>
+      <c r="C228">
+        <v>500</v>
+      </c>
+      <c r="E228" t="s">
+        <v>788</v>
+      </c>
+      <c r="F228" t="s">
+        <v>787</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>789</v>
+      </c>
+      <c r="C229">
+        <v>200</v>
+      </c>
+      <c r="E229" t="s">
+        <v>791</v>
+      </c>
+      <c r="F229" t="s">
+        <v>790</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>793</v>
+      </c>
+      <c r="B230" t="s">
+        <v>794</v>
+      </c>
+      <c r="C230">
+        <v>250</v>
+      </c>
+      <c r="E230" t="s">
+        <v>795</v>
+      </c>
+      <c r="F230" t="s">
+        <v>792</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/datos/productos.xlsx
+++ b/datos/productos.xlsx
@@ -992,9 +992,6 @@
     <t>Cartera Monedero, Billetera doble, TodaModa</t>
   </si>
   <si>
-    <t>https://pe.todomoda.com/media/catalog/product/7/2/72706501_0_1_20210706180216.jpg</t>
-  </si>
-  <si>
     <t>https://pe.todomoda.com/fichero-classic-72706501.html</t>
   </si>
   <si>
@@ -2398,6 +2395,9 @@
   </si>
   <si>
     <t>Autos, Herramientas y Ferretería</t>
+  </si>
+  <si>
+    <t>https://charming-panda-45bed1.netlify.app/imagenes/WhatsApp Image 2026-02-02 at 7.06.02 PM.jpeg</t>
   </si>
 </sst>
 </file>
@@ -2759,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="A227" sqref="A227:XFD232"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2822,7 +2822,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2874,7 +2874,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2900,7 +2900,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2926,12 +2926,12 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C7">
         <v>564</v>
@@ -2940,21 +2940,21 @@
         <v>500</v>
       </c>
       <c r="E7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F7" t="s">
         <v>374</v>
       </c>
-      <c r="F7" t="s">
-        <v>375</v>
-      </c>
       <c r="G7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -2966,21 +2966,21 @@
         <v>150</v>
       </c>
       <c r="E8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F8" t="s">
         <v>328</v>
-      </c>
-      <c r="F8" t="s">
-        <v>329</v>
       </c>
       <c r="G8">
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -2992,21 +2992,21 @@
         <v>100</v>
       </c>
       <c r="E9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F9" t="s">
         <v>332</v>
-      </c>
-      <c r="F9" t="s">
-        <v>333</v>
       </c>
       <c r="G9">
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -3018,21 +3018,21 @@
         <v>450</v>
       </c>
       <c r="E10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" t="s">
         <v>335</v>
-      </c>
-      <c r="F10" t="s">
-        <v>336</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -3044,24 +3044,24 @@
         <v>150</v>
       </c>
       <c r="E11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F11" t="s">
         <v>338</v>
-      </c>
-      <c r="F11" t="s">
-        <v>339</v>
       </c>
       <c r="G11">
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B12" t="s">
         <v>437</v>
-      </c>
-      <c r="B12" t="s">
-        <v>438</v>
       </c>
       <c r="C12">
         <v>1050</v>
@@ -3070,18 +3070,18 @@
         <v>600</v>
       </c>
       <c r="E12" t="s">
+        <v>438</v>
+      </c>
+      <c r="G12" t="s">
         <v>439</v>
       </c>
-      <c r="G12" t="s">
-        <v>440</v>
-      </c>
       <c r="H12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -3090,21 +3090,21 @@
         <v>250</v>
       </c>
       <c r="E13" t="s">
+        <v>493</v>
+      </c>
+      <c r="F13" t="s">
         <v>494</v>
       </c>
-      <c r="F13" t="s">
-        <v>495</v>
-      </c>
       <c r="G13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
@@ -3116,13 +3116,13 @@
         <v>150</v>
       </c>
       <c r="E14" t="s">
+        <v>620</v>
+      </c>
+      <c r="F14" t="s">
         <v>621</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>622</v>
-      </c>
-      <c r="G14" t="s">
-        <v>623</v>
       </c>
       <c r="H14" t="s">
         <v>90</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
@@ -3142,21 +3142,21 @@
         <v>190</v>
       </c>
       <c r="E15" t="s">
+        <v>628</v>
+      </c>
+      <c r="F15" t="s">
         <v>629</v>
       </c>
-      <c r="F15" t="s">
-        <v>630</v>
-      </c>
       <c r="G15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -3168,21 +3168,21 @@
         <v>150</v>
       </c>
       <c r="E16" t="s">
+        <v>636</v>
+      </c>
+      <c r="F16" t="s">
         <v>637</v>
       </c>
-      <c r="F16" t="s">
-        <v>638</v>
-      </c>
       <c r="G16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
@@ -3194,16 +3194,16 @@
         <v>180</v>
       </c>
       <c r="E17" t="s">
+        <v>599</v>
+      </c>
+      <c r="F17" t="s">
         <v>600</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>553</v>
+      </c>
+      <c r="H17" t="s">
         <v>601</v>
-      </c>
-      <c r="G17" t="s">
-        <v>554</v>
-      </c>
-      <c r="H17" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3786,12 +3786,12 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
@@ -3803,13 +3803,13 @@
         <v>250</v>
       </c>
       <c r="E41" t="s">
+        <v>409</v>
+      </c>
+      <c r="F41" t="s">
         <v>410</v>
       </c>
-      <c r="F41" t="s">
-        <v>411</v>
-      </c>
       <c r="G41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H41" t="s">
         <v>148</v>
@@ -3817,10 +3817,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>440</v>
+      </c>
+      <c r="B42" t="s">
         <v>441</v>
-      </c>
-      <c r="B42" t="s">
-        <v>442</v>
       </c>
       <c r="C42">
         <v>699</v>
@@ -3829,13 +3829,13 @@
         <v>300</v>
       </c>
       <c r="E42" t="s">
+        <v>442</v>
+      </c>
+      <c r="F42" t="s">
         <v>443</v>
       </c>
-      <c r="F42" t="s">
-        <v>444</v>
-      </c>
       <c r="G42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H42" t="s">
         <v>148</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -3855,13 +3855,13 @@
         <v>900</v>
       </c>
       <c r="E43" t="s">
+        <v>448</v>
+      </c>
+      <c r="F43" t="s">
         <v>449</v>
       </c>
-      <c r="F43" t="s">
-        <v>450</v>
-      </c>
       <c r="G43" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H43" t="s">
         <v>148</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -3878,13 +3878,13 @@
         <v>350</v>
       </c>
       <c r="E44" t="s">
+        <v>479</v>
+      </c>
+      <c r="F44" t="s">
         <v>480</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>481</v>
-      </c>
-      <c r="G44" t="s">
-        <v>482</v>
       </c>
       <c r="H44" t="s">
         <v>148</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
@@ -3901,13 +3901,13 @@
         <v>200</v>
       </c>
       <c r="E45" t="s">
+        <v>503</v>
+      </c>
+      <c r="F45" t="s">
         <v>504</v>
       </c>
-      <c r="F45" t="s">
-        <v>505</v>
-      </c>
       <c r="G45" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H45" t="s">
         <v>148</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
@@ -3924,13 +3924,13 @@
         <v>200</v>
       </c>
       <c r="E46" t="s">
+        <v>526</v>
+      </c>
+      <c r="F46" t="s">
         <v>527</v>
       </c>
-      <c r="F46" t="s">
-        <v>528</v>
-      </c>
       <c r="G46" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H46" t="s">
         <v>148</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B47" t="s">
         <v>33</v>
@@ -3947,13 +3947,13 @@
         <v>70</v>
       </c>
       <c r="E47" t="s">
+        <v>684</v>
+      </c>
+      <c r="F47" t="s">
         <v>685</v>
       </c>
-      <c r="F47" t="s">
-        <v>686</v>
-      </c>
       <c r="G47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H47" t="s">
         <v>90</v>
@@ -3961,22 +3961,22 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>693</v>
+      </c>
+      <c r="B48" t="s">
         <v>694</v>
-      </c>
-      <c r="B48" t="s">
-        <v>695</v>
       </c>
       <c r="C48">
         <v>200</v>
       </c>
       <c r="E48" t="s">
+        <v>695</v>
+      </c>
+      <c r="F48" t="s">
         <v>696</v>
       </c>
-      <c r="F48" t="s">
-        <v>697</v>
-      </c>
       <c r="G48" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H48" t="s">
         <v>148</v>
@@ -3984,10 +3984,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>697</v>
+      </c>
+      <c r="B49" t="s">
         <v>698</v>
-      </c>
-      <c r="B49" t="s">
-        <v>699</v>
       </c>
       <c r="C49">
         <v>159</v>
@@ -3996,13 +3996,13 @@
         <v>120</v>
       </c>
       <c r="E49" t="s">
+        <v>699</v>
+      </c>
+      <c r="F49" t="s">
         <v>700</v>
       </c>
-      <c r="F49" t="s">
-        <v>701</v>
-      </c>
       <c r="G49" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H49" t="s">
         <v>148</v>
@@ -4010,10 +4010,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>716</v>
+      </c>
+      <c r="B50" t="s">
         <v>717</v>
-      </c>
-      <c r="B50" t="s">
-        <v>718</v>
       </c>
       <c r="C50">
         <v>5150</v>
@@ -4022,13 +4022,13 @@
         <v>3500</v>
       </c>
       <c r="E50" t="s">
+        <v>718</v>
+      </c>
+      <c r="F50" t="s">
         <v>719</v>
       </c>
-      <c r="F50" t="s">
-        <v>720</v>
-      </c>
       <c r="G50" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H50" t="s">
         <v>148</v>
@@ -4036,10 +4036,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>720</v>
+      </c>
+      <c r="B51" t="s">
         <v>721</v>
-      </c>
-      <c r="B51" t="s">
-        <v>722</v>
       </c>
       <c r="C51">
         <v>1700</v>
@@ -4048,13 +4048,13 @@
         <v>1000</v>
       </c>
       <c r="E51" t="s">
+        <v>722</v>
+      </c>
+      <c r="F51" t="s">
         <v>723</v>
       </c>
-      <c r="F51" t="s">
-        <v>724</v>
-      </c>
       <c r="G51" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H51" t="s">
         <v>148</v>
@@ -4062,45 +4062,45 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>731</v>
+      </c>
+      <c r="B52" t="s">
         <v>732</v>
-      </c>
-      <c r="B52" t="s">
-        <v>733</v>
       </c>
       <c r="C52">
         <v>200</v>
       </c>
       <c r="E52" t="s">
+        <v>733</v>
+      </c>
+      <c r="F52" t="s">
         <v>734</v>
       </c>
-      <c r="F52" t="s">
-        <v>735</v>
-      </c>
       <c r="G52" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H52" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C53">
         <v>500</v>
       </c>
       <c r="E53" t="s">
+        <v>779</v>
+      </c>
+      <c r="F53" t="s">
         <v>780</v>
       </c>
-      <c r="F53" t="s">
-        <v>781</v>
-      </c>
       <c r="G53" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H53" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -4126,7 +4126,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -4149,7 +4149,7 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4172,7 +4172,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -4198,7 +4198,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4224,7 +4224,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -4250,7 +4250,7 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -4273,7 +4273,7 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -4296,7 +4296,7 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -4319,7 +4319,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -4345,7 +4345,7 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -4368,7 +4368,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4394,7 +4394,7 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4417,7 +4417,7 @@
         <v>3.1</v>
       </c>
       <c r="H66" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4443,7 +4443,7 @@
         <v>3.1</v>
       </c>
       <c r="H67" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4466,7 +4466,7 @@
         <v>4</v>
       </c>
       <c r="H68" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4492,7 +4492,7 @@
         <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4518,7 +4518,7 @@
         <v>6</v>
       </c>
       <c r="H70" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4544,7 +4544,7 @@
         <v>6</v>
       </c>
       <c r="H71" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4570,7 +4570,7 @@
         <v>6</v>
       </c>
       <c r="H72" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4601,10 +4601,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>384</v>
+      </c>
+      <c r="B74" t="s">
         <v>385</v>
-      </c>
-      <c r="B74" t="s">
-        <v>386</v>
       </c>
       <c r="C74">
         <v>1100</v>
@@ -4613,13 +4613,13 @@
         <v>900</v>
       </c>
       <c r="E74" t="s">
+        <v>386</v>
+      </c>
+      <c r="F74" t="s">
         <v>387</v>
       </c>
-      <c r="F74" t="s">
-        <v>388</v>
-      </c>
       <c r="G74" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H74" t="s">
         <v>90</v>
@@ -4627,10 +4627,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>455</v>
+      </c>
+      <c r="B75" t="s">
         <v>456</v>
-      </c>
-      <c r="B75" t="s">
-        <v>457</v>
       </c>
       <c r="C75">
         <v>731.5</v>
@@ -4639,21 +4639,21 @@
         <v>490</v>
       </c>
       <c r="E75" t="s">
+        <v>457</v>
+      </c>
+      <c r="F75" t="s">
         <v>458</v>
       </c>
-      <c r="F75" t="s">
-        <v>459</v>
-      </c>
       <c r="G75" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H75" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B76">
         <v>9005</v>
@@ -4662,24 +4662,24 @@
         <v>350</v>
       </c>
       <c r="E76" t="s">
+        <v>500</v>
+      </c>
+      <c r="F76" t="s">
         <v>501</v>
       </c>
-      <c r="F76" t="s">
-        <v>502</v>
-      </c>
       <c r="G76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H76" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>549</v>
+      </c>
+      <c r="B77" t="s">
         <v>550</v>
-      </c>
-      <c r="B77" t="s">
-        <v>551</v>
       </c>
       <c r="C77">
         <v>220</v>
@@ -4688,59 +4688,59 @@
         <v>100</v>
       </c>
       <c r="E77" t="s">
+        <v>551</v>
+      </c>
+      <c r="F77" t="s">
         <v>552</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>553</v>
       </c>
-      <c r="G77" t="s">
-        <v>554</v>
-      </c>
       <c r="H77" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>689</v>
+      </c>
+      <c r="B78" t="s">
         <v>690</v>
-      </c>
-      <c r="B78" t="s">
-        <v>691</v>
       </c>
       <c r="C78">
         <v>670</v>
       </c>
       <c r="E78" t="s">
+        <v>691</v>
+      </c>
+      <c r="F78" t="s">
         <v>692</v>
       </c>
-      <c r="F78" t="s">
-        <v>693</v>
-      </c>
       <c r="G78" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H78" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>701</v>
+      </c>
+      <c r="B79" t="s">
         <v>702</v>
-      </c>
-      <c r="B79" t="s">
-        <v>703</v>
       </c>
       <c r="C79">
         <v>350</v>
       </c>
       <c r="E79" t="s">
+        <v>703</v>
+      </c>
+      <c r="F79" t="s">
         <v>704</v>
       </c>
-      <c r="F79" t="s">
-        <v>705</v>
-      </c>
       <c r="G79" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H79" t="s">
         <v>90</v>
@@ -4748,68 +4748,68 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>705</v>
+      </c>
+      <c r="B80" t="s">
         <v>706</v>
-      </c>
-      <c r="B80" t="s">
-        <v>707</v>
       </c>
       <c r="C80">
         <v>400</v>
       </c>
       <c r="E80" t="s">
+        <v>707</v>
+      </c>
+      <c r="F80" t="s">
         <v>708</v>
       </c>
-      <c r="F80" t="s">
-        <v>709</v>
-      </c>
       <c r="G80" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H80" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B81" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C81">
         <v>600</v>
       </c>
       <c r="E81" t="s">
+        <v>710</v>
+      </c>
+      <c r="F81" t="s">
         <v>711</v>
       </c>
-      <c r="F81" t="s">
-        <v>712</v>
-      </c>
       <c r="G81" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H81" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>724</v>
+      </c>
+      <c r="B82" t="s">
         <v>725</v>
-      </c>
-      <c r="B82" t="s">
-        <v>726</v>
       </c>
       <c r="C82">
         <v>200</v>
       </c>
       <c r="E82" t="s">
+        <v>726</v>
+      </c>
+      <c r="F82" t="s">
         <v>727</v>
       </c>
-      <c r="F82" t="s">
-        <v>728</v>
-      </c>
       <c r="G82" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H82" t="s">
         <v>90</v>
@@ -4817,22 +4817,22 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>774</v>
+      </c>
+      <c r="B83" t="s">
         <v>775</v>
-      </c>
-      <c r="B83" t="s">
-        <v>776</v>
       </c>
       <c r="C83">
         <v>500</v>
       </c>
       <c r="E83" t="s">
+        <v>776</v>
+      </c>
+      <c r="F83" t="s">
         <v>777</v>
       </c>
-      <c r="F83" t="s">
-        <v>778</v>
-      </c>
       <c r="G83" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H83" t="s">
         <v>90</v>
@@ -4861,7 +4861,7 @@
         <v>3.1</v>
       </c>
       <c r="H84" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4887,7 +4887,7 @@
         <v>3.1</v>
       </c>
       <c r="H85" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4913,7 +4913,7 @@
         <v>3.1</v>
       </c>
       <c r="H86" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4939,7 +4939,7 @@
         <v>3.1</v>
       </c>
       <c r="H87" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4965,7 +4965,7 @@
         <v>3.1</v>
       </c>
       <c r="H88" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5066,7 +5066,7 @@
         <v>8</v>
       </c>
       <c r="H92" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -5094,10 +5094,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B94" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C94">
         <v>399</v>
@@ -5106,13 +5106,13 @@
         <v>300</v>
       </c>
       <c r="E94" t="s">
+        <v>382</v>
+      </c>
+      <c r="F94" t="s">
         <v>383</v>
       </c>
-      <c r="F94" t="s">
-        <v>384</v>
-      </c>
       <c r="G94" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H94" t="s">
         <v>90</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B95" t="s">
         <v>18</v>
@@ -5132,13 +5132,13 @@
         <v>200</v>
       </c>
       <c r="E95" t="s">
+        <v>399</v>
+      </c>
+      <c r="F95" t="s">
         <v>400</v>
       </c>
-      <c r="F95" t="s">
-        <v>401</v>
-      </c>
       <c r="G95" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H95" t="s">
         <v>90</v>
@@ -5146,10 +5146,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>417</v>
+      </c>
+      <c r="B96" t="s">
         <v>418</v>
-      </c>
-      <c r="B96" t="s">
-        <v>419</v>
       </c>
       <c r="C96">
         <v>450</v>
@@ -5158,13 +5158,13 @@
         <v>370</v>
       </c>
       <c r="E96" t="s">
+        <v>419</v>
+      </c>
+      <c r="F96" t="s">
         <v>420</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>421</v>
-      </c>
-      <c r="G96" t="s">
-        <v>422</v>
       </c>
       <c r="H96" t="s">
         <v>90</v>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B97" t="s">
         <v>18</v>
@@ -5184,13 +5184,13 @@
         <v>1000</v>
       </c>
       <c r="E97" t="s">
+        <v>463</v>
+      </c>
+      <c r="F97" t="s">
         <v>464</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>465</v>
-      </c>
-      <c r="G97" t="s">
-        <v>466</v>
       </c>
       <c r="H97" t="s">
         <v>90</v>
@@ -5198,10 +5198,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>474</v>
+      </c>
+      <c r="B98" t="s">
         <v>475</v>
-      </c>
-      <c r="B98" t="s">
-        <v>476</v>
       </c>
       <c r="C98">
         <v>693</v>
@@ -5210,13 +5210,13 @@
         <v>350</v>
       </c>
       <c r="E98" t="s">
+        <v>476</v>
+      </c>
+      <c r="F98" t="s">
         <v>477</v>
       </c>
-      <c r="F98" t="s">
-        <v>478</v>
-      </c>
       <c r="G98" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H98" t="s">
         <v>90</v>
@@ -5224,22 +5224,22 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>517</v>
+      </c>
+      <c r="B99" t="s">
         <v>518</v>
-      </c>
-      <c r="B99" t="s">
-        <v>519</v>
       </c>
       <c r="C99">
         <v>300</v>
       </c>
       <c r="E99" t="s">
+        <v>519</v>
+      </c>
+      <c r="F99" t="s">
         <v>520</v>
       </c>
-      <c r="F99" t="s">
-        <v>521</v>
-      </c>
       <c r="G99" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H99" t="s">
         <v>90</v>
@@ -5247,22 +5247,22 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>521</v>
+      </c>
+      <c r="B100" t="s">
         <v>522</v>
-      </c>
-      <c r="B100" t="s">
-        <v>523</v>
       </c>
       <c r="C100">
         <v>300</v>
       </c>
       <c r="E100" t="s">
+        <v>523</v>
+      </c>
+      <c r="F100" t="s">
         <v>524</v>
       </c>
-      <c r="F100" t="s">
-        <v>525</v>
-      </c>
       <c r="G100" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H100" t="s">
         <v>90</v>
@@ -5270,7 +5270,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B101" t="s">
         <v>44</v>
@@ -5282,13 +5282,13 @@
         <v>120</v>
       </c>
       <c r="E101" t="s">
+        <v>596</v>
+      </c>
+      <c r="F101" t="s">
         <v>597</v>
       </c>
-      <c r="F101" t="s">
-        <v>598</v>
-      </c>
       <c r="G101" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H101" t="s">
         <v>90</v>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B102" t="s">
         <v>44</v>
@@ -5308,13 +5308,13 @@
         <v>150</v>
       </c>
       <c r="E102" t="s">
+        <v>603</v>
+      </c>
+      <c r="F102" t="s">
         <v>604</v>
       </c>
-      <c r="F102" t="s">
-        <v>605</v>
-      </c>
       <c r="G102" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H102" t="s">
         <v>115</v>
@@ -5322,10 +5322,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>623</v>
+      </c>
+      <c r="B103" t="s">
         <v>624</v>
-      </c>
-      <c r="B103" t="s">
-        <v>625</v>
       </c>
       <c r="C103">
         <v>169</v>
@@ -5334,13 +5334,13 @@
         <v>100</v>
       </c>
       <c r="E103" t="s">
+        <v>625</v>
+      </c>
+      <c r="F103" t="s">
         <v>626</v>
       </c>
-      <c r="F103" t="s">
-        <v>627</v>
-      </c>
       <c r="G103" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H103" t="s">
         <v>90</v>
@@ -5348,45 +5348,45 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>655</v>
+      </c>
+      <c r="B104" t="s">
         <v>656</v>
-      </c>
-      <c r="B104" t="s">
-        <v>657</v>
       </c>
       <c r="C104">
         <v>165</v>
       </c>
       <c r="E104" t="s">
+        <v>657</v>
+      </c>
+      <c r="F104" t="s">
         <v>658</v>
       </c>
-      <c r="F104" t="s">
-        <v>659</v>
-      </c>
       <c r="G104" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H104" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>746</v>
+      </c>
+      <c r="B105" t="s">
         <v>747</v>
-      </c>
-      <c r="B105" t="s">
-        <v>748</v>
       </c>
       <c r="C105">
         <v>100</v>
       </c>
       <c r="E105" t="s">
+        <v>748</v>
+      </c>
+      <c r="F105" t="s">
         <v>749</v>
       </c>
-      <c r="F105" t="s">
-        <v>750</v>
-      </c>
       <c r="G105" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H105" t="s">
         <v>115</v>
@@ -5394,10 +5394,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>367</v>
+      </c>
+      <c r="B106" t="s">
         <v>368</v>
-      </c>
-      <c r="B106" t="s">
-        <v>369</v>
       </c>
       <c r="C106">
         <v>230</v>
@@ -5406,13 +5406,13 @@
         <v>150</v>
       </c>
       <c r="E106" t="s">
+        <v>369</v>
+      </c>
+      <c r="F106" t="s">
         <v>370</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>371</v>
-      </c>
-      <c r="G106" t="s">
-        <v>372</v>
       </c>
       <c r="H106" t="s">
         <v>90</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B107" t="s">
         <v>44</v>
@@ -5432,13 +5432,13 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
+        <v>585</v>
+      </c>
+      <c r="F107" t="s">
         <v>586</v>
       </c>
-      <c r="F107" t="s">
-        <v>587</v>
-      </c>
       <c r="G107" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H107" t="s">
         <v>90</v>
@@ -5467,12 +5467,12 @@
         <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B109" t="s">
         <v>18</v>
@@ -5484,16 +5484,16 @@
         <v>350</v>
       </c>
       <c r="E109" t="s">
+        <v>434</v>
+      </c>
+      <c r="F109" t="s">
         <v>435</v>
       </c>
-      <c r="F109" t="s">
-        <v>436</v>
-      </c>
       <c r="G109" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H109" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -5516,7 +5516,7 @@
         <v>8.1</v>
       </c>
       <c r="H110" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -5536,7 +5536,7 @@
         <v>4</v>
       </c>
       <c r="H111" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -5559,7 +5559,7 @@
         <v>4</v>
       </c>
       <c r="H112" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -5582,76 +5582,76 @@
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>750</v>
+      </c>
+      <c r="B114" t="s">
         <v>751</v>
-      </c>
-      <c r="B114" t="s">
-        <v>752</v>
       </c>
       <c r="C114">
         <v>300</v>
       </c>
       <c r="E114" t="s">
+        <v>752</v>
+      </c>
+      <c r="F114" t="s">
         <v>753</v>
       </c>
-      <c r="F114" t="s">
-        <v>754</v>
-      </c>
       <c r="G114" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H114" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>754</v>
+      </c>
+      <c r="B115" t="s">
         <v>755</v>
-      </c>
-      <c r="B115" t="s">
-        <v>756</v>
       </c>
       <c r="C115">
         <v>100</v>
       </c>
       <c r="E115" t="s">
+        <v>756</v>
+      </c>
+      <c r="F115" t="s">
         <v>757</v>
       </c>
-      <c r="F115" t="s">
-        <v>758</v>
-      </c>
       <c r="G115" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H115" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>762</v>
+      </c>
+      <c r="B116" t="s">
         <v>763</v>
-      </c>
-      <c r="B116" t="s">
-        <v>764</v>
       </c>
       <c r="C116">
         <v>300</v>
       </c>
       <c r="E116" t="s">
+        <v>764</v>
+      </c>
+      <c r="F116" t="s">
         <v>765</v>
       </c>
-      <c r="F116" t="s">
-        <v>766</v>
-      </c>
       <c r="G116" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H116" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -5674,7 +5674,7 @@
         <v>4</v>
       </c>
       <c r="H117" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -5697,7 +5697,7 @@
         <v>4</v>
       </c>
       <c r="H118" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -5723,7 +5723,7 @@
         <v>4</v>
       </c>
       <c r="H119" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -5746,7 +5746,7 @@
         <v>4</v>
       </c>
       <c r="H120" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -5769,7 +5769,7 @@
         <v>4</v>
       </c>
       <c r="H121" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -5792,7 +5792,7 @@
         <v>4</v>
       </c>
       <c r="H122" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -5815,7 +5815,7 @@
         <v>4</v>
       </c>
       <c r="H123" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -5982,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="H130" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -6138,7 +6138,7 @@
         <v>8</v>
       </c>
       <c r="H136" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -6164,7 +6164,7 @@
         <v>8</v>
       </c>
       <c r="H137" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -6190,7 +6190,7 @@
         <v>8</v>
       </c>
       <c r="H138" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -6216,7 +6216,7 @@
         <v>8</v>
       </c>
       <c r="H139" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -6242,7 +6242,7 @@
         <v>8</v>
       </c>
       <c r="H140" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -6311,10 +6311,10 @@
         <v>300</v>
       </c>
       <c r="E143" t="s">
+        <v>790</v>
+      </c>
+      <c r="F143" t="s">
         <v>322</v>
-      </c>
-      <c r="F143" t="s">
-        <v>323</v>
       </c>
       <c r="G143">
         <v>8.1</v>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B144" t="s">
         <v>18</v>
@@ -6337,24 +6337,24 @@
         <v>100</v>
       </c>
       <c r="E144" t="s">
+        <v>324</v>
+      </c>
+      <c r="F144" t="s">
         <v>325</v>
-      </c>
-      <c r="F144" t="s">
-        <v>326</v>
       </c>
       <c r="G144">
         <v>9</v>
       </c>
       <c r="H144" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>346</v>
+      </c>
+      <c r="B145" t="s">
         <v>347</v>
-      </c>
-      <c r="B145" t="s">
-        <v>348</v>
       </c>
       <c r="C145">
         <v>685</v>
@@ -6363,10 +6363,10 @@
         <v>500</v>
       </c>
       <c r="E145" t="s">
+        <v>348</v>
+      </c>
+      <c r="F145" t="s">
         <v>349</v>
-      </c>
-      <c r="F145" t="s">
-        <v>350</v>
       </c>
       <c r="G145">
         <v>10</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B146" t="s">
         <v>18</v>
@@ -6389,13 +6389,13 @@
         <v>100</v>
       </c>
       <c r="E146" t="s">
+        <v>360</v>
+      </c>
+      <c r="F146" t="s">
         <v>361</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>362</v>
-      </c>
-      <c r="G146" t="s">
-        <v>363</v>
       </c>
       <c r="H146" t="s">
         <v>115</v>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B147" t="s">
         <v>18</v>
@@ -6415,21 +6415,21 @@
         <v>1500</v>
       </c>
       <c r="E147" t="s">
+        <v>364</v>
+      </c>
+      <c r="F147" t="s">
         <v>365</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>366</v>
       </c>
-      <c r="G147" t="s">
-        <v>367</v>
-      </c>
       <c r="H147" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B148" t="s">
         <v>18</v>
@@ -6438,13 +6438,13 @@
         <v>200</v>
       </c>
       <c r="E148" t="s">
+        <v>376</v>
+      </c>
+      <c r="F148" t="s">
         <v>377</v>
       </c>
-      <c r="F148" t="s">
-        <v>378</v>
-      </c>
       <c r="G148" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H148" t="s">
         <v>90</v>
@@ -6452,10 +6452,10 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B149" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C149">
         <v>399</v>
@@ -6464,13 +6464,13 @@
         <v>300</v>
       </c>
       <c r="E149" t="s">
+        <v>379</v>
+      </c>
+      <c r="F149" t="s">
         <v>380</v>
       </c>
-      <c r="F149" t="s">
-        <v>381</v>
-      </c>
       <c r="G149" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H149" t="s">
         <v>90</v>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B150" t="s">
         <v>18</v>
@@ -6487,13 +6487,13 @@
         <v>500</v>
       </c>
       <c r="E150" t="s">
+        <v>389</v>
+      </c>
+      <c r="F150" t="s">
         <v>390</v>
       </c>
-      <c r="F150" t="s">
-        <v>391</v>
-      </c>
       <c r="G150" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H150" t="s">
         <v>90</v>
@@ -6501,7 +6501,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B151" t="s">
         <v>18</v>
@@ -6513,13 +6513,13 @@
         <v>250</v>
       </c>
       <c r="E151" t="s">
+        <v>392</v>
+      </c>
+      <c r="F151" t="s">
         <v>393</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>394</v>
-      </c>
-      <c r="G151" t="s">
-        <v>395</v>
       </c>
       <c r="H151" t="s">
         <v>90</v>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B152" t="s">
         <v>18</v>
@@ -6536,13 +6536,13 @@
         <v>370</v>
       </c>
       <c r="E152" t="s">
+        <v>396</v>
+      </c>
+      <c r="F152" t="s">
         <v>397</v>
       </c>
-      <c r="F152" t="s">
-        <v>398</v>
-      </c>
       <c r="G152" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H152" t="s">
         <v>90</v>
@@ -6550,10 +6550,10 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>401</v>
+      </c>
+      <c r="B153" t="s">
         <v>402</v>
-      </c>
-      <c r="B153" t="s">
-        <v>403</v>
       </c>
       <c r="C153">
         <v>599</v>
@@ -6562,13 +6562,13 @@
         <v>350</v>
       </c>
       <c r="E153" t="s">
+        <v>403</v>
+      </c>
+      <c r="F153" t="s">
         <v>404</v>
       </c>
-      <c r="F153" t="s">
-        <v>405</v>
-      </c>
       <c r="G153" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H153" t="s">
         <v>90</v>
@@ -6576,7 +6576,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B154" t="s">
         <v>18</v>
@@ -6588,13 +6588,13 @@
         <v>300</v>
       </c>
       <c r="E154" t="s">
+        <v>406</v>
+      </c>
+      <c r="F154" t="s">
         <v>407</v>
       </c>
-      <c r="F154" t="s">
-        <v>408</v>
-      </c>
       <c r="G154" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H154" t="s">
         <v>90</v>
@@ -6602,7 +6602,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B155" t="s">
         <v>18</v>
@@ -6614,13 +6614,13 @@
         <v>200</v>
       </c>
       <c r="E155" t="s">
+        <v>412</v>
+      </c>
+      <c r="F155" t="s">
         <v>413</v>
       </c>
-      <c r="F155" t="s">
-        <v>414</v>
-      </c>
       <c r="G155" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H155" t="s">
         <v>148</v>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B156" t="s">
         <v>18</v>
@@ -6640,13 +6640,13 @@
         <v>330</v>
       </c>
       <c r="E156" t="s">
+        <v>415</v>
+      </c>
+      <c r="F156" t="s">
         <v>416</v>
       </c>
-      <c r="F156" t="s">
-        <v>417</v>
-      </c>
       <c r="G156" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H156" t="s">
         <v>148</v>
@@ -6654,7 +6654,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B157" t="s">
         <v>18</v>
@@ -6666,13 +6666,13 @@
         <v>150</v>
       </c>
       <c r="E157" t="s">
+        <v>423</v>
+      </c>
+      <c r="F157" t="s">
         <v>424</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>425</v>
-      </c>
-      <c r="G157" t="s">
-        <v>426</v>
       </c>
       <c r="H157" t="s">
         <v>90</v>
@@ -6680,7 +6680,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B158" t="s">
         <v>18</v>
@@ -6692,21 +6692,21 @@
         <v>600</v>
       </c>
       <c r="E158" t="s">
+        <v>427</v>
+      </c>
+      <c r="F158" t="s">
         <v>428</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G158" t="s">
         <v>429</v>
       </c>
-      <c r="G158" t="s">
-        <v>430</v>
-      </c>
       <c r="H158" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B159" t="s">
         <v>18</v>
@@ -6718,21 +6718,21 @@
         <v>450</v>
       </c>
       <c r="E159" t="s">
+        <v>431</v>
+      </c>
+      <c r="F159" t="s">
         <v>432</v>
       </c>
-      <c r="F159" t="s">
-        <v>433</v>
-      </c>
       <c r="G159" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H159" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B160" t="s">
         <v>18</v>
@@ -6744,13 +6744,13 @@
         <v>500</v>
       </c>
       <c r="E160" t="s">
+        <v>445</v>
+      </c>
+      <c r="F160" t="s">
         <v>446</v>
       </c>
-      <c r="F160" t="s">
-        <v>447</v>
-      </c>
       <c r="G160" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H160" t="s">
         <v>90</v>
@@ -6758,10 +6758,10 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>450</v>
+      </c>
+      <c r="B161" t="s">
         <v>451</v>
-      </c>
-      <c r="B161" t="s">
-        <v>452</v>
       </c>
       <c r="C161">
         <v>411.67</v>
@@ -6770,13 +6770,13 @@
         <v>350</v>
       </c>
       <c r="E161" t="s">
+        <v>452</v>
+      </c>
+      <c r="F161" t="s">
         <v>453</v>
       </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>454</v>
-      </c>
-      <c r="G161" t="s">
-        <v>455</v>
       </c>
       <c r="H161" t="s">
         <v>148</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B162" t="s">
         <v>18</v>
@@ -6796,13 +6796,13 @@
         <v>550</v>
       </c>
       <c r="E162" t="s">
+        <v>460</v>
+      </c>
+      <c r="F162" t="s">
         <v>461</v>
       </c>
-      <c r="F162" t="s">
-        <v>462</v>
-      </c>
       <c r="G162" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H162" t="s">
         <v>90</v>
@@ -6810,10 +6810,10 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>466</v>
+      </c>
+      <c r="B163" t="s">
         <v>467</v>
-      </c>
-      <c r="B163" t="s">
-        <v>468</v>
       </c>
       <c r="C163">
         <v>1439</v>
@@ -6822,13 +6822,13 @@
         <v>700</v>
       </c>
       <c r="E163" t="s">
+        <v>468</v>
+      </c>
+      <c r="F163" t="s">
         <v>469</v>
       </c>
-      <c r="F163" t="s">
-        <v>470</v>
-      </c>
       <c r="G163" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H163" t="s">
         <v>90</v>
@@ -6836,10 +6836,10 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>470</v>
+      </c>
+      <c r="B164" t="s">
         <v>471</v>
-      </c>
-      <c r="B164" t="s">
-        <v>472</v>
       </c>
       <c r="C164">
         <v>1499</v>
@@ -6848,13 +6848,13 @@
         <v>850</v>
       </c>
       <c r="E164" t="s">
+        <v>472</v>
+      </c>
+      <c r="F164" t="s">
         <v>473</v>
       </c>
-      <c r="F164" t="s">
-        <v>474</v>
-      </c>
       <c r="G164" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H164" t="s">
         <v>90</v>
@@ -6862,7 +6862,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B165" t="s">
         <v>18</v>
@@ -6871,13 +6871,13 @@
         <v>170</v>
       </c>
       <c r="E165" t="s">
+        <v>483</v>
+      </c>
+      <c r="F165" t="s">
         <v>484</v>
       </c>
-      <c r="F165" t="s">
-        <v>485</v>
-      </c>
       <c r="G165" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H165" t="s">
         <v>115</v>
@@ -6885,22 +6885,22 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>485</v>
+      </c>
+      <c r="B166" t="s">
         <v>486</v>
-      </c>
-      <c r="B166" t="s">
-        <v>487</v>
       </c>
       <c r="C166">
         <v>200</v>
       </c>
       <c r="E166" t="s">
+        <v>487</v>
+      </c>
+      <c r="F166" t="s">
         <v>488</v>
       </c>
-      <c r="F166" t="s">
-        <v>489</v>
-      </c>
       <c r="G166" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H166" t="s">
         <v>12</v>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B167" t="s">
         <v>18</v>
@@ -6917,21 +6917,21 @@
         <v>40</v>
       </c>
       <c r="E167" t="s">
+        <v>490</v>
+      </c>
+      <c r="F167" t="s">
         <v>491</v>
       </c>
-      <c r="F167" t="s">
-        <v>492</v>
-      </c>
       <c r="G167" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H167" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B168" t="s">
         <v>18</v>
@@ -6940,13 +6940,13 @@
         <v>150</v>
       </c>
       <c r="E168" t="s">
+        <v>506</v>
+      </c>
+      <c r="F168" t="s">
         <v>507</v>
       </c>
-      <c r="F168" t="s">
-        <v>508</v>
-      </c>
       <c r="G168" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H168" t="s">
         <v>90</v>
@@ -6954,22 +6954,22 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B169" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C169">
         <v>200</v>
       </c>
       <c r="E169" t="s">
+        <v>512</v>
+      </c>
+      <c r="F169" t="s">
         <v>513</v>
       </c>
-      <c r="F169" t="s">
-        <v>514</v>
-      </c>
       <c r="G169" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H169" t="s">
         <v>12</v>
@@ -6977,10 +6977,10 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>532</v>
+      </c>
+      <c r="B170" t="s">
         <v>533</v>
-      </c>
-      <c r="B170" t="s">
-        <v>534</v>
       </c>
       <c r="C170">
         <v>239</v>
@@ -6989,13 +6989,13 @@
         <v>150</v>
       </c>
       <c r="E170" t="s">
+        <v>534</v>
+      </c>
+      <c r="F170" t="s">
         <v>535</v>
       </c>
-      <c r="F170" t="s">
+      <c r="G170" t="s">
         <v>536</v>
-      </c>
-      <c r="G170" t="s">
-        <v>537</v>
       </c>
       <c r="H170" t="s">
         <v>12</v>
@@ -7003,22 +7003,22 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>554</v>
+      </c>
+      <c r="B171" t="s">
         <v>555</v>
-      </c>
-      <c r="B171" t="s">
-        <v>556</v>
       </c>
       <c r="C171">
         <v>300</v>
       </c>
       <c r="E171" t="s">
+        <v>556</v>
+      </c>
+      <c r="F171" t="s">
         <v>557</v>
       </c>
-      <c r="F171" t="s">
-        <v>558</v>
-      </c>
       <c r="G171" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H171" t="s">
         <v>12</v>
@@ -7026,7 +7026,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B172" t="s">
         <v>44</v>
@@ -7038,13 +7038,13 @@
         <v>100</v>
       </c>
       <c r="E172" t="s">
+        <v>574</v>
+      </c>
+      <c r="F172" t="s">
         <v>575</v>
       </c>
-      <c r="F172" t="s">
-        <v>576</v>
-      </c>
       <c r="G172" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H172" t="s">
         <v>115</v>
@@ -7052,7 +7052,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B173" t="s">
         <v>44</v>
@@ -7064,10 +7064,10 @@
         <v>100</v>
       </c>
       <c r="E173" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G173" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H173" t="s">
         <v>115</v>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B174" t="s">
         <v>44</v>
@@ -7087,13 +7087,13 @@
         <v>200</v>
       </c>
       <c r="E174" t="s">
+        <v>579</v>
+      </c>
+      <c r="F174" t="s">
         <v>580</v>
       </c>
-      <c r="F174" t="s">
-        <v>581</v>
-      </c>
       <c r="G174" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H174" t="s">
         <v>90</v>
@@ -7101,7 +7101,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B175" t="s">
         <v>44</v>
@@ -7113,13 +7113,13 @@
         <v>100</v>
       </c>
       <c r="E175" t="s">
+        <v>582</v>
+      </c>
+      <c r="F175" t="s">
         <v>583</v>
       </c>
-      <c r="F175" t="s">
-        <v>584</v>
-      </c>
       <c r="G175" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H175" t="s">
         <v>115</v>
@@ -7127,10 +7127,10 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>587</v>
+      </c>
+      <c r="B176" t="s">
         <v>588</v>
-      </c>
-      <c r="B176" t="s">
-        <v>589</v>
       </c>
       <c r="C176">
         <v>150</v>
@@ -7139,24 +7139,24 @@
         <v>100</v>
       </c>
       <c r="E176" t="s">
+        <v>589</v>
+      </c>
+      <c r="F176" t="s">
         <v>590</v>
       </c>
-      <c r="F176" t="s">
-        <v>591</v>
-      </c>
       <c r="G176" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H176" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>591</v>
+      </c>
+      <c r="B177" t="s">
         <v>592</v>
-      </c>
-      <c r="B177" t="s">
-        <v>593</v>
       </c>
       <c r="C177">
         <v>200</v>
@@ -7165,13 +7165,13 @@
         <v>120</v>
       </c>
       <c r="E177" t="s">
+        <v>593</v>
+      </c>
+      <c r="F177" t="s">
         <v>594</v>
       </c>
-      <c r="F177" t="s">
-        <v>595</v>
-      </c>
       <c r="G177" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H177" t="s">
         <v>90</v>
@@ -7179,7 +7179,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B178" t="s">
         <v>44</v>
@@ -7191,24 +7191,24 @@
         <v>70</v>
       </c>
       <c r="E178" t="s">
+        <v>606</v>
+      </c>
+      <c r="F178" t="s">
         <v>607</v>
       </c>
-      <c r="F178" t="s">
-        <v>608</v>
-      </c>
       <c r="G178" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H178" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>608</v>
+      </c>
+      <c r="B179" t="s">
         <v>609</v>
-      </c>
-      <c r="B179" t="s">
-        <v>610</v>
       </c>
       <c r="C179">
         <v>200</v>
@@ -7217,21 +7217,21 @@
         <v>100</v>
       </c>
       <c r="E179" t="s">
+        <v>610</v>
+      </c>
+      <c r="F179" t="s">
         <v>611</v>
       </c>
-      <c r="F179" t="s">
-        <v>612</v>
-      </c>
       <c r="G179" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H179" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B180" t="s">
         <v>44</v>
@@ -7240,13 +7240,13 @@
         <v>220</v>
       </c>
       <c r="E180" t="s">
+        <v>613</v>
+      </c>
+      <c r="F180" t="s">
         <v>614</v>
       </c>
-      <c r="F180" t="s">
-        <v>615</v>
-      </c>
       <c r="G180" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H180" t="s">
         <v>115</v>
@@ -7254,10 +7254,10 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>615</v>
+      </c>
+      <c r="B181" t="s">
         <v>616</v>
-      </c>
-      <c r="B181" t="s">
-        <v>617</v>
       </c>
       <c r="C181">
         <v>180</v>
@@ -7266,13 +7266,13 @@
         <v>100</v>
       </c>
       <c r="E181" t="s">
+        <v>617</v>
+      </c>
+      <c r="F181" t="s">
         <v>618</v>
       </c>
-      <c r="F181" t="s">
-        <v>619</v>
-      </c>
       <c r="G181" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H181" t="s">
         <v>115</v>
@@ -7280,10 +7280,10 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>630</v>
+      </c>
+      <c r="B182" t="s">
         <v>631</v>
-      </c>
-      <c r="B182" t="s">
-        <v>632</v>
       </c>
       <c r="C182">
         <v>1200</v>
@@ -7292,21 +7292,21 @@
         <v>550</v>
       </c>
       <c r="E182" t="s">
+        <v>632</v>
+      </c>
+      <c r="F182" t="s">
         <v>633</v>
       </c>
-      <c r="F182" t="s">
+      <c r="G182" t="s">
         <v>634</v>
       </c>
-      <c r="G182" t="s">
-        <v>635</v>
-      </c>
       <c r="H182" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B183" t="s">
         <v>33</v>
@@ -7315,13 +7315,13 @@
         <v>150</v>
       </c>
       <c r="E183" t="s">
+        <v>639</v>
+      </c>
+      <c r="F183" t="s">
         <v>640</v>
       </c>
-      <c r="F183" t="s">
-        <v>641</v>
-      </c>
       <c r="G183" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H183" t="s">
         <v>148</v>
@@ -7329,10 +7329,10 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>641</v>
+      </c>
+      <c r="B184" t="s">
         <v>642</v>
-      </c>
-      <c r="B184" t="s">
-        <v>643</v>
       </c>
       <c r="C184">
         <v>2299</v>
@@ -7341,47 +7341,47 @@
         <v>1450</v>
       </c>
       <c r="E184" t="s">
+        <v>643</v>
+      </c>
+      <c r="F184" t="s">
         <v>644</v>
       </c>
-      <c r="F184" t="s">
+      <c r="G184" t="s">
         <v>645</v>
       </c>
-      <c r="G184" t="s">
-        <v>646</v>
-      </c>
       <c r="H184" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>675</v>
+      </c>
+      <c r="B185" t="s">
         <v>676</v>
-      </c>
-      <c r="B185" t="s">
-        <v>677</v>
       </c>
       <c r="C185">
         <v>700</v>
       </c>
       <c r="E185" t="s">
+        <v>677</v>
+      </c>
+      <c r="F185" t="s">
         <v>678</v>
       </c>
-      <c r="F185" t="s">
-        <v>679</v>
-      </c>
       <c r="G185" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H185" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>679</v>
+      </c>
+      <c r="B186" t="s">
         <v>680</v>
-      </c>
-      <c r="B186" t="s">
-        <v>681</v>
       </c>
       <c r="C186">
         <v>399</v>
@@ -7390,24 +7390,24 @@
         <v>350</v>
       </c>
       <c r="E186" t="s">
+        <v>681</v>
+      </c>
+      <c r="F186" t="s">
         <v>682</v>
       </c>
-      <c r="F186" t="s">
-        <v>683</v>
-      </c>
       <c r="G186" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H186" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B187" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C187">
         <v>159</v>
@@ -7416,13 +7416,13 @@
         <v>120</v>
       </c>
       <c r="E187" t="s">
+        <v>687</v>
+      </c>
+      <c r="F187" t="s">
         <v>688</v>
       </c>
-      <c r="F187" t="s">
-        <v>689</v>
-      </c>
       <c r="G187" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H187" t="s">
         <v>148</v>
@@ -7430,30 +7430,30 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>712</v>
+      </c>
+      <c r="B188" t="s">
         <v>713</v>
-      </c>
-      <c r="B188" t="s">
-        <v>714</v>
       </c>
       <c r="C188">
         <v>435</v>
       </c>
       <c r="E188" t="s">
+        <v>714</v>
+      </c>
+      <c r="F188" t="s">
         <v>715</v>
       </c>
-      <c r="F188" t="s">
-        <v>716</v>
-      </c>
       <c r="G188" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H188" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B189" t="s">
         <v>33</v>
@@ -7465,44 +7465,44 @@
         <v>1050</v>
       </c>
       <c r="E189" t="s">
+        <v>729</v>
+      </c>
+      <c r="F189" t="s">
         <v>730</v>
       </c>
-      <c r="F189" t="s">
-        <v>731</v>
-      </c>
       <c r="G189" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H189" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>735</v>
+      </c>
+      <c r="B190" t="s">
         <v>736</v>
-      </c>
-      <c r="B190" t="s">
-        <v>737</v>
       </c>
       <c r="C190">
         <v>200</v>
       </c>
       <c r="E190" t="s">
+        <v>737</v>
+      </c>
+      <c r="F190" t="s">
         <v>738</v>
       </c>
-      <c r="F190" t="s">
-        <v>739</v>
-      </c>
       <c r="G190" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H190" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B191" t="s">
         <v>33</v>
@@ -7511,36 +7511,36 @@
         <v>300</v>
       </c>
       <c r="E191" t="s">
+        <v>740</v>
+      </c>
+      <c r="F191" t="s">
         <v>741</v>
       </c>
-      <c r="F191" t="s">
-        <v>742</v>
-      </c>
       <c r="G191" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H191" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>742</v>
+      </c>
+      <c r="B192" t="s">
         <v>743</v>
-      </c>
-      <c r="B192" t="s">
-        <v>744</v>
       </c>
       <c r="C192">
         <v>200</v>
       </c>
       <c r="E192" t="s">
+        <v>744</v>
+      </c>
+      <c r="F192" t="s">
         <v>745</v>
       </c>
-      <c r="F192" t="s">
-        <v>746</v>
-      </c>
       <c r="G192" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H192" t="s">
         <v>115</v>
@@ -7548,22 +7548,22 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>758</v>
+      </c>
+      <c r="B193" t="s">
         <v>759</v>
-      </c>
-      <c r="B193" t="s">
-        <v>760</v>
       </c>
       <c r="C193">
         <v>300</v>
       </c>
       <c r="E193" t="s">
+        <v>760</v>
+      </c>
+      <c r="F193" t="s">
         <v>761</v>
       </c>
-      <c r="F193" t="s">
-        <v>762</v>
-      </c>
       <c r="G193" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H193" t="s">
         <v>148</v>
@@ -7571,19 +7571,19 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C194">
         <v>200</v>
       </c>
       <c r="E194" t="s">
+        <v>782</v>
+      </c>
+      <c r="F194" t="s">
         <v>783</v>
       </c>
-      <c r="F194" t="s">
-        <v>784</v>
-      </c>
       <c r="G194" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H194" t="s">
         <v>90</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B195" t="s">
         <v>18</v>
@@ -7603,10 +7603,10 @@
         <v>80</v>
       </c>
       <c r="E195" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G195" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H195" t="s">
         <v>115</v>
@@ -7632,15 +7632,15 @@
         <v>5</v>
       </c>
       <c r="H196" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>770</v>
+      </c>
+      <c r="B197" t="s">
         <v>771</v>
-      </c>
-      <c r="B197" t="s">
-        <v>772</v>
       </c>
       <c r="C197">
         <v>859</v>
@@ -7649,39 +7649,39 @@
         <v>650</v>
       </c>
       <c r="E197" t="s">
+        <v>772</v>
+      </c>
+      <c r="F197" t="s">
         <v>773</v>
       </c>
-      <c r="F197" t="s">
-        <v>774</v>
-      </c>
       <c r="G197" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H197" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>784</v>
+      </c>
+      <c r="B198" t="s">
         <v>785</v>
-      </c>
-      <c r="B198" t="s">
-        <v>786</v>
       </c>
       <c r="C198">
         <v>250</v>
       </c>
       <c r="E198" t="s">
+        <v>786</v>
+      </c>
+      <c r="F198" t="s">
         <v>787</v>
       </c>
-      <c r="F198" t="s">
+      <c r="G198" t="s">
+        <v>645</v>
+      </c>
+      <c r="H198" t="s">
         <v>788</v>
-      </c>
-      <c r="G198" t="s">
-        <v>646</v>
-      </c>
-      <c r="H198" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -7807,10 +7807,10 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>339</v>
+      </c>
+      <c r="B204" t="s">
         <v>340</v>
-      </c>
-      <c r="B204" t="s">
-        <v>341</v>
       </c>
       <c r="C204">
         <v>419.19</v>
@@ -7819,10 +7819,10 @@
         <v>200</v>
       </c>
       <c r="E204" t="s">
+        <v>341</v>
+      </c>
+      <c r="F204" t="s">
         <v>342</v>
-      </c>
-      <c r="F204" t="s">
-        <v>343</v>
       </c>
       <c r="G204">
         <v>10</v>
@@ -7833,10 +7833,10 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B205" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C205">
         <v>170</v>
@@ -7845,10 +7845,10 @@
         <v>150</v>
       </c>
       <c r="E205" t="s">
+        <v>344</v>
+      </c>
+      <c r="F205" t="s">
         <v>345</v>
-      </c>
-      <c r="F205" t="s">
-        <v>346</v>
       </c>
       <c r="G205">
         <v>10</v>
@@ -7859,10 +7859,10 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>350</v>
+      </c>
+      <c r="B206" t="s">
         <v>351</v>
-      </c>
-      <c r="B206" t="s">
-        <v>352</v>
       </c>
       <c r="C206">
         <v>600</v>
@@ -7871,10 +7871,10 @@
         <v>350</v>
       </c>
       <c r="E206" t="s">
+        <v>352</v>
+      </c>
+      <c r="F206" t="s">
         <v>353</v>
-      </c>
-      <c r="F206" t="s">
-        <v>354</v>
       </c>
       <c r="G206">
         <v>10</v>
@@ -7885,10 +7885,10 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>354</v>
+      </c>
+      <c r="B207" t="s">
         <v>355</v>
-      </c>
-      <c r="B207" t="s">
-        <v>356</v>
       </c>
       <c r="C207">
         <v>2154</v>
@@ -7897,13 +7897,13 @@
         <v>1550</v>
       </c>
       <c r="E207" t="s">
+        <v>356</v>
+      </c>
+      <c r="F207" t="s">
         <v>357</v>
       </c>
-      <c r="F207" t="s">
+      <c r="G207" t="s">
         <v>358</v>
-      </c>
-      <c r="G207" t="s">
-        <v>359</v>
       </c>
       <c r="H207" t="s">
         <v>148</v>
@@ -7911,22 +7911,22 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>495</v>
+      </c>
+      <c r="B208" t="s">
         <v>496</v>
-      </c>
-      <c r="B208" t="s">
-        <v>497</v>
       </c>
       <c r="C208">
         <v>250</v>
       </c>
       <c r="E208" t="s">
+        <v>497</v>
+      </c>
+      <c r="F208" t="s">
         <v>498</v>
       </c>
-      <c r="F208" t="s">
-        <v>499</v>
-      </c>
       <c r="G208" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H208" t="s">
         <v>12</v>
@@ -7934,7 +7934,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B209" t="s">
         <v>18</v>
@@ -7943,13 +7943,13 @@
         <v>280</v>
       </c>
       <c r="E209" t="s">
+        <v>509</v>
+      </c>
+      <c r="F209" t="s">
         <v>510</v>
       </c>
-      <c r="F209" t="s">
-        <v>511</v>
-      </c>
       <c r="G209" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H209" t="s">
         <v>12</v>
@@ -7957,22 +7957,22 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B210" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C210">
         <v>350</v>
       </c>
       <c r="E210" t="s">
+        <v>515</v>
+      </c>
+      <c r="F210" t="s">
         <v>516</v>
       </c>
-      <c r="F210" t="s">
-        <v>517</v>
-      </c>
       <c r="G210" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H210" t="s">
         <v>12</v>
@@ -7980,19 +7980,19 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>528</v>
+      </c>
+      <c r="B211" t="s">
         <v>529</v>
-      </c>
-      <c r="B211" t="s">
-        <v>530</v>
       </c>
       <c r="C211">
         <v>400</v>
       </c>
       <c r="E211" t="s">
+        <v>530</v>
+      </c>
+      <c r="F211" t="s">
         <v>531</v>
-      </c>
-      <c r="F211" t="s">
-        <v>532</v>
       </c>
       <c r="H211" t="s">
         <v>12</v>
@@ -8000,7 +8000,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B212" t="s">
         <v>9</v>
@@ -8012,13 +8012,13 @@
         <v>80</v>
       </c>
       <c r="E212" t="s">
+        <v>540</v>
+      </c>
+      <c r="F212" t="s">
         <v>541</v>
       </c>
-      <c r="F212" t="s">
-        <v>542</v>
-      </c>
       <c r="G212" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H212" t="s">
         <v>12</v>
@@ -8026,10 +8026,10 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>542</v>
+      </c>
+      <c r="B213" t="s">
         <v>543</v>
-      </c>
-      <c r="B213" t="s">
-        <v>544</v>
       </c>
       <c r="C213">
         <v>150</v>
@@ -8038,13 +8038,13 @@
         <v>100</v>
       </c>
       <c r="E213" t="s">
+        <v>544</v>
+      </c>
+      <c r="F213" t="s">
         <v>545</v>
       </c>
-      <c r="F213" t="s">
-        <v>546</v>
-      </c>
       <c r="G213" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H213" t="s">
         <v>12</v>
@@ -8052,10 +8052,10 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B214" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C214">
         <v>150</v>
@@ -8064,13 +8064,13 @@
         <v>100</v>
       </c>
       <c r="E214" t="s">
+        <v>547</v>
+      </c>
+      <c r="F214" t="s">
         <v>548</v>
       </c>
-      <c r="F214" t="s">
-        <v>549</v>
-      </c>
       <c r="G214" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H214" t="s">
         <v>12</v>
@@ -8078,19 +8078,19 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>558</v>
+      </c>
+      <c r="B215" t="s">
         <v>559</v>
-      </c>
-      <c r="B215" t="s">
-        <v>560</v>
       </c>
       <c r="C215">
         <v>100</v>
       </c>
       <c r="E215" t="s">
+        <v>560</v>
+      </c>
+      <c r="F215" t="s">
         <v>561</v>
-      </c>
-      <c r="F215" t="s">
-        <v>562</v>
       </c>
       <c r="G215">
         <v>10</v>
@@ -8101,7 +8101,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B216" t="s">
         <v>9</v>
@@ -8113,13 +8113,13 @@
         <v>150</v>
       </c>
       <c r="E216" t="s">
+        <v>563</v>
+      </c>
+      <c r="F216" t="s">
         <v>564</v>
       </c>
-      <c r="F216" t="s">
-        <v>565</v>
-      </c>
       <c r="G216" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H216" t="s">
         <v>12</v>
@@ -8127,7 +8127,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B217" t="s">
         <v>9</v>
@@ -8139,13 +8139,13 @@
         <v>200</v>
       </c>
       <c r="E217" t="s">
+        <v>566</v>
+      </c>
+      <c r="F217" t="s">
         <v>567</v>
       </c>
-      <c r="F217" t="s">
-        <v>568</v>
-      </c>
       <c r="G217" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H217" t="s">
         <v>12</v>
@@ -8153,7 +8153,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B218" t="s">
         <v>9</v>
@@ -8165,13 +8165,13 @@
         <v>100</v>
       </c>
       <c r="E218" t="s">
+        <v>569</v>
+      </c>
+      <c r="F218" t="s">
         <v>570</v>
       </c>
-      <c r="F218" t="s">
-        <v>571</v>
-      </c>
       <c r="G218" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H218" t="s">
         <v>12</v>
@@ -8179,7 +8179,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B219" t="s">
         <v>9</v>
@@ -8191,10 +8191,10 @@
         <v>100</v>
       </c>
       <c r="E219" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G219" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H219" t="s">
         <v>12</v>
@@ -8202,10 +8202,10 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>646</v>
+      </c>
+      <c r="B220" t="s">
         <v>647</v>
-      </c>
-      <c r="B220" t="s">
-        <v>648</v>
       </c>
       <c r="C220">
         <v>820</v>
@@ -8214,13 +8214,13 @@
         <v>655</v>
       </c>
       <c r="E220" t="s">
+        <v>648</v>
+      </c>
+      <c r="F220" t="s">
         <v>649</v>
       </c>
-      <c r="F220" t="s">
+      <c r="G220" t="s">
         <v>650</v>
-      </c>
-      <c r="G220" t="s">
-        <v>651</v>
       </c>
       <c r="H220" t="s">
         <v>12</v>
@@ -8228,10 +8228,10 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>651</v>
+      </c>
+      <c r="B221" t="s">
         <v>652</v>
-      </c>
-      <c r="B221" t="s">
-        <v>653</v>
       </c>
       <c r="C221">
         <v>885</v>
@@ -8240,13 +8240,13 @@
         <v>710</v>
       </c>
       <c r="E221" t="s">
+        <v>653</v>
+      </c>
+      <c r="F221" t="s">
         <v>654</v>
       </c>
-      <c r="F221" t="s">
-        <v>655</v>
-      </c>
       <c r="G221" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H221" t="s">
         <v>12</v>
@@ -8254,10 +8254,10 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>659</v>
+      </c>
+      <c r="B222" t="s">
         <v>660</v>
-      </c>
-      <c r="B222" t="s">
-        <v>661</v>
       </c>
       <c r="C222">
         <v>780</v>
@@ -8266,13 +8266,13 @@
         <v>500</v>
       </c>
       <c r="E222" t="s">
+        <v>661</v>
+      </c>
+      <c r="F222" t="s">
         <v>662</v>
       </c>
-      <c r="F222" t="s">
-        <v>663</v>
-      </c>
       <c r="G222" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H222" t="s">
         <v>12</v>
@@ -8280,10 +8280,10 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>663</v>
+      </c>
+      <c r="B223" t="s">
         <v>664</v>
-      </c>
-      <c r="B223" t="s">
-        <v>665</v>
       </c>
       <c r="C223">
         <v>350</v>
@@ -8292,13 +8292,13 @@
         <v>300</v>
       </c>
       <c r="E223" t="s">
+        <v>665</v>
+      </c>
+      <c r="F223" t="s">
         <v>666</v>
       </c>
-      <c r="F223" t="s">
-        <v>667</v>
-      </c>
       <c r="G223" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H223" t="s">
         <v>12</v>
@@ -8306,10 +8306,10 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>667</v>
+      </c>
+      <c r="B224" t="s">
         <v>668</v>
-      </c>
-      <c r="B224" t="s">
-        <v>669</v>
       </c>
       <c r="C224">
         <v>350</v>
@@ -8318,13 +8318,13 @@
         <v>300</v>
       </c>
       <c r="E224" t="s">
+        <v>669</v>
+      </c>
+      <c r="F224" t="s">
         <v>670</v>
       </c>
-      <c r="F224" t="s">
-        <v>671</v>
-      </c>
       <c r="G224" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H224" t="s">
         <v>12</v>
@@ -8332,10 +8332,10 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>671</v>
+      </c>
+      <c r="B225" t="s">
         <v>672</v>
-      </c>
-      <c r="B225" t="s">
-        <v>673</v>
       </c>
       <c r="C225">
         <v>800</v>
@@ -8344,13 +8344,13 @@
         <v>500</v>
       </c>
       <c r="E225" t="s">
+        <v>673</v>
+      </c>
+      <c r="F225" t="s">
         <v>674</v>
       </c>
-      <c r="F225" t="s">
-        <v>675</v>
-      </c>
       <c r="G225" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H225" t="s">
         <v>12</v>
@@ -8358,10 +8358,10 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>766</v>
+      </c>
+      <c r="B226" t="s">
         <v>767</v>
-      </c>
-      <c r="B226" t="s">
-        <v>768</v>
       </c>
       <c r="C226">
         <v>298</v>
@@ -8370,13 +8370,13 @@
         <v>200</v>
       </c>
       <c r="E226" t="s">
+        <v>768</v>
+      </c>
+      <c r="F226" t="s">
         <v>769</v>
       </c>
-      <c r="F226" t="s">
-        <v>770</v>
-      </c>
       <c r="G226" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H226" t="s">
         <v>12</v>

--- a/datos/productos.xlsx
+++ b/datos/productos.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="895">
   <si>
     <t>Nombre</t>
   </si>
@@ -2004,18 +2004,6 @@
     <t>https://articulo.mercadolibre.com.mx/MLM-4444874122-funda-llave-para-2010-2014-chevy-camaro-cruze-malibu-equinox-_JM?quantity=1</t>
   </si>
   <si>
-    <t>Tenis Para Correr Hombre Training Air Casual Aumentar Altura</t>
-  </si>
-  <si>
-    <t>Color: Negro/Verde, Talla: 27.5</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_2X_997322-CBT103660890148_012026-F-tenis-para-correr-hombre-training-air-casual-aumentar-altura.webp;https://http2.mlstatic.com/D_NQ_NP_2X_975868-CBT103663935786_012026-F-tenis-para-correr-hombre-training-air-casual-aumentar-altura.webp;https://http2.mlstatic.com/D_NQ_NP_2X_627073-CBT103663935788_012026-F-tenis-para-correr-hombre-training-air-casual-aumentar-altura.webp</t>
-  </si>
-  <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-3355939456-tenis-para-correr-hombre-training-air-casual-aumentar-altura-_JM?quantity=1&amp;variation_id=181605600580</t>
-  </si>
-  <si>
     <t>Zapatos Hombre Casual Cómodo Plataforma Tenis Air Correr</t>
   </si>
   <si>
@@ -2398,6 +2386,330 @@
   </si>
   <si>
     <t>https://charming-panda-45bed1.netlify.app/imagenes/WhatsApp Image 2026-02-02 at 7.06.02 PM.jpeg</t>
+  </si>
+  <si>
+    <t>Bolsos, Carteras y Mochilas</t>
+  </si>
+  <si>
+    <t>Ashwagandha</t>
+  </si>
+  <si>
+    <t>Ayuda al sueño y apoyo al rendimiento deportivo</t>
+  </si>
+  <si>
+    <t>Suplementos</t>
+  </si>
+  <si>
+    <t>SUPLEMENTOS</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1731905041389225348?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602471686154913556%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=db274ab6241ee1cccff6082e2b5cb3c1b20d39977de695aaa37d3e0daa4e7d27&amp;encode_params=MIIBVAQMacKL6y4mhtNgdCiLBIIBMG9uXCX5ew9Gs1pQzys4CIbvR3CWEWD38JVXt4FSq1QALsUw0EyLb7GLmiRytsM0pLQnO9zk7CeOf9a4ETbTED9Vb8fHY1yd4jbabCYwHWJqq10qzQ-2CaDajPX1O54o6wlHPxCemgzUebfJIkqmD5h0It2LAo8QvNy9R8mcMgLRPcCXrk9aEjsTxFVYUWwp4Mbo4bZwPtJ1YKhvgPlj2sIzLfrhOeUGp7J5FrWZfN9TzvH4fTNJ_7e_ZmbJJ8SfVeJ92fDJcl1EKfJUzFLorLryxqeT2D2TIihsCS3YXGUd8NRcmMu3Jd0cQxSbJqn0fUsGbOHtv7xAfc_hD2SCoPiAzIc9_2kI-XTZcO5gC132FKyVTAyBcKMcLHgws2dy0XG5R6qrE8Pp0Jy6zJWIRfoEEL1jLGKJMF41A2NRrajfxpI%3D&amp;og_info=%7B%22title%22%3A%22CANBIO+Ashwagandha+contiene+extracto+de+pimienta+negra+%7C+ayuda+al+sue%C3%B1o+y+apoyo+al+rendimiento+deportivo%2C+suplementos+diet%C3%A9ticos+adecuados+para+hombres+y+mujeres%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2Fe4e4a0e0aee546c8a9b9a7dd402f4f80~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=f0e22dd4-2985-4f50-ab51-b9a50b2a77ef&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770088388&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1733458320046393323?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602475894343829268%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=f713642df6feaad7c1bdb3b937450bcc6dfdc13714b25bfaee0289840be422df&amp;encode_params=MIIBVAQMlHmMOQRFvPv-Jbs4BIIBMOeN-ovz-38Tm0YqwR5L5kpg9yb5OIQvE8-xdQLcRxhigNwUE3QXhVIlo78gHq0P1bwykSdSeC-PJXdppQOgiv835Ls1x4ga8hXlPrrScyZ-fyAv9lWbOfyzVYUYrmuqeyLI4_3HadpqG42-YWGR8Vgguy--UdW_hut8TxY6iK0NzJ2JBM8yu36JXZiC8LN4g5vXnS8G3gEaK-WrWwiTExBZ51YjINmhcaRsQKV6UteFUWLcj_vEq5HVhoixaWOYevRaCxbI7kxqkijzLGdVvl8JI8guyHhOIRLFs5rthr_IMlReySPbQzZFbgO0MpXf-YO7P4BWfTdxnZOCWHxx9kkMaIacLTG-oAHWmKmCniafrDGJi7U2pSP6o56k4W3iOY_j-IiYj7UEfyviPlaS6agEEF2UkRR0jfwNrLTIXSqKTDs%3D&amp;og_info=%7B%22title%22%3A%22Mvpcare+Inositol+y+D-Chiro-inositol+de+Suplemento+%7C+Favorece+el+equilibrio+hormonal+y+la+salud+ov%C3%A1rica+%7C+Proporci%C3%B3n+ideal+40%3A1%3A+4000+mg+de+inositol+y+100+mg+de+D-Chiro-inositol+%7C+120+c%C3%A1psulas%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2F00715c7ee6f941fb8569509fcc5d92e4~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=eba1b5d2-41f5-4fd6-8f3c-78c4f4726b77&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770089372&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>Favorece el equilibrio hormonal y salud ovaria</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1732387693355435423?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602476283444201237%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=651b972b8da8c3492ce94d91f298ddf1b8638985d84e23135df82c5d579ca80c&amp;encode_params=MIIBVAQMzxaLHCV-0g_SYVyTBIIBMAKahejN0A6xr8gF0iZAB4mHmlyoHL4H2QxFQHa5WtYPRBEgI2HAiwG2FO1GLZ3lzGxhYtlOaAx_h0WM8JyGge3WdHH8MRaLZY1H74_6W2aKC56QmKJ_rQRf--2Bwd54ZQTVQIsXWBF1nzuRp2bgxAObRXzjlixPwNa1nytu9heHyuPv5sHNHGOjLNhAcPZapMLzvCKR90zg0cJ87BTB-RsjiBPDSY5meTMyGZFtdvL38qsUvSlEz53ulK8pU8e0yKweqZsPPJ14Dz-BFJeXCBzdnz4-1BanWn1cNZC99stKQn0WY9oJZzcuWZtWj3xrrHK7GDUociGRGbnZdl5sdpIIP7j6jAmWRAMyt_0CFA1eo1e6xqutRB6U5tq-umRHNekyY0IR_aDEmoS7DCiNv4gEEM_yhasZnD3hLVZr_AhPfmc%3D&amp;og_info=%7B%22title%22%3A%22SWIYIE+C%C3%A1psulas+Org%C3%A1nicas+de+Remolacha+1300mg+Apoyo+a+la+Salud+del+Coraz%C3%B3n+y+al+Flujo+Sangu%C3%ADneo.+-+120+C%C3%A1psulas%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2Fae41b6576c944cc6a0cfa86ad0ef2ef6~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=8fabeb22-213a-4204-ae1c-ee39e3ce1ee1&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770089456&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>Apoyo a la salud del corazon y flujo sanguineo</t>
+  </si>
+  <si>
+    <t>Remolacha</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1731266354463081599?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602477071634122516%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=f59159cd537bb11a49eefb7e94dd83f442b25b692a75f02963d44aa5a18a56ad&amp;encode_params=MIIBVAQMcZmoHVTG1RGlxS-qBIIBMN7t3H2YDk0afIeTthbw6cm7zg1eagGRdhL7b59kCEy6VMnCBgRiz3YrDHPg5uBs3jfuK8IufmTcuNGKHEQ9Gp4A470ymUQ15KrNqlh06Klrd48z8RCqHK4Sd3PGZf03T2h_pQe7Upv4B2yAHr4F8nbZn47RzS9xSKPVGZebGjy30wsN36EFb4oHln8sDbHDzr8qmWkwRjaVK8lEcmr92NY77lRUJMH62MPa1miXJayP6tYNpI2_qQ2BONmH93yoYns5UmR-NVdekUfRpfnJQtQ5K7bbwLtj_N7iVRFOv4lsgrxgz-OHvZdMeANOhz4eX9-0o85uM-iKXFFwu8j4dZJRGdsEp7yZB5RBSugWHykuVo_Fmf7IA8sh_vR1-e-5vqBCRTc4jFz2fhuR9IsEw2YEEORR70r5h2pF0L0kdYA_IjQ%3D&amp;og_info=%7B%22title%22%3A%22Windboss+C%C3%A1psulas+de+Ashwagandha+KSM-66+4800mg%2C+Suplemento+Org%C3%A1nico+de+Ashwagandha%2C+Sin+Gluten%2C+No+Transg%C3%A9nico%2C+Vegano%2C+con+Pimienta+Negra+para+Mejor+Absorci%C3%B3n%2C+y+Apoyo+al+Sue%C3%B1o+-+90+C%C3%A1psulas+Buen+Fin+x+Black+Friday%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2F411f003ec63a4f7b92e18adee7618955~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=15e121ae-1c24-43d8-ae0a-9bde438b9a7e&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770089637&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1732636785133062139?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602477323410540309%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=6c3e0b6faf87040ac577dd44e68dc2ebe3f6cffc66601923301fe6525fdc3fcc&amp;encode_params=MIIBVAQMGpo8HEHHUl_cYWdPBIIBMLdRlVmdSg15kjyraZk5IH9_fyqDaWXFIIoS-IK0GbPzCOdSky98tJQlS1BMMNALr3GIvqkU0pSEJl9llUe4kKPHDA6n7tgAjekaJkPBzBYL5x8Ot8W6vEBOwwW8F_rsDtp9KscFQQEoHfXl_EAg_FzYPH9dJfZD429QLLM2LMyT8tLuzhYilztpTVecy4MPajsMp2HSECF4Af-VY_kjit-SXrQb_QT51RBh97eMnKqG6zxwdHzJVQzRFzhRsmiTREzF26kpXOqviV6XwbNBVTINJOIDcSeF7CLCuiGiCDVzWWpoZ0ABEhLIrxmAvuXvUvSHI_jI-ri-i9iafAqoqORZ7TDrX2-6f3Kp8wU426WptEaX6N4e7euD37q5oHEgxQA-n7qcV0xiCsR6Z80DlZAEECfanwqru9N1OUXJrxHf-bA%3D&amp;og_info=%7B%22title%22%3A%22VITAMX+Ashwagandha+100+C%C3%A1psulas+de+500+mg+Suplemento+Alimenticio+Natural+Libre+de+Gluten+y+Lactosa+para+Bienestar%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2F1334473a92df4b589ee93cf53b25fb97~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=0cb8ba36-c397-4f69-9957-bfdbe2af1a7d&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770089702&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1732636809839675387?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602477475898214164%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=a1031a7c658cde4d0b8f80b2752995b764e0da462b7c637a2b7b7aa1ca56cfa9&amp;encode_params=MIIBVAQMBAxF6fsniq--6y51BIIBMOE2_RpHR4CcpS5oA9aJUfFvorAw9x79Jab8FjjLmeRv9jFogejFe6hQYg-jtSh3ARpU4RHUZqVtI37OE9hJEO1B8w2WMZPMAPAJJ-v_NtoHPNOehgngvKXzzVln2bHIlcgLx9QW0TCgkVP75qZ8npLTsdIhVtLcVSx42pu0E3KwCKA1aJ4CGD7vdDhbzSFDHKnQEuYPM8g1On6Z8jgVbrMkrm1RKea3rdObxWICUb3xUvc90YHRuDMK9bnnPjpRtGYyGu6Z-V9cBIrLbZdBM69I26iO7BZz4NqtLcPWGmYokoiDl5H7QEkdNhG90gAa5ndX8M2aOr0wLuvR3LsVHgg5IXRzDiRJxdKJOSDDD-WJ_XdTDMCJkAoWaCsdbOsvzix5g-FwgqO18Ll4b6ThRNwEEFbeTWV_nCvyfTKrawI-gaM%3D&amp;og_info=%7B%22title%22%3A%22NATSA+Myo+Inositol+100+C%C3%A1psulas+de+500+mg+Suplemento+Alimenticio+Sin+Gluten+ni+Lactosa+Para+Bienestar+Natural%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2F0332cfa0076849e89f3780d14f852a98~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=43cb605c-3771-4d70-a27e-5fadd19cdcf6&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770089735&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/e4e4a0e0aee546c8a9b9a7dd402f4f80~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my2&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/00715c7ee6f941fb8569509fcc5d92e4~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/ae41b6576c944cc6a0cfa86ad0ef2ef6~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my2&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/1334473a92df4b589ee93cf53b25fb97~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/0332cfa0076849e89f3780d14f852a98~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my2&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1732636777686206459?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602479040796952341%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=74e1e84b5d0b8f9483305a8d6b4db315841fc387ee6184fd0bcda152c8adff3c&amp;encode_params=MIIBVAQMPMD9r-zXBDL6wc1_BIIBMPKdxhU8DJ8pse4n30R_pMdpfYYYAoLVJGKZbC-o547RvM00T9NYKr1RPc-b_YrSUhnwSK4WVQqRBehL3u-KEkALOP67qqK3WEiyUqMuf6B7Qqu5pVTgU03mI3Zl3jajvxpRdJK8lJpolcwlkj-I1XYZ6az5NBFpDsm3LA34nmUOxatPO-1HQCvH2kySfVCgnzHUwCR21-wYlbRx8Y5s_Udno-9q5bgFqJbY4AvukGfugvyUTPfx1RYxG_OwCTbdUdEec4vRdEK0jh7ELJvhkeG1RtWGl0KJjsoht6BBzDTjkXRNvV5E2IQ8K-8V3S-s_klxKcC2ut_W5wysAL2IjWEWs7qsv-BEgzuQ1wlK3jPddAaRkLXdjtGVpG45M3wVZel83FtysnD327Drtbb0KIQEEIteK-mOIDwluezPVj9QFUA%3D&amp;og_info=%7B%22title%22%3A%22Men+Testo+100+C%C3%A1psulas+NATSA+Suplemento+Alimenticio+Sin+Gluten+y+Lactosa+para+Bienestar+Natural%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2Faa331a8b2da7470d92422713153a7270~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=8eba3200-91a1-4857-9a7b-c46c52b7ccad&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770090096&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/aa331a8b2da7470d92422713153a7270~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my2&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Mejora la energia, la libido y la vitalidad</t>
+  </si>
+  <si>
+    <t>Men Testo (Para hombres)</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1732636715209426939?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602481253157979925%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=3a578eb5a24204a19bb0854abbb6dfe0444973e2f08dcd06f30c2d36d0d4c584&amp;encode_params=MIIBVAQM4S0-Op1JO5dtncTkBIIBMC2b-Lxnzv6kHIY8gAVkrsTNvKNAHKC-5_BTLIgFFPHuVlTrhO-zbxvnI7-9XFXrZaXUuWhy4tunIV1GGKzDk0CQxmXDdZ9QPZRtXmM3P9ZZGP8qKdPe9L96aPWJq6mIzI5sLzAB-iRluMhlwesFQcuB_ZTthYn_kMxKSwiYcxjpni6NlfX43s989-8uxhPaBXtnoHu8lqUME495V9NvDrlGOotRsU8kyHq7h7Do6RZ0N1ojPJ1Xh6GtfSzPr_OOtihcVpfKjHDV-hcDODLoMaNrhGeQHHtcE0HnGtYu2OEhr8Fmb31moXylZpbKam3D7D0Ga5ccHd_XYJY3RViJV1b5ZndP6H00k3tGMwzn3p2QxPIMy1wiMROpN97w6hLk-eWMXKsDLMFphi2bBmNfx58EEGcrCy6TRmbYYyeeCCv_RvQ%3D&amp;og_info=%7B%22title%22%3A%22NATSA+Maca+Peruana+Negra+100+C%C3%A1psulas+500+mg+Suplemento+Alimenticio+Sin+Gluten+y+Lactosa+Apoya+Bienestar+Natural%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2Faf1d954a13fc47b9a151ee426b79aff3~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=cf3c0f73-5730-4492-9435-09fe10facb60&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770090608&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/af1d954a13fc47b9a151ee426b79aff3~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Maca Negra</t>
+  </si>
+  <si>
+    <t>Energia, resistencia fisica y libido</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1732636777313830907?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602482254254950164%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=94aead2bca622166cf1f1dbc282c0137b8b91b46014b439037ce32c9b636208e&amp;encode_params=MIIBVAQMr1oI_hhTfEcrsgIPBIIBMBPlyXYgLSCbrH05tfbda3PWLzWitMTflFwJEeLbSmwvPRzM4fcZA8KU-_UM_5TiM_dN4tws8vRVtZ-PFMswE-CYrcsh86imxwH-bFasJj3fXme1Oe8UnqFMVbKbSQNUM0fzvcXr5qdcFawXit5l2GQLNTpyY9kR8_mDuQx-sm8duEwU-LNCa3ObhtZqGrHnKQoLQYpiqNA_ZctfkhhWeXzXDkitnchyLo5JqAeU7ioo5girUOAp04b68AhP1P2qquh7Mqjo1SFPk4beQoZtXMJ9ePwcI92GINQMfLNwNf_6Bjqh1GV7-Wz_yylX9BjI9ZmlO_A5kZmpvsNduVAEPSnWkdzqAV-msaajOK00a2LINfi5E9V4gJscIep1yd8w4x5p2PvQ7cp6TENTdIP6llMEEACom2-W6oxE93DpbHRhJrw%3D&amp;og_info=%7B%22title%22%3A%22Supplement+Factory+Woman+Curves+NATSA+500mg+para+Mujer+60+C%C3%A1psulas+Sin+Gluten+y+Lactosa%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2F190ef872f8fc450fbd934d961d7bb73b~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=46bc8a08-1daa-40ce-a94d-7ee629eae1ae&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770090847&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/190ef872f8fc450fbd934d961d7bb73b~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my2&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Sirve para aumentar Gluteos y senos</t>
+  </si>
+  <si>
+    <t>Woman Curves (Para mujer)</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1732920922885293367?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602482788721739540%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=1f5650764186906a28c55af0a40329db9911e8893c7f3f26bf75338ff22cad53&amp;encode_params=MIIBVAQMm7qe-qVVeAEtQesrBIIBMMIOZmnpOl91Vo55f6P5uy7c7hvS2P18bBqmmgZjw0KRj4ylyE_zSEOpZnCd981x5bljL_HBzk9WAxwwnGltpvXKlebJ8ua3Ip5-lmrWePwwqJ-2ubDFWFR7_LbGGd-iv-YI5xFf5BkWfkFIoO9kgrhZCARKc6TIAoQsTQRj_qivrwbcAmiLn3j0a-EdSUUJtYksEltcHAo4HgpCDEANMpzRPkTvUUZSHiGEJbmb-q86iDdi-tEcyihjrVEaTopxwoywzK1n8LE6hdiCQKrNPD0EJtILkTU_SOs9vHyRRSUslI3qLEvBxHAxCjsjcQPRW8bCxlB35L_UvaIJv_2e3HIUzx1H0UqMCzEnRG7ceQjsqRirzvmSIJ47P6fK6u5tDQ6kA5C8I_tLiQm8-EWcVX4EEFWz-bLddRN9oLZ3DBvrKIs%3D&amp;og_info=%7B%22title%22%3A%22Newellme+Glow%2BBeauty+18%2C000mg+Col%C3%A1geno+Sabor+Fruta+L%C3%ADquido+Oral+Anti-Glicaci%C3%B3n+con+%C3%81cido+Hialur%C3%B3nico+y+PQQ+Reduce+Absorci%C3%B3n+de+Az%C3%BAcar+Mejora+Envejecimiento+y+Apenas+de+la+Piel%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2F6e9841e980c34c4cbebeca05b097496b~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=e46e117c-97bb-4946-9e30-0e082b7438e4&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770090970&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/6e9841e980c34c4cbebeca05b097496b~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Glow + Beauty</t>
+  </si>
+  <si>
+    <t>Apoyo el bienestar del cabello y uñas, y elasticidad de la piel</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1732590571607787230?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602483329172490004%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=9af192ea1d25f1f8c254d17c422fc186715d3b4327698425985075952247c5b0&amp;encode_params=MIIBVAQMMewbkkfdKfxZu0slBIIBMO-R1ygADuUyYuR0Vpv-Yh1UlQxT_TFAoZERT_izv9g06DFW-R2mk_EJBWJMDZltbhWwwZmWsvNh1jqfsvveWTp1cM_Tes-8IUeFhz-hY1j_jD69-lHUY1Uumvkc8EoI7UnxMOjkP5rhd85KHnED4rUscexkpEwpxqFeTA7kYilTLXQ3_YMjYrMA2LN6SgfACsMkG6XWyapr4shvpqF2h9gHkY7aYu8aeeiPEb4IK63M4777hoEuNwYRy46BUUZquDLsjdHdsGckPwLdSsykh8_P0RrCRVJZPeLzMRT4l-Pjaog3FzVUrXSuUZXxDjcntdWRxvqMPW6kpmYU_MN80M3w8JtZIZfTtWUPt63t1xjBlsNoIqC-KJKUZphGzt0-JZ089sNYjd61VMZSpn7GuaMEEDwF1zP0i7iWn74RwzceaIU%3D&amp;og_info=%7B%22title%22%3A%22Complejo+de+az%C3%BAcar+en+sangre%3A+20+vitaminas+y+minerales+para+favorecer+la+salud+general%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2F96e90dafecba4f8888d3276c65607a23~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=c2fb903b-4d74-48ce-b416-2c929790f585&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770091095&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/96e90dafecba4f8888d3276c65607a23~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Complejo de azúcar en sangr</t>
+  </si>
+  <si>
+    <t>Regula el azucar en la sangre y apoya el sistema inmunológico</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1732465476792845439?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602484085668611861%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=aea6dbefdaeb6440dcf93b802f3d59eb6b2d5bf3066a527f3a31e91c3b83e1d6&amp;encode_params=MIIBVAQM2U08bCpaia7nkxDSBIIBMJ84NJWeVkBX5VL9tC3BIpidD-xqFpxzk9rR7fqngAFTA2YV39SwGDEB77Nbt57h5cZZIgqOLIfuR-oX5404Qzit8uR0ZP1INh_-TB8Q1DKJJsbK3o0ygNJ95Zw9LZCSmABQfth4G1VytcbROH1pDQTZDZcEcu4zmumjMuagf7HAGFsJtsencpD40z2e0VzVBFYOh3kfGijjAn68IyKhTA8L6YcgBgxQD77m894CW9kW5tcUarhci0XnA-3LubD7ZMrbsQ6PBF8OsEJ80rIQRYuaDaO8TCIQhvpsjSP7nRzJUjS2NMyN9BMtsyfdIeTInYSAwlvorYslSsAcFhLtofR_RwKAhYmkJ9IvgOIOaeunHwxZutQ6DihUXRrqsNa10JO77jXzCq2SLcUgyfsvyb0EECoU8605yNPRXvZmZixChcU%3D&amp;og_info=%7B%22title%22%3A%22Windboss+MACA+NEGRAMaca+%2B+Extracto+de+Pimienta+Negra+%7C+Apoya+la+Vitalidad+y+el+Bienestar+%7C+Contribuye+a+la+Energ%C3%ADa+Diaria+%7C+60+C%C3%A1psulas%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2Fbf7e5d1fea6f493b9096c50f44de63fe~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=f8f01fba-5339-48de-be8e-345fa88a5447&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770091274&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/bf7e5d1fea6f493b9096c50f44de63fe~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1731794003849414783?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602484608509200149%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=9d504137af07e1bce3cdcfde694887439c9448c6b84903556188ec1ef44184ec&amp;encode_params=MIIBVAQMi3ptNmEud5HY0p8zBIIBMKGUQEG46OhC92OcDAZHbcpdJENLJUdMLsXTtsPGEQ8mWS8vy-8NlubpRqXLFe0b9WJYCVYKkIODXRkAnN8OqwGJLXhkGK_nthpBSmQ-6a4_CITgrk9LlO69jErGtKdgSx3OIkh9C7UCxPgBwFtNlpVJ3y1eBW8MqIAc2k97qfTWrUBr3Ah_3-2WjuzxeQtrnF3R6GA7Oe67MEFkiUO-7eBQcohTEC5cfvv5tWckPsg1XztZUOv22Br0Y8vfTvplFP0reb_Ark01CVBxswUGxoirb-miP9XmkEHUCSZN5JZT1qVE5Ny_5ieSzUW1pvNeG9Xmglu3xLL49QWo-45DLWXOmHZ2zt-YRs5SqeK7Qa23jWx1paW250UOYRew_hIEu6VjwqqyfEekibx3WnjvTg8EEFJ0CZqNT62g3zCcgHbi30E%3D&amp;og_info=%7B%22title%22%3A%22WindBoss+Combo+Multivitam%C3%ADnico+de+Soporte+para+Cortisol+y+Myo-Inositol+%7C+Suplemento+Todo-en-Uno+de+Fuerza+Extra+1+pieza+Buen+Fin+x+Black+Friday%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2Fbf0f421f7fc84567b18806113200f145~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=82abd9b5-c8f6-414e-96eb-88533892e20e&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770091392&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/bf0f421f7fc84567b18806113200f145~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Combo Multivitamínico de Soporte para Cortisol y Myo-Inositol</t>
+  </si>
+  <si>
+    <t>Cortisol: Reduce el estrés y la ansiedad. Inositol: Regula hormonas femeninas</t>
+  </si>
+  <si>
+    <t>Myo-Inositol (Para mujer)</t>
+  </si>
+  <si>
+    <t>ApHr-O-dYte Probiotico y Prebiotico Para Mujer Con Cranberry</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1731361598208051194?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602485508879599380%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=c48c1f3c12b068b3a985208ee3c480492e1c05edcf034749fec7abc7c7b7f727&amp;encode_params=MIIBVAQMBLn4XvbaIHHAWH3BBIIBMJtdYqPbLqYmyPeTQWsrKks6OjJBpTQ1oiFu4XMg7otpJzQZqmc0Zin4OBpNB-mks2s7EIYXOfJHMEp3Xx-Nku76mmJxEGtCNTDi7f8inK0WJILJxDE-zk-rf5d3QVZYqzXlYkqoIEqJamMvS-rC0OJq2j5qpA2m1TK7eiKjIzLv_hynAiNXRySwzueLEIDPgOryJfxe1Zc2xgJ8OMxoI6pHKfM38yALM8faetPD6oSoDTNTrAM3fFox5yzHkG2O-2nTrbd5hp2uoNZ0gDIUhSxMVMIMW5J4J8N6XwHRyu15LnymWcH0J2CFftmB1wW7HnIMQ2voqF-8weckd4dq3MExaz8EVIEQ3Rw3Apb8dziH6Iv91ibimVJQMVq_4AwSYaZ4Vp9jt8ZiuOZqWmrSksQEEC7Qm-i-WCfNhyFBg9CQ09M%3D&amp;og_info=%7B%22title%22%3A%22Milamiamor+ApHr-O-dYte+Probiotico+y+Prebiotico+Para+Mujer+Con+Cranberry-++60+CAPSULAS%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2F4163e779edbc40afa49cec0ba71fae67~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=3127fe3a-133f-4ff7-97b8-8bfb9bf3f99c&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770091605&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/4163e779edbc40afa49cec0ba71fae67~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>60 Capsulas</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1731361595068286970?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602485939391792917%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=ac4d3383a75c801411da53b4daa821be1aee02f6d140b4d057b80f2784f539d9&amp;encode_params=MIIBVAQMAzmLoqSKcUsfBShjBIIBMDovSbJoF-et5w-I_gtvASPYSxugAPvbvaSvnUd4cGdg4nFc1yhbEUxyLPUV7j3yLTcPpyTqLH2K58z1MEIKnX5zNg7biFUrwXLamof3CszW_EUQQnni85SiFaJzy_SV28P5KfYAg23Rln3rVqucfYDzX0vqOtm6zX0Ukoc6KRu3AJpFse_l1bnfCyQGL-a_qGo4ZqMnbG5YLmfJ6mGxmvZfX8uVTUowSwRyj68DlHU1VRb3LiKf83NpnctrwLOZdTw6rdFo3fi9sHGie9OQBMRfJu0CsWQTzGKV019aOGZDuN9HEXvNzXgGmITDkLV0Aa1mFe14gipQmS9j9O_KGx2vzaKRb-rVfIbq8KPrElKNqHVbccDVDwIZe9t2Feg7VcWR3OMuhHmzaJUSNMuYWJwEEOfMa3nWPeHmcYYkzBj4LT8%3D&amp;og_info=%7B%22title%22%3A%22Milamiamor+Women%27s+Support+-+Hormone+Regulator+60+CAPSULAS%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2F026b22728e9948f5a36dd50760f57899~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=e3211de0-3077-4428-a89f-c1263cb3ee79&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770091705&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/026b22728e9948f5a36dd50760f57899~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my2&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Regula las hormonas Femeninas</t>
+  </si>
+  <si>
+    <t>Women's Support - Hormone Regulator</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1731361564519532538?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602486136484775700%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=ac757a4a08c4aa2f20673a1b1309f13ed1d415a880d1b6ffe9c7a2f97132017e&amp;encode_params=MIIBVAQMuUo97gdTS3YxbpnbBIIBMO4QI9ni8dLGjexQBuw8c0oFrqIdToXMsih51wi0OxJXh-Cc8yZQgD9W9x95uW-yA2sIktNc1X7zI-i0Xddp3K0QRKk9XhVRGL48VzkEJveUlCCWUehiDUWSPUM249CeVAvjK7uxoa738PwRMfoEzfOt21F-Dz2rC3HzfLd0mfoTdtK-A_L6wGPLCBehmo3e_phLbDj1HMzbmmxr8IzdB_M6in4nhe6BhzPrwKNoIjgYZye4OE0j4qbM2i8hec1YrZyyM9H4ZPhUHfg_ie9HvkJ4HBNhbToEmD8PfNwi9BtcP5Gzj8bClbBYEnv9OkChnhJPGUI3VfVAR0T4Ra5SD1p7UWkc-p33HprhhRlSSPdSlBUgivj89vZ5NoPMTB0wuummpUNVP_i-xUvDBEBnIOwEECcmOAgJwAc5AmwHlnCXTAw%3D&amp;og_info=%7B%22title%22%3A%2215+Days+Suplemento+para+Apoyo+Digestivo+con+Psyllium%2C+Sen+y+C%C3%A1scara+Sagrada+%E2%80%93+30+C%C3%A1psulas%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2F23c42230304e4c798ab2cd97ee412b30~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=7d819453-9e39-43e2-92fd-28dc917d02e5&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770091747&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/23c42230304e4c798ab2cd97ee412b30~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>15 Days Suplemento</t>
+  </si>
+  <si>
+    <t>Apoyo Digestivo con Psyllium, Sen y Cáscara Sagrada – 30 Cápsulas</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1731368129784219125?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602486489440503573%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=c33a50b28ad1392955d9a4c14d24f527ffac09b49ab8a8799ad72bddb0f7ba01&amp;encode_params=MIIBVAQMTNngvMHKp9L-4q5qBIIBMAqIc-bNhnDIEGQB62_AICN3wBWbPMa4mDw-s1RqUAHBHwKYqtMTO8DKoXHu_pnefAuzJ0Vig3Zpo-vtpcGrkkHmfjg18CUHfRK-VvXiNBgJc2dKtUd8Uq8XvqpNyI43YTzg0UdOWebGrycaS4eBumL_RBHN_f_mzDusWI_t9azTIB5NGJnjGjO3W8cF4zLJ_y3a68RARCaohuukrUJCgr1aGkCFdDBt7t1bpuTNPqjh9tcvHAgcE-TCVW29uMrotL0TGov6P63R6cXZKvSRdKmABZXH9InBDhCQHSmUueYs8-2dRpuiAaeETvsxvZkVbQcnk45CwCg8Wojiuliwl0G5cWaQPTxRCePAr5gd6xIN7Q67qCUzut7JskRqEEIUUODRmUlG1hX8oUcA13Ee-8kEEAyAQDGNMQbEf_VSzpAo0pE%3D&amp;og_info=%7B%22title%22%3A%22Ofertas+Especiales+de+Fin+de+A%C3%B1o+%7C+LeafStory+Limpieza+de+Candida+para+Mujeres+y+Hombres%2C+Limpieza+Intestinal+con+Or%C3%A9gano+y+%C3%81cido+Capr%C3%ADlico%2C+Suplemento+Herbario+para+la+Salud+Digestiva+e+Intestinal%2C+Equilibrio+de+la+Flora+Intestinal%2C+60+C%C3%A1psulas-bd%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2F8eedbf457116417194b89e49976eddd0~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=a49e1153-6c63-4a06-93af-c3ed928607a1&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770091838&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/fda7c2a693c14968acbcace2136aa6b0~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my2&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Candida Limpieza</t>
+  </si>
+  <si>
+    <t>Mejora la salud del cabello, uñas, piel y funcional intestinal</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/7a617ee319da427c894880042bc3e002~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my2&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1732133561668569382?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602487307328833300%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=1b56df760ca219bce1d44557ae8c2de61491d0c47b0808eded4b447d779bf38e&amp;encode_params=MIIBVAQMaVU75hpYWhW-xTiaBIIBMH5ZEkxmRF8f6ROyxxyzQtrijFZQ-6ZTtK8G41oEmrHrJtmBG0kkDEtV5EXNjFtgbkYqUJmZYgGa47RGPBUm5DHBbht-KzpiWAzmgafDCU_3kkArv5BhdJ1F39Y7AplYDKqtgdT91mA3xT8cnewDqKSUW4pB5OCIfrZtn2w56PMoZg5AgTPN7fu59uw7wXVAY-tS_WuzJxQPOHtndsGknD7oWyq9IXuOdf956aU7Hqn86_-gsBNJknBpvZjmBl4-iD-4-lYzTmsgtVQ_A87V8upxktToXVX6sO3jewN1-C5VwR6Lga6oYMNtlj6wi2T47jo88jAZMp4EgHmZOOVeuyUg4mbjL5nBq1BfAyn0ExQVklN3L7zTPypQFVpdDXRs32WqY3P-Sm5mld-EDUHfdk8EEAFzwNZ3X_fwqdoNHU7CzQM%3D&amp;og_info=%7B%22title%22%3A%22%E3%80%90retrasa+el+envejecimiento%E3%80%91NR900+-+Suplemento+de+NAD%2B%2Cactiva+la+vitalidad+celular%2C+para+el+envejecimiento+de+la+piel%2C+la+energ%C3%ADa+y+la+concentraci%C3%B3n+-+80+unidades-C%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2F5ca0f6df8f024eaeb06732cc3a17e1f9~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=abdb0268-28e7-45ab-be12-0c893ecfbc2e&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770092022&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/5ca0f6df8f024eaeb06732cc3a17e1f9~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Nicotinamide Riboside + Resveratrol</t>
+  </si>
+  <si>
+    <t>Activa la vitalidad celular, para el envejecimiento de la piel, la energía y la concentración</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1731558371427321030?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602488035075852052%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=f736e04c0856538db12af045c013df0fe0c16021fa5f23b1e05934143586cc3e&amp;encode_params=MIIBVAQMTHMZtGo8OCBrDkVDBIIBMLyZ-i-mL2jBerSh_WFmZFHGBqkv2JF2zsawMIBB_R4scs9VfxK6fl32wBN7lrwZGTj-1ggr-xhT7AMOy1CQlEYzyuQzPz64wOa0Tk5VVAxf8l_g9-rgZpP7WCZGNFeBlTvW8Ma67FnhoO7CFy8mS7E6oWhP4RC_AygBU-Mc4NifXlPZSPj9VCLC0irqzSFd4H3d2ghar6bv5JInesh_Uiqkku7AhAX1lGvaBpNjqk8wfpsOllj8Ku36ejfES6HQy6PpLPuMGdBo5PO4rvPjU9_2JIfLQUFfMhFUG9b1152ekswJkC70bhKCDRCb3o2IZl_FpSnKDlgxRZETK3dKypPImH_rm0-w8ba9IU_pdM7iigivokdgJvhhSpCd7e0kptXc8sFnTU_7RboEaGmH3-QEENV9RGPzqVloPik8UMSiInk%3D&amp;og_info=%7B%22title%22%3A%22Suplemento+con+lute%C3%ADna%2C+zeaxantina+y+vitaminas+clave+%E2%80%94+Perfecto+para+quienes+pasan+muchas+horas+frente+a+pantallas+y+quieren+cuidar+su+salud+visual+%E2%80%94+90+c%C3%A1psulas%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2F5db86029c27a449b9aecc05a79511b57~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=200986d7-debe-4e6e-9237-95925e346f8c&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770092189&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/1efc39bc5f344cf5902b6951e626a33f~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Salud ocular</t>
+  </si>
+  <si>
+    <t>Vision+ Luteína Natural</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1732465801434858623?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602488449971521300%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=c6213184df6eee64d2c503fb93de6975db6271ffe29ea36f641f0b7de3836c62&amp;encode_params=MIIBVAQMVC1LNohOfsMS9ShbBIIBMFG_J_gRJ4nQ6kjSp1y7xNx_IdHURGFL9lejkIG2MOZLrJmonruROFYNdoMgj69mpjBBeuxBmpKXCVkcvzspsYdqZukoyJFtPRUHvsyaSw6QzxmXc5drsWe9sALucPIgq0XNGctYzer6YFgsPvWgzpei6M8xnswTfz9B0uJNIPZ4AvnQtxksY5sqy5UG6eFkediF8iODaL_a_2b1F3zr6RnELqOGnFMNOdTlAPz-ut4L_seRcW5oKFLXbmtHE4WWI3F1e8Ops2TEaUhIze8EWYo7kaIHrq9NP_bAsG1N_UULlFCIo-HRs5s2Wf8fGyBxtnIVsom1aD5fkloH5h_CLmDXKI_Lt1SEWQcq4uIWtvq4bmIy-dwLuE_Ydx24rfuHetwSguBxzIqSBgQRRDT7OYsEECYAuiTpvpaf7z7eOq03eIc%3D&amp;og_info=%7B%22title%22%3A%22Windboss+Biotina+%7C+Contribuye+al+Mantenimiento+del+Cabello%2C+Piel+y+U%C3%B1as+%7C+Apoyo+al+Metabolismo+Energ%C3%A9tico+%7C+60+C%C3%A1psulas+Buen+Fin+x+Black+Friday%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2Ff5219232832e4cb18e5d9b2de616d21c~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=4ca6a11e-8fd3-4a29-b2a2-15f1c5010b0c&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770092290&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b5836%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/f5219232832e4cb18e5d9b2de616d21c~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Biotina Max+ Colageno</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1731972311335208475?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602489029848139541%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=3ad769fb9c90a58f2e39039014b14316838c5384276378079401e1944c5d2386&amp;encode_params=MIIBVAQMLHxDBQh6v8he7mOuBIIBMAZE5_fTk6DE0lin-gDW30zOrHjvPDfyVk0Y7zmoh_NJsqgbt1UWUe_Wnjotccp3x4Iby-0gsETV33YIXD7EKDbUZw4AwYFeOGxmOnib4BRkmkQV6UiAl1PS60Sq4QliS6oj4vNORD7no79MorTOjD0V3aX7XI0H21XwP3UzLkUPWnoAaonEZyegbFQYh5nKPJUPtYSul-7W1AGVtew3whNqvR1oZPx_MR05nyH1FevyxJuPQ3Tm3aC0rUyv6Yutvbx_DWhdXySUKxUBILbkc9hTCKs8xIduGIXOUQAT8Trx1o510seTUNbgIxs96pekTLCtn6OQLJGLvGOzS1luJ-AHsjqYqKRUyq-rGTE8r1k6fESMKtgIdz6yjtv3ezgfPTZArb6XWodvH-DnReJn9gUEELjM9342r0vQzXGdZ2Khs-4%3D&amp;og_info=%7B%22title%22%3A%22Control+Remoto+de+Excavadora%2C+Bulldozer%2C+Cami%C3%B3n+de+Basura%2C+Veh%C3%ADculo+de+Construcci%C3%B3n+Juguete+con+Luz+y+Sonido%2C+Regalo+Perfecto%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-va.ibyteimg.com%5C%2Ftos-maliva-i-o3syd03w52-us%5C%2F37fb6d33ec7148078ecb08537d40a429~tplv-o3syd03w52-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=6f2e4291-e6cd-4d74-8035-7f2c8b2cc3ec&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770092422&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b8727%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-va.ibyteimg.com/tos-maliva-i-o3syd03w52-us/6af5b8c981314009b56da0c21bcc73b4~tplv-o3syd03w52-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my2&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Control Remoto Excavadora, Vehiculo de contruccion</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1733134335764367137?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602489231332099860%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=2e14c1c87736af25a6d5c9a1fe4d5c10696a2bc40fac6e7a1dedb3c66c3c172d&amp;encode_params=MIIBVAQMVnrYG5OYrUTkIzuLBIIBMO6ZT8ee_V5M0ZTs644l82p_seL5hPpZLQfQhKTFW-pNim93Ngvsd64vuVQpK-dgR_ZcOhT3w_usZWYXKp40_cPzqByASUJ3XJDfgfGWQp2i8G_HrbjccVtAJHsPVJMWIs_R5hzbkijdbZhy9hZRcEYgMqg--4t07GSMce19Yxw0CMZ2vNGioRrysrWnB0tuG5dERUrEd7DOHG__H5GsnDTtEurNhNpKekCe_cluozT4qGqG32StqyQfpeIoW-ZjQJuhfVEA3BdAC08Vtuwxvd4lyB085ekSgr0b6tHih7DrwCyKNSHeZ_8p5e8i_exH6xMePSrc4aQVirjhL_pg5gFP7ufYkGKlsFdkFRM-k74P6qCE-6cgnUwYOCApb-ik2zXcxCY6M325w07LxSOiVUoEEHu44BDd8XRXhq5fPt1UI14%3D&amp;og_info=%7B%22title%22%3A%22Reloj+inteligente+con+7+correas%2C+realiza%5C%2Fcontesta+llamadas%2C+compatible+con+Android+e+iOS%2C+tecnolog%C3%ADa+port%C3%A1til+elegante%2C+materiales+de+alta+calidad%2C+Bluetooth%2C+recordatorios+de+llamadas+y+mensajes%2C+y+contador+de+pasos.%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2Ff789c607485d460eaebfea86318b597f~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=528e7b21-6415-42ab-a822-255d62dfa707&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770092472&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b8727%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/f789c607485d460eaebfea86318b597f~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Incluye 7 correas</t>
+  </si>
+  <si>
+    <t>Reloj inteligente, Smartwatch</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1731827683994731991?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602489364107822868%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=cff04a73429c2c2fa62ec1bf5eed3268f02602fd50e1f07b819f8db2f5f27408&amp;encode_params=MIIBVAQMRkjhwtdhG9lx6A-LBIIBMPWCv3j3t4aFtzwVveYZMNMn3z4rujJd0VHeXLU7I1XMufu7OZvVtJMeizTqU-OZLLOGwJsgvOvEwggU9OZrFvmX0JF_08bQlDHgqnskWevzzEZxLk3mjpUHEXq4CE9GMDDh_SQxsUPYyI5Hw5DxZ5QANiM7_26FgLmA8bASLEsktTBeBAhW88tW3jNXAP5igV_Xmnn_e-l5WRVdLS6rtU2byVIONI0MhFIAYtXbOKOMlU6ms17Jkp6aXmfPV5xbIFdZP7H-JpUx2J_Kjixh0iIcJQBsNcgoM-YisLXXkgAhOriQggASoDTYTKsLNw6H59s8uPW725g95kLGPxK1lz8EDIItXr3gpaJmtJRuhEFoj8ETmytNZPxoZTKVXy3hD_UkLm-JXciEQLv4eo5SQH8EEDOgDY1ShdqP7lWLcRxoDeo%3D&amp;og_info=%7B%22title%22%3A%22Estante+de+almacenamiento+de+limpieza+de+acero+inoxidable+para+cocina%2C+caja+de+almacenamiento+de+palillos+y+detergente+multifunci%C3%B3n%2C+estante+de+almacenamiento+de+utensilios+de+cocina%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2Fee0c2480bd87414f84bae3a0fe11f126~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=2a685b52-1718-4c08-8385-95a651f402ba&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770092509&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b8727%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/ee0c2480bd87414f84bae3a0fe11f126~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Estante de almacenamiento de limpieza de acero inoxidable para cocina, caja de almacenamiento de palillos y detergente multifunción</t>
+  </si>
+  <si>
+    <t>Acero inoxidable</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1732255608425449006?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602489697815725844%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=a4a7932415131e6ae61b438a28deef81c6342ef2c4701aed4a30073175935949&amp;encode_params=MIIBVAQM7vLXiIsbxtu89GVwBIIBMJTgmOLNC4R0pD1yUhLIzpxfvUTGwj_0_tCmvBqDgmstrIXxst6cpmfy-sIOP-q36yjFVO0jnWyZHH8q_YlMrLRsj_hTbbsOsJ0AKVIx7NFRLhOS-qhlJUcyHrM-Qp5GOAm757991zNWzZ2prBGvKztg3WUor-P6HFOdMiZ2lyxUtRI36UN2weMMs7KXcCnQDhtKRBy0nA3IoqhGhCrjCTpWO8jnXKW6SDnU7aJX6aTxLU_VdA89dku8zC2hMXA9oDjuKfiud9r1vB2CSG_YwFD9l9EodpXJnIyP5-4AGFuhbbhpH8oHvTKW-bZmw2YCPpA3wPt4M7xzvixpJ52eZ-7BcB0QaqMFY-LVP3ktLiakcqLFlKcoJpfFeJdXcZKaH3RE_bW97-6JZwlABs3ESrwEEF6PsAkCJNXYRGkKis3BhHU%3D&amp;og_info=%7B%22title%22%3A%22%5B4PCS%5DPinza+para+Cabello+de+Color+S%C3%B3lido%2C+Ideal+para+Peinados+Escolares%2C+Regalo+para+Ella%2C+Accesorios+para+el+Cabello+Vers%C3%A1tiles+y+Casuales+para+Mujeres%2C+Accesorio+Minimalista+Adecuado+para+Cabello+Grueso%2C+Accesorios+de+Moda+para+Fiestas%2C%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2Fe52316626550412db52bb508563f398a~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=1d4df8a9-e376-4106-b897-628a1d23d4c1&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770092581&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b8727%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/e52316626550412db52bb508563f398a~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my2&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Pinzas para el cabello</t>
+  </si>
+  <si>
+    <t>Cepillo Alaciador - Diseño Tipo Pinza - con Microacondicionadores de Keratina y Argán</t>
+  </si>
+  <si>
+    <t>Temperatura max 230°</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1731191030824994781?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602490490327631636%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=4b55662564b980c5d185720e2427665e385c01b548fd980c35c256ba5a9e1326&amp;encode_params=MIIBVAQMo7ehkWmJqMSsEUbiBIIBMJFWYZlTHFEHpHFWRJKHhbACVDlQns_et1cHe77QL6WIMpgFk8_PeqT9NrL33Ke_OYE7KuToCZHTt_RP9-IqAJsSb-RPrTGbVRF8JDdwJf0NXmatk9xaGWK26NJAn0SdoBl2-SmEg9FGVxPY_bIKiAAzjn_IgpFar8-tsgMG59UYaa1pT1Kckth5Dl7JRpfB_iK7Y2C8xPm9vPbJto5b8hZfzkQknMRgDoP602gOrJfRut6jugNilrGDsLtcdEsnJxwwK7Bf-RtWWVPMQ2NiOVOj7hGVKa5JHZHnngPaX3dSTd1YSVGzAN34C0ZzVMQvsaL41cgc23nvjfklszK0aXiC1R-BAhSNliqAyGth4uNoq_SUQQsvUVGUWyltb1x1MbvFhKFbmiMNqHEbkfYNr5MEELQDwUeFNkPcMejgSRZNDlU%3D&amp;og_info=%7B%22title%22%3A%22Silker+D%C3%BAo+-+Cepillo+Alaciador+-+Dise%C3%B1o+Tipo+Pinza+-+con+Microacondicionadores+de+Keratina+y+Arg%C3%A1n%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2F7b241f978ad94f2190936386bc541a57~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=719d4233-1264-4f5d-bcf4-46772f866275&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770092764&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b8727%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/7b241f978ad94f2190936386bc541a57~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1733022934582985954?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602490351565145877%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=3012e7e008035e1d5c1fd3a91ddd91a53edc93e0d3a14e7e6ef97a48d25dcbd7&amp;encode_params=MIIBVAQMJNoZI8TCrwZthLy4BIIBMBZbFMp8k-5hLqog_vw2Da5-Q8wTJqbblip5mwvIPIm3otsV9Czb7xdPQ59pKrkYJa71VyEt6dKOMrlhNT6tZd1TbAIE53vdTyHCySNb3S7P8NXb4WMSHNMarCNg_h8Z3XARHSzq7eeZQs9wSHU4D_9URZNcIIBc_n5UpqK2Fe_BCqY6ES6DN47skM7dyDJaC_-eBqVTuj9kUfHRHz_9m1lagJcMeRkCVdKaygOVijZuPetpNubkT4rcWsdlMcN1bPdFkMB5c5fCNRhsS_DGcm2w8zhh8XNAWe_3CQN3LdBFw51f7x969gKivxqu-nT3BnaaB5B_xwSOg1coUeq-Cg1mpYs6rsX62toUFN8nWcgCQNeScMgC_tzjpXUf_beJkjMCf1lXTULjteSb16yJ9QIEEF9mExQm6f8AjPBK-zxLkbE%3D&amp;og_info=%7B%22title%22%3A%22BICAO+YUAN+Espejo+de+maquillaje+iluminado+con+16+luces+LED%2C+rotaci%C3%B3n+de+180+grados%2C+espejo+iluminado%2C+pantalla+t%C3%A1ctil%2C+brillo+ajustable%2C+espejos+de+escritorio+de+doble+suministro+USB%2C+espejos+cosm%C3%A9ticos%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2F36c6866476434888847289b19f282298~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=ac2d513a-d08a-4d2d-a8e8-2e4818fe2e85&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770092736&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b8727%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/7631a1f4078241ac90adbb56abbad0a7~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Espejo de maquillaje iluminado con 16 luces LED</t>
+  </si>
+  <si>
+    <t>USB o Baterias AA</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1732005909938801277?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602491991348299540%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=9741594419c90271722fb6db2f10eea1e77359714fbc7bee10eeccadb713a979&amp;encode_params=MIIBVAQMZnsJNgto5jWYFl0_BIIBMLxDTOeI2UkQAN2gJuZFUY_R7m6oi_WKs6-UhTciarVF2xvtmZ3VIm_HeiYe6EZDPR-LnVdNNWncqEtHZHgSEevFzH_dl4j1Ha4ihmOX1nYwbQrD1LJFAMn6KcUTajoXYBv8y6It5XmZZlhu2MzR9xJKSupEBNJTzdSQ_AmScnHUQmYWev9CZ0gwtiUqZnXuPc8mjdXFn6pRDGeA-xvV2IHEZIZdTekoY9V4eX6bzugNymXJ-aHlNMNavFE_SXzudRMPbQcUf3nSHiWakgWW967A76OSBoQtVZDNQ69q50zQ4ja9ixIjQTR9b3Nvi6stQUaWrzT1RoVMg5JiV3MaI74NvAuwb85U79BWl3Dmq-A1IXs9RRZMzoTVMF-88Dtgmsbj0T37DdVlq2DJaYCGMS8EEBcR7UAoP9tlJ1ml7wSqh4U%3D&amp;og_info=%7B%22title%22%3A%22Consola+de+Juegos+Retro+con+20000%2B+Juegos+Integrados+26+Emuladores+HDMI+4K+y+Controladores+Duales+Premium+para+Juegos+Inmersivos%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2F02a61bc45023450a9ed974a8d934476e~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=6aa98c08-d46b-4a50-b305-6f22fd3b069b&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770093113&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b8727%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/02a61bc45023450a9ed974a8d934476e~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my2&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Consola de Juegos Retro HDMI 4K y Controladores Duales Premium para Juegos Inmersivos</t>
+  </si>
+  <si>
+    <t>con 20000+ Juegos Integrados 26 Emuladores</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1732856549931123773?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602492425596454676%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=fbba70ad198b20dffd4788c9af4056bb28cb82e1b50f6758dbacaae706d1a7e7&amp;encode_params=MIIBVAQM4Ov0MOJQ2gSIDcmJBIIBMAybWaZOswRXBPk8RqCfjSw43b-ogx2un6vMWPCldlaeWIME_maDMkHfPpk3fP2d8kDXk1QfaU8gnJZ-TJZ56hZtA10yK4eb_3RuWrUB0L3Fk_zWLV0NCYwDOvcCNHDlclxc7Cts5X0CkEHNOP71mR7_LfeOFiA5nENOVVEYBy98JNzkNA8ajqvuu62kMJZblnUlIk891rfXM9NHbNWtO57wP9t7LMOG3AYtAYmWX0b74wMYyeNnjA8uvmh4gL2Gr6L9NUuKWusO87pYASRi48PApJdwLX8eXC-t08xg2o1EJH8sZK3NNce5mZBw9MuyKM8n2-ukSQVJf8TVlE-wktykDscu4xruHEU_QGgTS0TlT1R4Ed6-NxSJe5qGLtQHdnJZwY_R2ZsLyF9EkRMMIlkEEPjRapBpbZnzH2gPLSXAoVU%3D&amp;og_info=%7B%22title%22%3A%22Kit+para+el+crecimiento+de+la+barba%3A+set+de+suero+y+rodillo+para+una+barba+m%C3%A1s+gruesa+y+abundante%2C+cuidado+diario+para+hombres%2C+liviano+y+f%C3%A1cil+de+usar%2C+regalo+perfecto.%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-va.ibyteimg.com%5C%2Ftos-maliva-i-o3syd03w52-us%5C%2Fa82cf4b5a197496487e0b8ee2562af8c~tplv-o3syd03w52-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=3f922587-5c87-41fb-bd1c-7c8894e84a7c&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770093236&amp;trackParams=%7B%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b0813%2Cb6661&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-va.ibyteimg.com/tos-maliva-i-o3syd03w52-us/a82cf4b5a197496487e0b8ee2562af8c~tplv-o3syd03w52-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my2&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Kit para el crecimiento de la barba: set de suero y rodillo para una barba más gruesa y abundante</t>
+  </si>
+  <si>
+    <t>Crecimiento barba</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/view/product/1732679326337697694?_svg=1&amp;chain_key=%7B%22t%22%3A1%2C%22k%22%3A%22000000000000000007602493375842141972%22%2C%22sc%22%3A%22whatsapp%22%7D&amp;checksum=79b27e589ad0a31d3106ebf311471cfd078eb15a2cf2c7764ce0e8d69f7b9e8a&amp;encode_params=MIIBVAQM7WmLp9uEqVgDv9RJBIIBMC5n5ULf3tIHsnv0KIjVOAxvN6PXRa-gdevpOFdV_V_a2i39juQ8HqfTfjJrbRG8i2fob9y5ReM5cktjvYooEe5l-Eq-DDmYqEnDeGKNHX2Ym6u-vzix59SDdWoCsptdtuC2r89l-kaO8l8Yu7UbyC3LC_4rUbC9RuzYVfmzfKVI6bcuESL5koqarnQbQv4cG-bHozaCxyPdcujYx7EvUEdpNPv8Jvc9SD3M0xb_uqnnYzwJqFP8gDgPP-Y3GI3YGcq8P2_kc1pFwhlOevsQ_vbQhmILWjbfyQcVDRVksRTjliOEzD5GdPJJO2XMCZhvSOUJlLk5eyZiQSu_7G-hLrd7vrkonzYoB3JuslGv4QVWKyKwyghXiwymSe62cBB2mK3WtybexHiwo1E7oLACezEEEDLrzM1Utt4pNCLFP_DjgIA%3D&amp;og_info=%7B%22title%22%3A%22Flores+Rosa+Natural+Eterna+Y+Collar+De+Te+Amo+Coraz%C3%B3n+Para+Mujeres+Mam%C3%A1+Abuela+Esposa+Novia+En+El+D%C3%ADa+De+La+Madre+Cumplea%C3%B1os+San+Valent%C3%ADn+Navidad+Aniversario+Rom%C3%A1nticos%22%2C%22image%22%3A%22https%3A%5C%2F%5C%2Fp16-oec-sg.ibyteimg.com%5C%2Ftos-alisg-i-aphluv4xwc-sg%5C%2F70e8076046dc4c16b6de34904f730b3f~tplv-aphluv4xwc-resize-webp%3A260%3A260.webp%3Fdr%3D15582%26t%3D555f072d%26ps%3D933b5bde%26shp%3D7745054a%26shcp%3D9b759fb9%26idc%3Dmy2%26from%3D2001012042%22%7D&amp;sec_user_id=MS4wLjABAAAASh2XXiFeSXjTUYaYz4MxFDXXVmOq30p_JQbVKHsf_hX8Kja4AE7JYjvumb9XvZe8&amp;share_app_id=1233&amp;share_iid=7602393301812037397&amp;share_link_id=3ea478f6-5bab-45af-a655-d185dd2dc5a9&amp;share_region=MX&amp;social_share_type=15&amp;timestamp=1770093431&amp;trackParams=%7B%22traffic_source_list%22%3A%5B2%5D%2C%22enable_shop_tab_popup%22%3A1%2C%22device_id%22%3A%227544950396772566544%22%7D&amp;u_code=e4mdabb91ak1c0&amp;ug_btm=b8727%2Cb2878&amp;ugbiz_name=UNKNOWN&amp;unique_id=crece.con.iris&amp;user_id=7165686835900843014&amp;utm_campaign=client_share&amp;utm_medium=android&amp;utm_source=whatsapp</t>
+  </si>
+  <si>
+    <t>https://p16-oec-sg.ibyteimg.com/tos-alisg-i-aphluv4xwc-sg/70e8076046dc4c16b6de34904f730b3f~tplv-aphluv4xwc-resize-webp:800:800.webp?dr=15584&amp;t=555f072d&amp;ps=933b5bde&amp;shp=6ce186a1&amp;shcp=e1be8f53&amp;idc=my2&amp;from=1826719393</t>
+  </si>
+  <si>
+    <t>Flores Rosa Natural Eterna Y Collar De Te Amo Corazón</t>
+  </si>
+  <si>
+    <t>Bufanda de regalo</t>
   </si>
 </sst>
 </file>
@@ -2453,8 +2765,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:H227" totalsRowShown="0">
-  <autoFilter ref="A1:H227"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:H254" totalsRowShown="0">
+  <autoFilter ref="A1:H254"/>
   <sortState ref="A2:H230">
     <sortCondition ref="H1:H230"/>
   </sortState>
@@ -2757,10 +3069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:H254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="F254" sqref="F254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2822,7 +3134,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2848,7 +3160,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2874,7 +3186,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2900,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2926,7 +3238,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3786,7 +4098,7 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3938,7 +4250,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B47" t="s">
         <v>33</v>
@@ -3947,10 +4259,10 @@
         <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F47" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G47" t="s">
         <v>645</v>
@@ -3961,19 +4273,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B48" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C48">
         <v>200</v>
       </c>
       <c r="E48" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F48" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G48" t="s">
         <v>645</v>
@@ -3984,10 +4296,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B49" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C49">
         <v>159</v>
@@ -3996,10 +4308,10 @@
         <v>120</v>
       </c>
       <c r="E49" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F49" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G49" t="s">
         <v>645</v>
@@ -4010,10 +4322,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B50" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C50">
         <v>5150</v>
@@ -4022,10 +4334,10 @@
         <v>3500</v>
       </c>
       <c r="E50" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F50" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G50" t="s">
         <v>645</v>
@@ -4036,10 +4348,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B51" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C51">
         <v>1700</v>
@@ -4048,10 +4360,10 @@
         <v>1000</v>
       </c>
       <c r="E51" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F51" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G51" t="s">
         <v>645</v>
@@ -4062,45 +4374,45 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B52" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C52">
         <v>200</v>
       </c>
       <c r="E52" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F52" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G52" t="s">
         <v>645</v>
       </c>
       <c r="H52" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C53">
         <v>500</v>
       </c>
       <c r="E53" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F53" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G53" t="s">
         <v>645</v>
       </c>
       <c r="H53" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -4126,7 +4438,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -4149,7 +4461,7 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4172,7 +4484,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -4198,7 +4510,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4224,7 +4536,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -4250,7 +4562,7 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -4273,7 +4585,7 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -4296,7 +4608,7 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -4319,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -4345,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -4368,7 +4680,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4394,7 +4706,7 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4417,7 +4729,7 @@
         <v>3.1</v>
       </c>
       <c r="H66" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4443,7 +4755,7 @@
         <v>3.1</v>
       </c>
       <c r="H67" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4466,7 +4778,7 @@
         <v>4</v>
       </c>
       <c r="H68" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4492,7 +4804,7 @@
         <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4518,7 +4830,7 @@
         <v>6</v>
       </c>
       <c r="H70" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4544,7 +4856,7 @@
         <v>6</v>
       </c>
       <c r="H71" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4570,7 +4882,7 @@
         <v>6</v>
       </c>
       <c r="H72" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4648,7 +4960,7 @@
         <v>454</v>
       </c>
       <c r="H75" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -4671,7 +4983,7 @@
         <v>481</v>
       </c>
       <c r="H76" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4697,24 +5009,24 @@
         <v>553</v>
       </c>
       <c r="H77" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B78" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C78">
         <v>670</v>
       </c>
       <c r="E78" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F78" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G78" t="s">
         <v>645</v>
@@ -4725,19 +5037,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B79" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C79">
         <v>350</v>
       </c>
       <c r="E79" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F79" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G79" t="s">
         <v>645</v>
@@ -4748,19 +5060,19 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B80" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C80">
         <v>400</v>
       </c>
       <c r="E80" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F80" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G80" t="s">
         <v>645</v>
@@ -4771,19 +5083,19 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B81" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C81">
         <v>600</v>
       </c>
       <c r="E81" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F81" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="G81" t="s">
         <v>645</v>
@@ -4794,19 +5106,19 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B82" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C82">
         <v>200</v>
       </c>
       <c r="E82" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F82" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="G82" t="s">
         <v>645</v>
@@ -4817,19 +5129,19 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B83" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C83">
         <v>500</v>
       </c>
       <c r="E83" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F83" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="G83" t="s">
         <v>645</v>
@@ -4861,7 +5173,7 @@
         <v>3.1</v>
       </c>
       <c r="H84" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4887,7 +5199,7 @@
         <v>3.1</v>
       </c>
       <c r="H85" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4913,7 +5225,7 @@
         <v>3.1</v>
       </c>
       <c r="H86" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4939,7 +5251,7 @@
         <v>3.1</v>
       </c>
       <c r="H87" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4965,7 +5277,7 @@
         <v>3.1</v>
       </c>
       <c r="H88" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5066,7 +5378,7 @@
         <v>8</v>
       </c>
       <c r="H92" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -5366,24 +5678,24 @@
         <v>645</v>
       </c>
       <c r="H104" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B105" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C105">
         <v>100</v>
       </c>
       <c r="E105" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F105" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="G105" t="s">
         <v>645</v>
@@ -5467,7 +5779,7 @@
         <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -5493,7 +5805,7 @@
         <v>429</v>
       </c>
       <c r="H109" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -5516,7 +5828,7 @@
         <v>8.1</v>
       </c>
       <c r="H110" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -5536,7 +5848,7 @@
         <v>4</v>
       </c>
       <c r="H111" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -5559,7 +5871,7 @@
         <v>4</v>
       </c>
       <c r="H112" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -5582,76 +5894,76 @@
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B114" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C114">
         <v>300</v>
       </c>
       <c r="E114" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F114" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="G114" t="s">
         <v>645</v>
       </c>
       <c r="H114" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B115" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C115">
         <v>100</v>
       </c>
       <c r="E115" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F115" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="G115" t="s">
         <v>645</v>
       </c>
       <c r="H115" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B116" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C116">
         <v>300</v>
       </c>
       <c r="E116" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F116" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="G116" t="s">
         <v>645</v>
       </c>
       <c r="H116" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -5674,7 +5986,7 @@
         <v>4</v>
       </c>
       <c r="H117" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -5697,7 +6009,7 @@
         <v>4</v>
       </c>
       <c r="H118" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -5723,7 +6035,7 @@
         <v>4</v>
       </c>
       <c r="H119" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -5746,7 +6058,7 @@
         <v>4</v>
       </c>
       <c r="H120" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -5769,7 +6081,7 @@
         <v>4</v>
       </c>
       <c r="H121" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -5792,7 +6104,7 @@
         <v>4</v>
       </c>
       <c r="H122" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -5815,7 +6127,7 @@
         <v>4</v>
       </c>
       <c r="H123" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -5982,7 +6294,7 @@
         <v>6</v>
       </c>
       <c r="H130" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -6138,7 +6450,7 @@
         <v>8</v>
       </c>
       <c r="H136" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -6164,7 +6476,7 @@
         <v>8</v>
       </c>
       <c r="H137" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -6190,7 +6502,7 @@
         <v>8</v>
       </c>
       <c r="H138" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -6216,7 +6528,7 @@
         <v>8</v>
       </c>
       <c r="H139" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -6242,7 +6554,7 @@
         <v>8</v>
       </c>
       <c r="H140" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -6268,7 +6580,7 @@
         <v>8.1</v>
       </c>
       <c r="H141" t="s">
-        <v>115</v>
+        <v>787</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -6294,7 +6606,7 @@
         <v>8.1</v>
       </c>
       <c r="H142" t="s">
-        <v>115</v>
+        <v>787</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -6311,7 +6623,7 @@
         <v>300</v>
       </c>
       <c r="E143" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F143" t="s">
         <v>322</v>
@@ -6320,7 +6632,7 @@
         <v>8.1</v>
       </c>
       <c r="H143" t="s">
-        <v>115</v>
+        <v>787</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -6424,7 +6736,7 @@
         <v>366</v>
       </c>
       <c r="H147" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -6701,7 +7013,7 @@
         <v>429</v>
       </c>
       <c r="H158" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -6727,7 +7039,7 @@
         <v>429</v>
       </c>
       <c r="H159" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -6880,7 +7192,7 @@
         <v>481</v>
       </c>
       <c r="H165" t="s">
-        <v>115</v>
+        <v>787</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -7200,7 +7512,7 @@
         <v>553</v>
       </c>
       <c r="H178" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -7355,19 +7667,19 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B185" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C185">
         <v>700</v>
       </c>
       <c r="E185" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F185" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G185" t="s">
         <v>645</v>
@@ -7378,10 +7690,10 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B186" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C186">
         <v>399</v>
@@ -7390,24 +7702,24 @@
         <v>350</v>
       </c>
       <c r="E186" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F186" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G186" t="s">
         <v>645</v>
       </c>
       <c r="H186" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B187" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C187">
         <v>159</v>
@@ -7416,10 +7728,10 @@
         <v>120</v>
       </c>
       <c r="E187" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F187" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G187" t="s">
         <v>645</v>
@@ -7430,19 +7742,19 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B188" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C188">
         <v>435</v>
       </c>
       <c r="E188" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F188" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="G188" t="s">
         <v>645</v>
@@ -7453,7 +7765,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B189" t="s">
         <v>33</v>
@@ -7465,44 +7777,44 @@
         <v>1050</v>
       </c>
       <c r="E189" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F189" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G189" t="s">
         <v>645</v>
       </c>
       <c r="H189" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B190" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C190">
         <v>200</v>
       </c>
       <c r="E190" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F190" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G190" t="s">
         <v>645</v>
       </c>
       <c r="H190" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B191" t="s">
         <v>33</v>
@@ -7511,10 +7823,10 @@
         <v>300</v>
       </c>
       <c r="E191" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="F191" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G191" t="s">
         <v>645</v>
@@ -7525,19 +7837,19 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B192" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C192">
         <v>200</v>
       </c>
       <c r="E192" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F192" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="G192" t="s">
         <v>645</v>
@@ -7548,19 +7860,19 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B193" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C193">
         <v>300</v>
       </c>
       <c r="E193" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F193" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="G193" t="s">
         <v>645</v>
@@ -7571,16 +7883,16 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C194">
         <v>200</v>
       </c>
       <c r="E194" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F194" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="G194" t="s">
         <v>645</v>
@@ -7632,15 +7944,15 @@
         <v>5</v>
       </c>
       <c r="H196" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B197" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C197">
         <v>859</v>
@@ -7649,39 +7961,39 @@
         <v>650</v>
       </c>
       <c r="E197" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="F197" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="G197" t="s">
         <v>645</v>
       </c>
       <c r="H197" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B198" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C198">
         <v>250</v>
       </c>
       <c r="E198" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="F198" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="G198" t="s">
         <v>645</v>
       </c>
       <c r="H198" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -8260,10 +8572,10 @@
         <v>660</v>
       </c>
       <c r="C222">
-        <v>780</v>
+        <v>350</v>
       </c>
       <c r="D222">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E222" t="s">
         <v>661</v>
@@ -8312,10 +8624,10 @@
         <v>668</v>
       </c>
       <c r="C224">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="D224">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E224" t="s">
         <v>669</v>
@@ -8332,25 +8644,25 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>671</v>
+        <v>762</v>
       </c>
       <c r="B225" t="s">
-        <v>672</v>
+        <v>763</v>
       </c>
       <c r="C225">
-        <v>800</v>
+        <v>298</v>
       </c>
       <c r="D225">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E225" t="s">
-        <v>673</v>
+        <v>764</v>
       </c>
       <c r="F225" t="s">
-        <v>674</v>
+        <v>765</v>
       </c>
       <c r="G225" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="H225" t="s">
         <v>12</v>
@@ -8358,28 +8670,669 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
       <c r="B226" t="s">
-        <v>767</v>
+        <v>789</v>
       </c>
       <c r="C226">
-        <v>298</v>
-      </c>
-      <c r="D226">
+        <v>210</v>
+      </c>
+      <c r="E226" t="s">
+        <v>801</v>
+      </c>
+      <c r="F226" t="s">
+        <v>792</v>
+      </c>
+      <c r="G226" t="s">
+        <v>791</v>
+      </c>
+      <c r="H226" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>832</v>
+      </c>
+      <c r="B227" t="s">
+        <v>794</v>
+      </c>
+      <c r="C227">
+        <v>230</v>
+      </c>
+      <c r="E227" t="s">
+        <v>802</v>
+      </c>
+      <c r="F227" t="s">
+        <v>793</v>
+      </c>
+      <c r="G227" t="s">
+        <v>791</v>
+      </c>
+      <c r="H227" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>797</v>
+      </c>
+      <c r="B228" t="s">
+        <v>796</v>
+      </c>
+      <c r="C228">
         <v>200</v>
       </c>
-      <c r="E226" t="s">
-        <v>768</v>
-      </c>
-      <c r="F226" t="s">
-        <v>769</v>
-      </c>
-      <c r="G226" t="s">
+      <c r="E228" t="s">
+        <v>803</v>
+      </c>
+      <c r="F228" t="s">
+        <v>795</v>
+      </c>
+      <c r="G228" t="s">
+        <v>791</v>
+      </c>
+      <c r="H228" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>788</v>
+      </c>
+      <c r="B229" t="s">
+        <v>789</v>
+      </c>
+      <c r="C229">
+        <v>210</v>
+      </c>
+      <c r="E229" t="s">
+        <v>849</v>
+      </c>
+      <c r="F229" t="s">
+        <v>798</v>
+      </c>
+      <c r="G229" t="s">
+        <v>791</v>
+      </c>
+      <c r="H229" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>788</v>
+      </c>
+      <c r="B230" t="s">
+        <v>789</v>
+      </c>
+      <c r="C230">
+        <v>210</v>
+      </c>
+      <c r="E230" t="s">
+        <v>804</v>
+      </c>
+      <c r="F230" t="s">
+        <v>799</v>
+      </c>
+      <c r="G230" t="s">
+        <v>791</v>
+      </c>
+      <c r="H230" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>832</v>
+      </c>
+      <c r="B231" t="s">
+        <v>794</v>
+      </c>
+      <c r="C231">
+        <v>230</v>
+      </c>
+      <c r="E231" t="s">
+        <v>805</v>
+      </c>
+      <c r="F231" t="s">
+        <v>800</v>
+      </c>
+      <c r="G231" t="s">
+        <v>791</v>
+      </c>
+      <c r="H231" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>809</v>
+      </c>
+      <c r="B232" t="s">
+        <v>808</v>
+      </c>
+      <c r="C232">
+        <v>180</v>
+      </c>
+      <c r="E232" t="s">
+        <v>807</v>
+      </c>
+      <c r="F232" t="s">
+        <v>806</v>
+      </c>
+      <c r="G232" t="s">
+        <v>791</v>
+      </c>
+      <c r="H232" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>812</v>
+      </c>
+      <c r="B233" t="s">
+        <v>813</v>
+      </c>
+      <c r="C233">
+        <v>180</v>
+      </c>
+      <c r="E233" t="s">
+        <v>811</v>
+      </c>
+      <c r="F233" t="s">
+        <v>810</v>
+      </c>
+      <c r="G233" t="s">
+        <v>791</v>
+      </c>
+      <c r="H233" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>817</v>
+      </c>
+      <c r="B234" t="s">
+        <v>816</v>
+      </c>
+      <c r="C234">
+        <v>180</v>
+      </c>
+      <c r="E234" t="s">
+        <v>815</v>
+      </c>
+      <c r="F234" t="s">
+        <v>814</v>
+      </c>
+      <c r="G234" t="s">
+        <v>791</v>
+      </c>
+      <c r="H234" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>820</v>
+      </c>
+      <c r="B235" t="s">
+        <v>821</v>
+      </c>
+      <c r="C235">
+        <v>400</v>
+      </c>
+      <c r="E235" t="s">
+        <v>819</v>
+      </c>
+      <c r="F235" t="s">
+        <v>818</v>
+      </c>
+      <c r="G235" t="s">
+        <v>791</v>
+      </c>
+      <c r="H235" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>824</v>
+      </c>
+      <c r="B236" t="s">
+        <v>825</v>
+      </c>
+      <c r="C236">
+        <v>200</v>
+      </c>
+      <c r="E236" t="s">
+        <v>823</v>
+      </c>
+      <c r="F236" t="s">
+        <v>822</v>
+      </c>
+      <c r="G236" t="s">
+        <v>791</v>
+      </c>
+      <c r="H236" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>812</v>
+      </c>
+      <c r="B237" t="s">
+        <v>813</v>
+      </c>
+      <c r="C237">
+        <v>180</v>
+      </c>
+      <c r="E237" t="s">
+        <v>827</v>
+      </c>
+      <c r="F237" t="s">
+        <v>826</v>
+      </c>
+      <c r="G237" t="s">
+        <v>791</v>
+      </c>
+      <c r="H237" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>830</v>
+      </c>
+      <c r="B238" t="s">
+        <v>831</v>
+      </c>
+      <c r="C238">
+        <v>300</v>
+      </c>
+      <c r="E238" t="s">
+        <v>829</v>
+      </c>
+      <c r="F238" t="s">
+        <v>828</v>
+      </c>
+      <c r="G238" t="s">
+        <v>791</v>
+      </c>
+      <c r="H238" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>833</v>
+      </c>
+      <c r="B239" t="s">
+        <v>836</v>
+      </c>
+      <c r="C239">
+        <v>200</v>
+      </c>
+      <c r="E239" t="s">
+        <v>835</v>
+      </c>
+      <c r="F239" t="s">
+        <v>834</v>
+      </c>
+      <c r="G239" t="s">
+        <v>791</v>
+      </c>
+      <c r="H239" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>840</v>
+      </c>
+      <c r="B240" t="s">
+        <v>839</v>
+      </c>
+      <c r="C240">
+        <v>200</v>
+      </c>
+      <c r="E240" t="s">
+        <v>838</v>
+      </c>
+      <c r="F240" t="s">
+        <v>837</v>
+      </c>
+      <c r="G240" t="s">
+        <v>791</v>
+      </c>
+      <c r="H240" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>843</v>
+      </c>
+      <c r="B241" t="s">
+        <v>844</v>
+      </c>
+      <c r="C241">
+        <v>200</v>
+      </c>
+      <c r="E241" t="s">
+        <v>842</v>
+      </c>
+      <c r="F241" t="s">
+        <v>841</v>
+      </c>
+      <c r="G241" t="s">
+        <v>791</v>
+      </c>
+      <c r="H241" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>847</v>
+      </c>
+      <c r="B242" t="s">
+        <v>848</v>
+      </c>
+      <c r="C242">
+        <v>250</v>
+      </c>
+      <c r="E242" t="s">
+        <v>846</v>
+      </c>
+      <c r="F242" t="s">
+        <v>845</v>
+      </c>
+      <c r="G242" t="s">
+        <v>791</v>
+      </c>
+      <c r="H242" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>852</v>
+      </c>
+      <c r="B243" t="s">
+        <v>853</v>
+      </c>
+      <c r="C243">
+        <v>200</v>
+      </c>
+      <c r="E243" t="s">
+        <v>851</v>
+      </c>
+      <c r="F243" t="s">
+        <v>850</v>
+      </c>
+      <c r="G243" t="s">
+        <v>791</v>
+      </c>
+      <c r="H243" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>857</v>
+      </c>
+      <c r="B244" t="s">
+        <v>856</v>
+      </c>
+      <c r="C244">
+        <v>200</v>
+      </c>
+      <c r="E244" t="s">
+        <v>855</v>
+      </c>
+      <c r="F244" t="s">
+        <v>854</v>
+      </c>
+      <c r="G244" t="s">
+        <v>791</v>
+      </c>
+      <c r="H244" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>860</v>
+      </c>
+      <c r="B245" t="s">
+        <v>848</v>
+      </c>
+      <c r="C245">
+        <v>250</v>
+      </c>
+      <c r="E245" t="s">
+        <v>859</v>
+      </c>
+      <c r="F245" t="s">
+        <v>858</v>
+      </c>
+      <c r="G245" t="s">
+        <v>791</v>
+      </c>
+      <c r="H245" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>863</v>
+      </c>
+      <c r="B246" t="s">
+        <v>33</v>
+      </c>
+      <c r="C246">
+        <v>550</v>
+      </c>
+      <c r="E246" t="s">
+        <v>862</v>
+      </c>
+      <c r="F246" t="s">
+        <v>861</v>
+      </c>
+      <c r="G246" t="s">
         <v>645</v>
       </c>
-      <c r="H226" t="s">
-        <v>12</v>
+      <c r="H246" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>867</v>
+      </c>
+      <c r="B247" t="s">
+        <v>866</v>
+      </c>
+      <c r="C247">
+        <v>500</v>
+      </c>
+      <c r="E247" t="s">
+        <v>865</v>
+      </c>
+      <c r="F247" t="s">
+        <v>864</v>
+      </c>
+      <c r="G247" t="s">
+        <v>645</v>
+      </c>
+      <c r="H247" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>870</v>
+      </c>
+      <c r="B248" t="s">
+        <v>871</v>
+      </c>
+      <c r="C248">
+        <v>180</v>
+      </c>
+      <c r="E248" t="s">
+        <v>869</v>
+      </c>
+      <c r="F248" t="s">
+        <v>868</v>
+      </c>
+      <c r="G248" t="s">
+        <v>645</v>
+      </c>
+      <c r="H248" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>874</v>
+      </c>
+      <c r="B249" t="s">
+        <v>253</v>
+      </c>
+      <c r="C249">
+        <v>100</v>
+      </c>
+      <c r="E249" t="s">
+        <v>873</v>
+      </c>
+      <c r="F249" t="s">
+        <v>872</v>
+      </c>
+      <c r="G249" t="s">
+        <v>645</v>
+      </c>
+      <c r="H249" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>875</v>
+      </c>
+      <c r="B250" t="s">
+        <v>876</v>
+      </c>
+      <c r="C250">
+        <v>400</v>
+      </c>
+      <c r="E250" t="s">
+        <v>878</v>
+      </c>
+      <c r="F250" t="s">
+        <v>877</v>
+      </c>
+      <c r="G250" t="s">
+        <v>645</v>
+      </c>
+      <c r="H250" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>881</v>
+      </c>
+      <c r="B251" t="s">
+        <v>882</v>
+      </c>
+      <c r="C251">
+        <v>150</v>
+      </c>
+      <c r="E251" t="s">
+        <v>880</v>
+      </c>
+      <c r="F251" t="s">
+        <v>879</v>
+      </c>
+      <c r="G251" t="s">
+        <v>645</v>
+      </c>
+      <c r="H251" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>885</v>
+      </c>
+      <c r="B252" t="s">
+        <v>886</v>
+      </c>
+      <c r="C252">
+        <v>600</v>
+      </c>
+      <c r="E252" t="s">
+        <v>884</v>
+      </c>
+      <c r="F252" t="s">
+        <v>883</v>
+      </c>
+      <c r="G252" t="s">
+        <v>645</v>
+      </c>
+      <c r="H252" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>889</v>
+      </c>
+      <c r="B253" t="s">
+        <v>890</v>
+      </c>
+      <c r="C253">
+        <v>130</v>
+      </c>
+      <c r="E253" t="s">
+        <v>888</v>
+      </c>
+      <c r="F253" t="s">
+        <v>887</v>
+      </c>
+      <c r="G253" t="s">
+        <v>645</v>
+      </c>
+      <c r="H253" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>893</v>
+      </c>
+      <c r="B254" t="s">
+        <v>894</v>
+      </c>
+      <c r="C254">
+        <v>250</v>
+      </c>
+      <c r="E254" t="s">
+        <v>892</v>
+      </c>
+      <c r="F254" t="s">
+        <v>891</v>
+      </c>
+      <c r="G254" t="s">
+        <v>645</v>
+      </c>
+      <c r="H254" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/datos/productos.xlsx
+++ b/datos/productos.xlsx
@@ -3071,8 +3071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="F254" sqref="F254"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="A252" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5124,7 +5124,7 @@
         <v>645</v>
       </c>
       <c r="H82" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -5629,7 +5629,7 @@
         <v>553</v>
       </c>
       <c r="H102" t="s">
-        <v>115</v>
+        <v>784</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -6222,7 +6222,7 @@
         <v>5</v>
       </c>
       <c r="H127" t="s">
-        <v>90</v>
+        <v>784</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -7382,7 +7382,7 @@
         <v>553</v>
       </c>
       <c r="H173" t="s">
-        <v>115</v>
+        <v>784</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -7561,7 +7561,7 @@
         <v>553</v>
       </c>
       <c r="H180" t="s">
-        <v>115</v>
+        <v>784</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -7587,7 +7587,7 @@
         <v>553</v>
       </c>
       <c r="H181" t="s">
-        <v>115</v>
+        <v>784</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -7944,7 +7944,7 @@
         <v>5</v>
       </c>
       <c r="H196" t="s">
-        <v>784</v>
+        <v>148</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
